--- a/Document/Reports/TasksheetFinal.xlsx
+++ b/Document/Reports/TasksheetFinal.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="176">
   <si>
     <t>No.</t>
   </si>
@@ -493,13 +493,172 @@
   </si>
   <si>
     <t>TicketResponse Class</t>
+  </si>
+  <si>
+    <t>Implement Fetures</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; Filter user</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; Search user</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; Manage user</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; Manage Ticket</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; Active/Deactive user</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; Allow user selling/Disallow user selling</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; Approve ticket/Disapprove ticket</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; Manage Event</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; Create/Update/Delete event</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; Approve event/Disapprove event</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; Manage Venue</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; Create/Update/Delete venue</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; Approve venue/Disapprove venue</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; Manage Category</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; Create/Update/Delete category</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; Show/Hide category</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; Manage Request</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; Close request</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; Manage Transaction</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; Update transaction statuses</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; Manage Setting</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; Create/Update/Delete settings</t>
+  </si>
+  <si>
+    <t>Admin Module</t>
+  </si>
+  <si>
+    <t>User Module</t>
+  </si>
+  <si>
+    <t>&lt;Guest&gt; Register</t>
+  </si>
+  <si>
+    <t>&lt;Guest&gt; Login</t>
+  </si>
+  <si>
+    <t>&lt;Guest/User&gt; Search event</t>
+  </si>
+  <si>
+    <t>&lt;Guest/User&gt; View event details</t>
+  </si>
+  <si>
+    <t>&lt;User&gt; Buy ticket</t>
+  </si>
+  <si>
+    <t>&lt;User&gt; Post ticket</t>
+  </si>
+  <si>
+    <t>&lt;User&gt; Edit posted ticket</t>
+  </si>
+  <si>
+    <t>&lt;User&gt; View ticket details</t>
+  </si>
+  <si>
+    <t>&lt;User&gt; Delete posted ticket</t>
+  </si>
+  <si>
+    <t>&lt;User&gt; Request ticket</t>
+  </si>
+  <si>
+    <t>&lt;User&gt; Response ticket</t>
+  </si>
+  <si>
+    <t>&lt;User&gt; View ticket request</t>
+  </si>
+  <si>
+    <t>&lt;User&gt; Close ticket request</t>
+  </si>
+  <si>
+    <t>&lt;User&gt; View buy history</t>
+  </si>
+  <si>
+    <t>&lt;User&gt; View sell history</t>
+  </si>
+  <si>
+    <t>&lt;User&gt; Follow/Unfollow buy event</t>
+  </si>
+  <si>
+    <t>&lt;User&gt; Follow/Unfollow buy and sell event</t>
+  </si>
+  <si>
+    <t>&lt;User&gt; View follow event list</t>
+  </si>
+  <si>
+    <t>&lt;User&gt; View notification</t>
+  </si>
+  <si>
+    <t>&lt;User&gt; Change password</t>
+  </si>
+  <si>
+    <t>&lt;User&gt; Change personal information</t>
+  </si>
+  <si>
+    <t>&lt;User&gt; View ticket request list</t>
+  </si>
+  <si>
+    <t>&lt;User&gt; Logout</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; Filter ticket</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; Update/Delete ticket</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; Filter event</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; Filter transaction</t>
+  </si>
+  <si>
+    <t>&lt;User&gt; View response ticket list</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,12 +694,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -664,26 +817,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -691,19 +835,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -713,6 +857,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -725,20 +884,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1042,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J137"/>
+  <dimension ref="A1:J186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="J151" sqref="J151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1059,45 +1206,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="51.6">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6">
-      <c r="A2" s="26">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2"/>
@@ -1107,12 +1254,12 @@
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="15.6">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
@@ -1123,12 +1270,12 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="15.6">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1139,12 +1286,12 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" ht="15.6">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
@@ -1155,12 +1302,12 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="15.6">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="4" t="s">
         <v>51</v>
       </c>
@@ -1171,14 +1318,14 @@
         <v>8</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="15.6">
-      <c r="A7" s="27">
+      <c r="A7" s="23">
         <v>2</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1191,12 +1338,12 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="15.6">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1207,12 +1354,12 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="15.6">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1223,12 +1370,12 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="15.6">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1239,14 +1386,14 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="15.6">
-      <c r="A11" s="27">
+      <c r="A11" s="23">
         <v>3</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1259,12 +1406,12 @@
       <c r="H11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="15.6">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1273,13 +1420,13 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" ht="15.6">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1289,13 +1436,13 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="15.6">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="29" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="2"/>
@@ -1303,13 +1450,13 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="15.6">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="29" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="2"/>
@@ -1317,13 +1464,13 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" ht="15.6">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="30" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="21" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1333,13 +1480,13 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" ht="15.6">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="30" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1349,13 +1496,13 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" ht="15.6">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="30" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="2"/>
@@ -1365,13 +1512,13 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" ht="15.6">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="30" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="2"/>
@@ -1381,13 +1528,13 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" ht="15.6">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="30" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D20" s="2"/>
@@ -1397,13 +1544,13 @@
         <v>8</v>
       </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" ht="15.6">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="30" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D21" s="2"/>
@@ -1413,13 +1560,13 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" ht="15.6">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="30" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1429,13 +1576,13 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" ht="15.6">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="30" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="2"/>
@@ -1445,13 +1592,13 @@
         <v>8</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" ht="15.6">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="29" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="20" t="s">
         <v>62</v>
       </c>
       <c r="D24" s="2"/>
@@ -1459,13 +1606,13 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10" ht="15.6">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="30" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="21" t="s">
         <v>63</v>
       </c>
       <c r="D25" s="2"/>
@@ -1475,15 +1622,13 @@
         <v>8</v>
       </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13">
-        <v>2</v>
-      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" spans="1:10" ht="15.6">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="30" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="21" t="s">
         <v>64</v>
       </c>
       <c r="D26" s="2"/>
@@ -1493,15 +1638,13 @@
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13">
-        <v>2</v>
-      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" ht="15.6">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="30" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="21" t="s">
         <v>65</v>
       </c>
       <c r="D27" s="2"/>
@@ -1511,15 +1654,13 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13">
-        <v>3</v>
-      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:10" ht="15.6">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="30" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D28" s="2"/>
@@ -1529,15 +1670,13 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13">
-        <v>4</v>
-      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10" ht="15.6">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="30" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D29" s="2"/>
@@ -1547,15 +1686,13 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13">
-        <v>3</v>
-      </c>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
     </row>
     <row r="30" spans="1:10" ht="15.6">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="30" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="2"/>
@@ -1565,15 +1702,13 @@
       <c r="H30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13">
-        <v>2</v>
-      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:10" ht="15.6">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="30" t="s">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="21" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="2"/>
@@ -1583,15 +1718,13 @@
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13">
-        <v>2</v>
-      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:10" ht="15.6">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="30" t="s">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -1601,15 +1734,13 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13">
-        <v>5</v>
-      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="30" t="s">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1619,15 +1750,13 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13">
-        <v>5</v>
-      </c>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="30" t="s">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="21" t="s">
         <v>52</v>
       </c>
       <c r="D34" s="2"/>
@@ -1637,15 +1766,13 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13">
-        <v>1</v>
-      </c>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="30" t="s">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="21" t="s">
         <v>72</v>
       </c>
       <c r="D35" s="2"/>
@@ -1655,15 +1782,13 @@
       <c r="H35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13">
-        <v>1</v>
-      </c>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="15.6">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="30" t="s">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D36" s="2"/>
@@ -1673,15 +1798,13 @@
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13">
-        <v>5</v>
-      </c>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="15.6">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="30" t="s">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="21" t="s">
         <v>121</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -1691,15 +1814,13 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13">
-        <v>5</v>
-      </c>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
     </row>
     <row r="38" spans="1:10" ht="15.6">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="30" t="s">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="2"/>
@@ -1709,15 +1830,13 @@
       <c r="H38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13">
-        <v>1</v>
-      </c>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:10" ht="15.6">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="30" t="s">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="21" t="s">
         <v>74</v>
       </c>
       <c r="D39" s="2"/>
@@ -1727,15 +1846,13 @@
         <v>8</v>
       </c>
       <c r="H39" s="2"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13">
-        <v>3</v>
-      </c>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="15.6">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="6" t="s">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="2"/>
@@ -1743,77 +1860,77 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10" ht="15.6">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="7" t="s">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="21" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
     </row>
     <row r="42" spans="1:10" ht="15.6">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="7" t="s">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
     </row>
     <row r="43" spans="1:10" ht="15.6">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="7" t="s">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
     </row>
     <row r="44" spans="1:10" ht="15.6">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="7" t="s">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="21" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
     </row>
     <row r="45" spans="1:10" ht="15.6">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="8" t="s">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D45" s="2"/>
@@ -1823,14 +1940,14 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
     </row>
     <row r="46" spans="1:10" ht="15.6">
-      <c r="A46" s="24">
+      <c r="A46" s="26">
         <v>4</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -1843,12 +1960,12 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
     </row>
     <row r="47" spans="1:10" ht="15.6">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
       <c r="C47" s="4" t="s">
         <v>32</v>
       </c>
@@ -1857,13 +1974,13 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
     </row>
     <row r="48" spans="1:10" ht="15.6">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="9" t="s">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D48" s="2"/>
@@ -1871,45 +1988,43 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
     </row>
     <row r="49" spans="1:10" ht="15.6">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="10" t="s">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="7" t="s">
         <v>77</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="2"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
     </row>
     <row r="50" spans="1:10" ht="15.6">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="10" t="s">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="10" t="s">
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -1919,29 +2034,29 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
     </row>
     <row r="52" spans="1:10" ht="15.6">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="10" t="s">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="2"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
     </row>
     <row r="53" spans="1:10" ht="15.6">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="10" t="s">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D53" s="2"/>
@@ -1951,13 +2066,13 @@
       <c r="H53" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
     </row>
     <row r="54" spans="1:10" ht="15.6">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="10" t="s">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D54" s="2"/>
@@ -1967,13 +2082,13 @@
         <v>8</v>
       </c>
       <c r="H54" s="2"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
     </row>
     <row r="55" spans="1:10" ht="15.6">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="10" t="s">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="7" t="s">
         <v>82</v>
       </c>
       <c r="D55" s="2"/>
@@ -1983,13 +2098,13 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
     </row>
     <row r="56" spans="1:10" ht="15.6">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="10" t="s">
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D56" s="2"/>
@@ -1999,13 +2114,13 @@
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
     </row>
     <row r="57" spans="1:10" ht="15.6">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="10" t="s">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="7" t="s">
         <v>83</v>
       </c>
       <c r="D57" s="2"/>
@@ -2015,45 +2130,45 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
     </row>
     <row r="58" spans="1:10" ht="15.6">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="10" t="s">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
     </row>
     <row r="59" spans="1:10" ht="15.6">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="10" t="s">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
+      <c r="G59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="2"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
     </row>
     <row r="60" spans="1:10" ht="15.6">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="4" t="s">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D60" s="2"/>
@@ -2061,13 +2176,13 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
     </row>
     <row r="61" spans="1:10" ht="15.6">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="9" t="s">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="28" t="s">
         <v>101</v>
       </c>
       <c r="D61" s="2"/>
@@ -2075,29 +2190,29 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
     </row>
     <row r="62" spans="1:10" ht="15.6">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="10" t="s">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
+      <c r="G62" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H62" s="2"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
     </row>
     <row r="63" spans="1:10" ht="15.6">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="10" t="s">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="7" t="s">
         <v>103</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -2107,13 +2222,13 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
     </row>
     <row r="64" spans="1:10" ht="15.6">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="10" t="s">
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -2123,13 +2238,13 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
     </row>
     <row r="65" spans="1:10" ht="15.6">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="10" t="s">
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D65" s="2"/>
@@ -2139,13 +2254,13 @@
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
     </row>
     <row r="66" spans="1:10" ht="15.6">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="10" t="s">
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="7" t="s">
         <v>96</v>
       </c>
       <c r="D66" s="2"/>
@@ -2155,29 +2270,29 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
     </row>
     <row r="67" spans="1:10" ht="15.6">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="10" t="s">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D67" s="2"/>
-      <c r="E67" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E67" s="2"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
+      <c r="G67" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H67" s="2"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
     </row>
     <row r="68" spans="1:10" ht="15.6">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="10" t="s">
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D68" s="2"/>
@@ -2187,13 +2302,13 @@
       <c r="H68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
     </row>
     <row r="69" spans="1:10" ht="15.6">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="10" t="s">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="7" t="s">
         <v>99</v>
       </c>
       <c r="D69" s="2"/>
@@ -2203,13 +2318,13 @@
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
     </row>
     <row r="70" spans="1:10" ht="15.6">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="10" t="s">
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="7" t="s">
         <v>104</v>
       </c>
       <c r="D70" s="2"/>
@@ -2219,13 +2334,13 @@
         <v>8</v>
       </c>
       <c r="H70" s="2"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
     </row>
     <row r="71" spans="1:10" ht="15.6">
-      <c r="A71" s="25"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="10" t="s">
+      <c r="A71" s="27"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="7" t="s">
         <v>102</v>
       </c>
       <c r="D71" s="2"/>
@@ -2235,13 +2350,13 @@
       <c r="H71" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
     </row>
     <row r="72" spans="1:10" ht="15.6">
-      <c r="A72" s="25"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="9" t="s">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D72" s="2"/>
@@ -2249,13 +2364,13 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
     </row>
     <row r="73" spans="1:10" ht="15.6">
-      <c r="A73" s="25"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="10" t="s">
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D73" s="2"/>
@@ -2265,13 +2380,13 @@
         <v>8</v>
       </c>
       <c r="H73" s="2"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
     </row>
     <row r="74" spans="1:10" ht="15.6">
-      <c r="A74" s="25"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="10" t="s">
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="7" t="s">
         <v>89</v>
       </c>
       <c r="D74" s="2"/>
@@ -2281,13 +2396,13 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
     </row>
     <row r="75" spans="1:10" ht="15.6">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="10" t="s">
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="7" t="s">
         <v>90</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -2297,13 +2412,13 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
     </row>
     <row r="76" spans="1:10" ht="15.6">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="10" t="s">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D76" s="2"/>
@@ -2313,13 +2428,13 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
     </row>
     <row r="77" spans="1:10" ht="15.6">
-      <c r="A77" s="25"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="10" t="s">
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -2329,13 +2444,13 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
     </row>
     <row r="78" spans="1:10" ht="15.6">
-      <c r="A78" s="25"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="10" t="s">
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D78" s="2"/>
@@ -2343,13 +2458,13 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
     </row>
     <row r="79" spans="1:10" ht="15.6">
-      <c r="A79" s="25"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="10" t="s">
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="7" t="s">
         <v>95</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -2359,13 +2474,13 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
     </row>
     <row r="80" spans="1:10" ht="15.6">
-      <c r="A80" s="25"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="10" t="s">
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D80" s="2"/>
@@ -2375,13 +2490,13 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
     </row>
     <row r="81" spans="1:10" ht="15.6">
-      <c r="A81" s="25"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="10" t="s">
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="7" t="s">
         <v>96</v>
       </c>
       <c r="D81" s="2"/>
@@ -2391,13 +2506,13 @@
       <c r="H81" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
     </row>
     <row r="82" spans="1:10" ht="15.6">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="10" t="s">
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D82" s="2"/>
@@ -2407,13 +2522,13 @@
       <c r="H82" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
     </row>
     <row r="83" spans="1:10" ht="15.6">
-      <c r="A83" s="25"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="10" t="s">
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D83" s="2"/>
@@ -2423,13 +2538,13 @@
         <v>8</v>
       </c>
       <c r="H83" s="2"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
     </row>
     <row r="84" spans="1:10" ht="15.6">
-      <c r="A84" s="25"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="10" t="s">
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="7" t="s">
         <v>99</v>
       </c>
       <c r="D84" s="2"/>
@@ -2439,13 +2554,13 @@
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
     </row>
     <row r="85" spans="1:10" ht="15.6">
-      <c r="A85" s="25"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="10" t="s">
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D85" s="2"/>
@@ -2455,13 +2570,13 @@
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
     </row>
     <row r="86" spans="1:10" ht="15.6">
-      <c r="A86" s="25"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="11" t="s">
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D86" s="2"/>
@@ -2469,13 +2584,13 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
     </row>
     <row r="87" spans="1:10" ht="15.6">
-      <c r="A87" s="25"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="10" t="s">
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="7" t="s">
         <v>106</v>
       </c>
       <c r="D87" s="2"/>
@@ -2485,13 +2600,13 @@
         <v>8</v>
       </c>
       <c r="H87" s="2"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
     </row>
     <row r="88" spans="1:10" ht="15.6">
-      <c r="A88" s="25"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="10" t="s">
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="7" t="s">
         <v>105</v>
       </c>
       <c r="D88" s="2"/>
@@ -2501,13 +2616,13 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
     </row>
     <row r="89" spans="1:10" ht="15.6">
-      <c r="A89" s="25"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="10" t="s">
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="7" t="s">
         <v>107</v>
       </c>
       <c r="D89" s="2"/>
@@ -2517,13 +2632,13 @@
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
     </row>
     <row r="90" spans="1:10" ht="15.6">
-      <c r="A90" s="25"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="10" t="s">
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="7" t="s">
         <v>108</v>
       </c>
       <c r="D90" s="2"/>
@@ -2533,13 +2648,13 @@
       <c r="H90" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I90" s="13"/>
-      <c r="J90" s="13"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
     </row>
     <row r="91" spans="1:10" ht="15.6">
-      <c r="A91" s="25"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="10" t="s">
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -2549,13 +2664,13 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
     </row>
     <row r="92" spans="1:10" ht="15.6">
-      <c r="A92" s="25"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="11" t="s">
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="8" t="s">
         <v>111</v>
       </c>
       <c r="D92" s="2"/>
@@ -2563,13 +2678,13 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="13"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
     </row>
     <row r="93" spans="1:10" ht="15.6">
-      <c r="A93" s="25"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="10" t="s">
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="7" t="s">
         <v>112</v>
       </c>
       <c r="D93" s="2"/>
@@ -2579,13 +2694,13 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
     </row>
     <row r="94" spans="1:10" ht="15.6">
-      <c r="A94" s="25"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="10" t="s">
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="7" t="s">
         <v>113</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -2595,13 +2710,13 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
-      <c r="I94" s="13"/>
-      <c r="J94" s="13"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
     </row>
     <row r="95" spans="1:10" ht="15.6">
-      <c r="A95" s="25"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="11" t="s">
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D95" s="2"/>
@@ -2609,13 +2724,13 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
-      <c r="I95" s="13"/>
-      <c r="J95" s="13"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
     </row>
     <row r="96" spans="1:10" ht="15.6">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="10" t="s">
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="7" t="s">
         <v>114</v>
       </c>
       <c r="D96" s="2"/>
@@ -2625,13 +2740,13 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
-      <c r="I96" s="13"/>
-      <c r="J96" s="13"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
     </row>
     <row r="97" spans="1:10" ht="15.6">
-      <c r="A97" s="26"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="10" t="s">
+      <c r="A97" s="22"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D97" s="2"/>
@@ -2641,14 +2756,14 @@
       <c r="H97" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I97" s="13"/>
-      <c r="J97" s="13"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
     </row>
     <row r="98" spans="1:10" ht="15.6">
-      <c r="A98" s="22">
+      <c r="A98" s="24">
         <v>5</v>
       </c>
-      <c r="B98" s="27" t="s">
+      <c r="B98" s="23" t="s">
         <v>34</v>
       </c>
       <c r="C98" s="5" t="s">
@@ -2659,12 +2774,12 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
-      <c r="I98" s="13"/>
-      <c r="J98" s="13"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
     </row>
     <row r="99" spans="1:10" ht="15.6">
-      <c r="A99" s="23"/>
-      <c r="B99" s="27"/>
+      <c r="A99" s="25"/>
+      <c r="B99" s="23"/>
       <c r="C99" s="4" t="s">
         <v>118</v>
       </c>
@@ -2675,158 +2790,160 @@
         <v>8</v>
       </c>
       <c r="H99" s="2"/>
-      <c r="I99" s="13"/>
-      <c r="J99" s="13"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
     </row>
     <row r="100" spans="1:10" ht="15.6">
-      <c r="A100" s="23"/>
-      <c r="B100" s="27"/>
+      <c r="A100" s="25"/>
+      <c r="B100" s="23"/>
       <c r="C100" s="4" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="D100" s="2"/>
-      <c r="E100" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
-      <c r="I100" s="13"/>
-      <c r="J100" s="13"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
     </row>
     <row r="101" spans="1:10" ht="15.6">
-      <c r="A101" s="23"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="11" t="s">
-        <v>23</v>
+      <c r="A101" s="25"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="28" t="s">
+        <v>146</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="13"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
     </row>
     <row r="102" spans="1:10" ht="15.6">
-      <c r="A102" s="23"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="10" t="s">
-        <v>116</v>
+      <c r="A102" s="25"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="20" t="s">
+        <v>126</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
-      <c r="G102" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G102" s="2"/>
       <c r="H102" s="2"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
     </row>
     <row r="103" spans="1:10" ht="15.6">
-      <c r="A103" s="23"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D103" s="2"/>
+      <c r="A103" s="25"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
-      <c r="H103" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I103" s="13"/>
-      <c r="J103" s="13"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="104" spans="1:10" ht="15.6">
-      <c r="A104" s="23"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D104" s="2"/>
+      <c r="A104" s="25"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="13"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:10" ht="15.6">
-      <c r="A105" s="23"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D105" s="2"/>
+      <c r="A105" s="25"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
-      <c r="G105" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G105" s="2"/>
       <c r="H105" s="2"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="13"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="1:10" ht="15.6">
-      <c r="A106" s="23"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D106" s="2"/>
+      <c r="A106" s="25"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I106" s="13"/>
-      <c r="J106" s="13"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="107" spans="1:10" ht="15.6">
-      <c r="A107" s="23"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="11" t="s">
-        <v>119</v>
+      <c r="A107" s="25"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
-      <c r="F107" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
     </row>
     <row r="108" spans="1:10" ht="15.6">
-      <c r="A108" s="22">
-        <v>6</v>
-      </c>
-      <c r="B108" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A108" s="25"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D108" s="2"/>
       <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
+      <c r="F108" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="13"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="109" spans="1:10" ht="15.6">
-      <c r="A109" s="23"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="11" t="s">
-        <v>120</v>
+      <c r="A109" s="25"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="21" t="s">
+        <v>171</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -2835,350 +2952,1196 @@
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
-      <c r="I109" s="13"/>
-      <c r="J109" s="13"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:10" ht="15.6">
-      <c r="A110" s="23"/>
-      <c r="B110" s="25"/>
-      <c r="C110" s="11" t="s">
-        <v>27</v>
+      <c r="A110" s="25"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="21" t="s">
+        <v>130</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
+      <c r="F110" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="13"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="111" spans="1:10" ht="15.6">
-      <c r="A111" s="23"/>
-      <c r="B111" s="25"/>
-      <c r="C111" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A111" s="25"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
-      <c r="I111" s="13"/>
-      <c r="J111" s="13"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
     </row>
     <row r="112" spans="1:10" ht="15.6">
-      <c r="A112" s="23"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A112" s="25"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
-      <c r="I112" s="13"/>
-      <c r="J112" s="13"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="113" spans="1:10" ht="15.6">
-      <c r="A113" s="23"/>
-      <c r="B113" s="25"/>
-      <c r="C113" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D113" s="2"/>
+      <c r="A113" s="25"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
-      <c r="G113" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G113" s="2"/>
       <c r="H113" s="2"/>
-      <c r="I113" s="13"/>
-      <c r="J113" s="13"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" spans="1:10" ht="15.6">
-      <c r="A114" s="23"/>
-      <c r="B114" s="25"/>
-      <c r="C114" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D114" s="2"/>
+      <c r="A114" s="25"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
-      <c r="H114" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I114" s="13"/>
-      <c r="J114" s="13"/>
-    </row>
-    <row r="115" spans="1:10">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="J115" s="3"/>
-    </row>
-    <row r="116" spans="1:10">
-      <c r="A116" s="18" t="s">
+      <c r="H114" s="2"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15.6">
+      <c r="A115" s="25"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+    </row>
+    <row r="116" spans="1:10" ht="15.6">
+      <c r="A116" s="25"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116" s="2"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="15.6">
+      <c r="A117" s="25"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H117" s="2"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="15.6">
+      <c r="A118" s="25"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
+    </row>
+    <row r="119" spans="1:10" ht="15.6">
+      <c r="A119" s="25"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="15.6">
+      <c r="A120" s="25"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="15.6">
+      <c r="A121" s="25"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+    </row>
+    <row r="122" spans="1:10" ht="15.6">
+      <c r="A122" s="25"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I122" s="10"/>
+      <c r="J122" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="15.6">
+      <c r="A123" s="25"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="10"/>
+    </row>
+    <row r="124" spans="1:10" ht="15.6">
+      <c r="A124" s="25"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="15.6">
+      <c r="A125" s="25"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="15.6">
+      <c r="A126" s="25"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="10"/>
+    </row>
+    <row r="127" spans="1:10" ht="15.6">
+      <c r="A127" s="25"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H127" s="2"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="15.6">
+      <c r="A128" s="25"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="10"/>
+    </row>
+    <row r="129" spans="1:10" ht="15.6">
+      <c r="A129" s="25"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I129" s="10"/>
+      <c r="J129" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="15.6">
+      <c r="A130" s="25"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I130" s="10"/>
+      <c r="J130" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="15.6">
+      <c r="A131" s="25"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="15.6">
+      <c r="A132" s="25"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="15.6">
+      <c r="A133" s="25"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="16.8" customHeight="1">
+      <c r="A134" s="25"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="15.6">
+      <c r="A135" s="25"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="15.6">
+      <c r="A136" s="25"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="15.6">
+      <c r="A137" s="25"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="15.6">
+      <c r="A138" s="25"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I138" s="10"/>
+      <c r="J138" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="15.6">
+      <c r="A139" s="25"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="15.6">
+      <c r="A140" s="25"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="10"/>
+      <c r="J140" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="15.6">
+      <c r="A141" s="25"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I141" s="10"/>
+      <c r="J141" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="15.6">
+      <c r="A142" s="25"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I142" s="10"/>
+      <c r="J142" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="15.6">
+      <c r="A143" s="25"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H143" s="2"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="15.6">
+      <c r="A144" s="25"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H144" s="2"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="15.6">
+      <c r="A145" s="25"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="15.6">
+      <c r="A146" s="25"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="10"/>
+      <c r="J146" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="15.6">
+      <c r="A147" s="25"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="10"/>
+      <c r="J147" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="15.6">
+      <c r="A148" s="25"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="10"/>
+      <c r="J148" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="15.6">
+      <c r="A149" s="25"/>
+      <c r="B149" s="23"/>
+      <c r="C149" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I149" s="10"/>
+      <c r="J149" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="15.6">
+      <c r="A150" s="25"/>
+      <c r="B150" s="23"/>
+      <c r="C150" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H150" s="2"/>
+      <c r="I150" s="10"/>
+      <c r="J150" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="15.6">
+      <c r="A151" s="25"/>
+      <c r="B151" s="23"/>
+      <c r="C151" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="10"/>
+      <c r="J151" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="15.6">
+      <c r="A152" s="25"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I152" s="10"/>
+      <c r="J152" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="15.6">
+      <c r="A153" s="25"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="10"/>
+      <c r="J153" s="10"/>
+    </row>
+    <row r="154" spans="1:10" ht="15.6">
+      <c r="A154" s="25"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="10"/>
+      <c r="J154" s="10"/>
+    </row>
+    <row r="155" spans="1:10" ht="15.6">
+      <c r="A155" s="25"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H155" s="2"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="10"/>
+    </row>
+    <row r="156" spans="1:10" ht="15.6">
+      <c r="A156" s="25"/>
+      <c r="B156" s="23"/>
+      <c r="C156" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I156" s="10"/>
+      <c r="J156" s="10"/>
+    </row>
+    <row r="157" spans="1:10" ht="15.6">
+      <c r="A157" s="25"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="10"/>
+      <c r="J157" s="10"/>
+    </row>
+    <row r="158" spans="1:10" ht="15.6">
+      <c r="A158" s="25"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H158" s="2"/>
+      <c r="I158" s="10"/>
+      <c r="J158" s="10"/>
+    </row>
+    <row r="159" spans="1:10" ht="15.6">
+      <c r="A159" s="25"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I159" s="10"/>
+      <c r="J159" s="10"/>
+    </row>
+    <row r="160" spans="1:10" ht="15.6">
+      <c r="A160" s="25"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="10"/>
+      <c r="J160" s="10"/>
+    </row>
+    <row r="161" spans="1:10" ht="15.6" customHeight="1">
+      <c r="A161" s="24">
+        <v>6</v>
+      </c>
+      <c r="B161" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H161" s="2"/>
+      <c r="I161" s="10"/>
+      <c r="J161" s="10"/>
+    </row>
+    <row r="162" spans="1:10" ht="15.6">
+      <c r="A162" s="25"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H162" s="2"/>
+      <c r="I162" s="10"/>
+      <c r="J162" s="10"/>
+    </row>
+    <row r="163" spans="1:10" ht="15.6">
+      <c r="A163" s="25"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H163" s="2"/>
+      <c r="I163" s="10"/>
+      <c r="J163" s="10"/>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+      <c r="J164" s="3"/>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B116" s="3"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="J116" s="3"/>
-    </row>
-    <row r="117" spans="1:10">
-      <c r="A117" s="19" t="s">
+      <c r="B165" s="3"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+      <c r="J165" s="3"/>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B117" s="19" t="s">
+      <c r="B166" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C166" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="J117" s="3"/>
-    </row>
-    <row r="118" spans="1:10" ht="55.2">
-      <c r="A118" s="19">
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="J166" s="3"/>
+    </row>
+    <row r="167" spans="1:10" ht="55.2">
+      <c r="A167" s="16">
         <v>1</v>
       </c>
-      <c r="B118" s="20" t="s">
+      <c r="B167" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C167" s="4">
         <v>1</v>
       </c>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="J118" s="3"/>
-    </row>
-    <row r="119" spans="1:10" ht="27.6">
-      <c r="A119" s="21">
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+      <c r="J167" s="3"/>
+    </row>
+    <row r="168" spans="1:10" ht="27.6">
+      <c r="A168" s="18">
         <v>2</v>
       </c>
-      <c r="B119" s="20" t="s">
+      <c r="B168" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C119" s="21">
+      <c r="C168" s="18">
         <v>2</v>
       </c>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="J119" s="3"/>
-    </row>
-    <row r="120" spans="1:10" ht="27.6">
-      <c r="A120" s="21">
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+      <c r="J168" s="3"/>
+    </row>
+    <row r="169" spans="1:10" ht="27.6">
+      <c r="A169" s="18">
         <v>3</v>
       </c>
-      <c r="B120" s="20" t="s">
+      <c r="B169" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C120" s="21">
+      <c r="C169" s="18">
         <v>3</v>
       </c>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="J120" s="3"/>
-    </row>
-    <row r="121" spans="1:10" ht="27.6">
-      <c r="A121" s="21">
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="J169" s="3"/>
+    </row>
+    <row r="170" spans="1:10" ht="27.6">
+      <c r="A170" s="18">
         <v>4</v>
       </c>
-      <c r="B121" s="20" t="s">
+      <c r="B170" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C121" s="21">
+      <c r="C170" s="18">
         <v>4</v>
       </c>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="J121" s="3"/>
-    </row>
-    <row r="122" spans="1:10" ht="27.6">
-      <c r="A122" s="21">
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="J170" s="3"/>
+    </row>
+    <row r="171" spans="1:10" ht="27.6">
+      <c r="A171" s="18">
         <v>5</v>
       </c>
-      <c r="B122" s="20" t="s">
+      <c r="B171" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C122" s="21">
+      <c r="C171" s="18">
         <v>5</v>
       </c>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="J122" s="3"/>
-    </row>
-    <row r="123" spans="1:10">
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="J123" s="3"/>
-    </row>
-    <row r="124" spans="1:10">
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="J124" s="3"/>
-    </row>
-    <row r="125" spans="1:10">
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="J125" s="3"/>
-    </row>
-    <row r="126" spans="1:10">
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="J126" s="3"/>
-    </row>
-    <row r="127" spans="1:10">
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="J127" s="3"/>
-    </row>
-    <row r="128" spans="1:10">
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="J128" s="3"/>
-    </row>
-    <row r="129" spans="4:10">
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="J129" s="3"/>
-    </row>
-    <row r="130" spans="4:10">
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="J130" s="3"/>
-    </row>
-    <row r="131" spans="4:10">
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="J131" s="3"/>
-    </row>
-    <row r="132" spans="4:10">
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="J132" s="3"/>
-    </row>
-    <row r="133" spans="4:10">
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="J133" s="3"/>
-    </row>
-    <row r="134" spans="4:10">
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="J134" s="3"/>
-    </row>
-    <row r="135" spans="4:10">
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="J135" s="3"/>
-    </row>
-    <row r="136" spans="4:10">
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
-      <c r="J136" s="3"/>
-    </row>
-    <row r="137" spans="4:10">
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-      <c r="J137" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="J171" s="3"/>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+      <c r="J172" s="3"/>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+      <c r="J173" s="3"/>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="J174" s="3"/>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+      <c r="J175" s="3"/>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+      <c r="J176" s="3"/>
+    </row>
+    <row r="177" spans="4:10">
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="J177" s="3"/>
+    </row>
+    <row r="178" spans="4:10">
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+      <c r="J178" s="3"/>
+    </row>
+    <row r="179" spans="4:10">
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+      <c r="J179" s="3"/>
+    </row>
+    <row r="180" spans="4:10">
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+      <c r="J180" s="3"/>
+    </row>
+    <row r="181" spans="4:10">
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+      <c r="J181" s="3"/>
+    </row>
+    <row r="182" spans="4:10">
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
+      <c r="J182" s="3"/>
+    </row>
+    <row r="183" spans="4:10">
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+      <c r="J183" s="3"/>
+    </row>
+    <row r="184" spans="4:10">
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+      <c r="J184" s="3"/>
+    </row>
+    <row r="185" spans="4:10">
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
+      <c r="J185" s="3"/>
+    </row>
+    <row r="186" spans="4:10">
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+      <c r="J186" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A161:A163"/>
+    <mergeCell ref="B161:B163"/>
+    <mergeCell ref="B98:B160"/>
+    <mergeCell ref="A98:A160"/>
+    <mergeCell ref="B46:B97"/>
+    <mergeCell ref="A46:A97"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B45"/>
     <mergeCell ref="A11:A45"/>
     <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A108:A114"/>
-    <mergeCell ref="B108:B114"/>
-    <mergeCell ref="B98:B107"/>
-    <mergeCell ref="A98:A107"/>
-    <mergeCell ref="B46:B97"/>
-    <mergeCell ref="A46:A97"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:H135">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:H184">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>

--- a/Document/Reports/TasksheetFinal.xlsx
+++ b/Document/Reports/TasksheetFinal.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="175">
   <si>
     <t>No.</t>
   </si>
@@ -601,9 +601,6 @@
   </si>
   <si>
     <t>&lt;User&gt; Response ticket</t>
-  </si>
-  <si>
-    <t>&lt;User&gt; View ticket request</t>
   </si>
   <si>
     <t>&lt;User&gt; Close ticket request</t>
@@ -866,11 +863,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -878,14 +872,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1189,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J186"/>
+  <dimension ref="A1:J185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="J151" sqref="J151"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1238,10 +1235,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6">
-      <c r="A2" s="22">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -1258,8 +1255,8 @@
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="15.6">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
@@ -1274,8 +1271,8 @@
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="15.6">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1290,8 +1287,8 @@
       <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" ht="15.6">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
@@ -1306,8 +1303,8 @@
       <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="15.6">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="4" t="s">
         <v>51</v>
       </c>
@@ -1322,10 +1319,10 @@
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="15.6">
-      <c r="A7" s="23">
+      <c r="A7" s="25">
         <v>2</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1342,8 +1339,8 @@
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="15.6">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1358,8 +1355,8 @@
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="15.6">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1374,8 +1371,8 @@
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="15.6">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1390,10 +1387,10 @@
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="15.6">
-      <c r="A11" s="23">
+      <c r="A11" s="25">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1410,8 +1407,8 @@
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="15.6">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1424,8 +1421,8 @@
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" ht="15.6">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="19" t="s">
         <v>15</v>
       </c>
@@ -1440,8 +1437,8 @@
       <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="15.6">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
         <v>16</v>
       </c>
@@ -1454,8 +1451,8 @@
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="15.6">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="20" t="s">
         <v>53</v>
       </c>
@@ -1468,8 +1465,8 @@
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" ht="15.6">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="21" t="s">
         <v>54</v>
       </c>
@@ -1484,8 +1481,8 @@
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" ht="15.6">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="21" t="s">
         <v>55</v>
       </c>
@@ -1500,8 +1497,8 @@
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" ht="15.6">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="21" t="s">
         <v>56</v>
       </c>
@@ -1516,8 +1513,8 @@
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" ht="15.6">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="21" t="s">
         <v>57</v>
       </c>
@@ -1532,8 +1529,8 @@
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" ht="15.6">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="21" t="s">
         <v>58</v>
       </c>
@@ -1548,8 +1545,8 @@
       <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" ht="15.6">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="21" t="s">
         <v>59</v>
       </c>
@@ -1564,8 +1561,8 @@
       <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" ht="15.6">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="21" t="s">
         <v>60</v>
       </c>
@@ -1580,8 +1577,8 @@
       <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" ht="15.6">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="21" t="s">
         <v>61</v>
       </c>
@@ -1596,8 +1593,8 @@
       <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" ht="15.6">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="20" t="s">
         <v>62</v>
       </c>
@@ -1610,8 +1607,8 @@
       <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10" ht="15.6">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="21" t="s">
         <v>63</v>
       </c>
@@ -1626,8 +1623,8 @@
       <c r="J25" s="10"/>
     </row>
     <row r="26" spans="1:10" ht="15.6">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="21" t="s">
         <v>64</v>
       </c>
@@ -1642,8 +1639,8 @@
       <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" ht="15.6">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="21" t="s">
         <v>65</v>
       </c>
@@ -1658,8 +1655,8 @@
       <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:10" ht="15.6">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="21" t="s">
         <v>66</v>
       </c>
@@ -1674,8 +1671,8 @@
       <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10" ht="15.6">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="21" t="s">
         <v>67</v>
       </c>
@@ -1690,8 +1687,8 @@
       <c r="J29" s="10"/>
     </row>
     <row r="30" spans="1:10" ht="15.6">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="21" t="s">
         <v>68</v>
       </c>
@@ -1706,8 +1703,8 @@
       <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:10" ht="15.6">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="21" t="s">
         <v>69</v>
       </c>
@@ -1722,8 +1719,8 @@
       <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:10" ht="15.6">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="21" t="s">
         <v>70</v>
       </c>
@@ -1738,8 +1735,8 @@
       <c r="J32" s="10"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="21" t="s">
         <v>71</v>
       </c>
@@ -1754,8 +1751,8 @@
       <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="21" t="s">
         <v>52</v>
       </c>
@@ -1770,8 +1767,8 @@
       <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="21" t="s">
         <v>72</v>
       </c>
@@ -1786,8 +1783,8 @@
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="15.6">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="21" t="s">
         <v>73</v>
       </c>
@@ -1802,8 +1799,8 @@
       <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="15.6">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="21" t="s">
         <v>121</v>
       </c>
@@ -1818,8 +1815,8 @@
       <c r="J37" s="10"/>
     </row>
     <row r="38" spans="1:10" ht="15.6">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="21" t="s">
         <v>58</v>
       </c>
@@ -1834,8 +1831,8 @@
       <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:10" ht="15.6">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="21" t="s">
         <v>74</v>
       </c>
@@ -1850,8 +1847,8 @@
       <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="15.6">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="20" t="s">
         <v>17</v>
       </c>
@@ -1864,8 +1861,8 @@
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10" ht="15.6">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="21" t="s">
         <v>18</v>
       </c>
@@ -1880,8 +1877,8 @@
       <c r="J41" s="10"/>
     </row>
     <row r="42" spans="1:10" ht="15.6">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="21" t="s">
         <v>19</v>
       </c>
@@ -1896,8 +1893,8 @@
       <c r="J42" s="10"/>
     </row>
     <row r="43" spans="1:10" ht="15.6">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="21" t="s">
         <v>75</v>
       </c>
@@ -1912,8 +1909,8 @@
       <c r="J43" s="10"/>
     </row>
     <row r="44" spans="1:10" ht="15.6">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="21" t="s">
         <v>76</v>
       </c>
@@ -1928,8 +1925,8 @@
       <c r="J44" s="10"/>
     </row>
     <row r="45" spans="1:10" ht="15.6">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="4" t="s">
         <v>20</v>
       </c>
@@ -2182,7 +2179,7 @@
     <row r="61" spans="1:10" ht="15.6">
       <c r="A61" s="27"/>
       <c r="B61" s="27"/>
-      <c r="C61" s="28" t="s">
+      <c r="C61" s="22" t="s">
         <v>101</v>
       </c>
       <c r="D61" s="2"/>
@@ -2744,8 +2741,8 @@
       <c r="J96" s="10"/>
     </row>
     <row r="97" spans="1:10" ht="15.6">
-      <c r="A97" s="22"/>
-      <c r="B97" s="22"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="28"/>
       <c r="C97" s="7" t="s">
         <v>115</v>
       </c>
@@ -2760,10 +2757,10 @@
       <c r="J97" s="10"/>
     </row>
     <row r="98" spans="1:10" ht="15.6">
-      <c r="A98" s="24">
+      <c r="A98" s="23">
         <v>5</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="B98" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C98" s="5" t="s">
@@ -2778,8 +2775,8 @@
       <c r="J98" s="10"/>
     </row>
     <row r="99" spans="1:10" ht="15.6">
-      <c r="A99" s="25"/>
-      <c r="B99" s="23"/>
+      <c r="A99" s="24"/>
+      <c r="B99" s="25"/>
       <c r="C99" s="4" t="s">
         <v>118</v>
       </c>
@@ -2794,8 +2791,8 @@
       <c r="J99" s="10"/>
     </row>
     <row r="100" spans="1:10" ht="15.6">
-      <c r="A100" s="25"/>
-      <c r="B100" s="23"/>
+      <c r="A100" s="24"/>
+      <c r="B100" s="25"/>
       <c r="C100" s="4" t="s">
         <v>123</v>
       </c>
@@ -2808,9 +2805,9 @@
       <c r="J100" s="10"/>
     </row>
     <row r="101" spans="1:10" ht="15.6">
-      <c r="A101" s="25"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="28" t="s">
+      <c r="A101" s="24"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="22" t="s">
         <v>146</v>
       </c>
       <c r="D101" s="2"/>
@@ -2822,8 +2819,8 @@
       <c r="J101" s="10"/>
     </row>
     <row r="102" spans="1:10" ht="15.6">
-      <c r="A102" s="25"/>
-      <c r="B102" s="23"/>
+      <c r="A102" s="24"/>
+      <c r="B102" s="25"/>
       <c r="C102" s="20" t="s">
         <v>126</v>
       </c>
@@ -2836,8 +2833,8 @@
       <c r="J102" s="10"/>
     </row>
     <row r="103" spans="1:10" ht="15.6">
-      <c r="A103" s="25"/>
-      <c r="B103" s="23"/>
+      <c r="A103" s="24"/>
+      <c r="B103" s="25"/>
       <c r="C103" s="21" t="s">
         <v>128</v>
       </c>
@@ -2854,8 +2851,8 @@
       </c>
     </row>
     <row r="104" spans="1:10" ht="15.6">
-      <c r="A104" s="25"/>
-      <c r="B104" s="23"/>
+      <c r="A104" s="24"/>
+      <c r="B104" s="25"/>
       <c r="C104" s="21" t="s">
         <v>124</v>
       </c>
@@ -2872,8 +2869,8 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="15.6">
-      <c r="A105" s="25"/>
-      <c r="B105" s="23"/>
+      <c r="A105" s="24"/>
+      <c r="B105" s="25"/>
       <c r="C105" s="21" t="s">
         <v>125</v>
       </c>
@@ -2890,8 +2887,8 @@
       </c>
     </row>
     <row r="106" spans="1:10" ht="15.6">
-      <c r="A106" s="25"/>
-      <c r="B106" s="23"/>
+      <c r="A106" s="24"/>
+      <c r="B106" s="25"/>
       <c r="C106" s="21" t="s">
         <v>129</v>
       </c>
@@ -2908,8 +2905,8 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="15.6">
-      <c r="A107" s="25"/>
-      <c r="B107" s="23"/>
+      <c r="A107" s="24"/>
+      <c r="B107" s="25"/>
       <c r="C107" s="20" t="s">
         <v>127</v>
       </c>
@@ -2922,10 +2919,10 @@
       <c r="J107" s="10"/>
     </row>
     <row r="108" spans="1:10" ht="15.6">
-      <c r="A108" s="25"/>
-      <c r="B108" s="23"/>
+      <c r="A108" s="24"/>
+      <c r="B108" s="25"/>
       <c r="C108" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -2940,10 +2937,10 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="15.6">
-      <c r="A109" s="25"/>
-      <c r="B109" s="23"/>
+      <c r="A109" s="24"/>
+      <c r="B109" s="25"/>
       <c r="C109" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -2958,8 +2955,8 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="15.6">
-      <c r="A110" s="25"/>
-      <c r="B110" s="23"/>
+      <c r="A110" s="24"/>
+      <c r="B110" s="25"/>
       <c r="C110" s="21" t="s">
         <v>130</v>
       </c>
@@ -2976,8 +2973,8 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="15.6">
-      <c r="A111" s="25"/>
-      <c r="B111" s="23"/>
+      <c r="A111" s="24"/>
+      <c r="B111" s="25"/>
       <c r="C111" s="20" t="s">
         <v>131</v>
       </c>
@@ -2990,8 +2987,8 @@
       <c r="J111" s="10"/>
     </row>
     <row r="112" spans="1:10" ht="15.6">
-      <c r="A112" s="25"/>
-      <c r="B112" s="23"/>
+      <c r="A112" s="24"/>
+      <c r="B112" s="25"/>
       <c r="C112" s="21" t="s">
         <v>132</v>
       </c>
@@ -3008,10 +3005,10 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="15.6">
-      <c r="A113" s="25"/>
-      <c r="B113" s="23"/>
+      <c r="A113" s="24"/>
+      <c r="B113" s="25"/>
       <c r="C113" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>8</v>
@@ -3026,8 +3023,8 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="15.6">
-      <c r="A114" s="25"/>
-      <c r="B114" s="23"/>
+      <c r="A114" s="24"/>
+      <c r="B114" s="25"/>
       <c r="C114" s="21" t="s">
         <v>133</v>
       </c>
@@ -3044,8 +3041,8 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="15.6">
-      <c r="A115" s="25"/>
-      <c r="B115" s="23"/>
+      <c r="A115" s="24"/>
+      <c r="B115" s="25"/>
       <c r="C115" s="20" t="s">
         <v>134</v>
       </c>
@@ -3058,17 +3055,17 @@
       <c r="J115" s="10"/>
     </row>
     <row r="116" spans="1:10" ht="15.6">
-      <c r="A116" s="25"/>
-      <c r="B116" s="23"/>
+      <c r="A116" s="24"/>
+      <c r="B116" s="25"/>
       <c r="C116" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="10"/>
       <c r="J116" s="10">
@@ -3076,17 +3073,17 @@
       </c>
     </row>
     <row r="117" spans="1:10" ht="15.6">
-      <c r="A117" s="25"/>
-      <c r="B117" s="23"/>
+      <c r="A117" s="24"/>
+      <c r="B117" s="25"/>
       <c r="C117" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="10"/>
       <c r="J117" s="10">
@@ -3094,8 +3091,8 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="15.6">
-      <c r="A118" s="25"/>
-      <c r="B118" s="23"/>
+      <c r="A118" s="24"/>
+      <c r="B118" s="25"/>
       <c r="C118" s="20" t="s">
         <v>137</v>
       </c>
@@ -3108,8 +3105,8 @@
       <c r="J118" s="10"/>
     </row>
     <row r="119" spans="1:10" ht="15.6">
-      <c r="A119" s="25"/>
-      <c r="B119" s="23"/>
+      <c r="A119" s="24"/>
+      <c r="B119" s="25"/>
       <c r="C119" s="21" t="s">
         <v>138</v>
       </c>
@@ -3126,8 +3123,8 @@
       </c>
     </row>
     <row r="120" spans="1:10" ht="15.6">
-      <c r="A120" s="25"/>
-      <c r="B120" s="23"/>
+      <c r="A120" s="24"/>
+      <c r="B120" s="25"/>
       <c r="C120" s="21" t="s">
         <v>139</v>
       </c>
@@ -3144,8 +3141,8 @@
       </c>
     </row>
     <row r="121" spans="1:10" ht="15.6">
-      <c r="A121" s="25"/>
-      <c r="B121" s="23"/>
+      <c r="A121" s="24"/>
+      <c r="B121" s="25"/>
       <c r="C121" s="20" t="s">
         <v>140</v>
       </c>
@@ -3158,26 +3155,26 @@
       <c r="J121" s="10"/>
     </row>
     <row r="122" spans="1:10" ht="15.6">
-      <c r="A122" s="25"/>
-      <c r="B122" s="23"/>
+      <c r="A122" s="24"/>
+      <c r="B122" s="25"/>
       <c r="C122" s="21" t="s">
         <v>141</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
+      <c r="F122" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G122" s="2"/>
-      <c r="H122" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H122" s="2"/>
       <c r="I122" s="10"/>
       <c r="J122" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="15.6">
-      <c r="A123" s="25"/>
-      <c r="B123" s="23"/>
+      <c r="A123" s="24"/>
+      <c r="B123" s="25"/>
       <c r="C123" s="20" t="s">
         <v>142</v>
       </c>
@@ -3190,8 +3187,8 @@
       <c r="J123" s="10"/>
     </row>
     <row r="124" spans="1:10" ht="15.6">
-      <c r="A124" s="25"/>
-      <c r="B124" s="23"/>
+      <c r="A124" s="24"/>
+      <c r="B124" s="25"/>
       <c r="C124" s="21" t="s">
         <v>143</v>
       </c>
@@ -3208,10 +3205,10 @@
       </c>
     </row>
     <row r="125" spans="1:10" ht="15.6">
-      <c r="A125" s="25"/>
-      <c r="B125" s="23"/>
+      <c r="A125" s="24"/>
+      <c r="B125" s="25"/>
       <c r="C125" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -3226,8 +3223,8 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="15.6">
-      <c r="A126" s="25"/>
-      <c r="B126" s="23"/>
+      <c r="A126" s="24"/>
+      <c r="B126" s="25"/>
       <c r="C126" s="20" t="s">
         <v>144</v>
       </c>
@@ -3240,17 +3237,17 @@
       <c r="J126" s="10"/>
     </row>
     <row r="127" spans="1:10" ht="15.6">
-      <c r="A127" s="25"/>
-      <c r="B127" s="23"/>
+      <c r="A127" s="24"/>
+      <c r="B127" s="25"/>
       <c r="C127" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D127" s="2"/>
+      <c r="D127" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
-      <c r="G127" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="10"/>
       <c r="J127" s="10">
@@ -3258,9 +3255,9 @@
       </c>
     </row>
     <row r="128" spans="1:10" ht="15.6">
-      <c r="A128" s="25"/>
-      <c r="B128" s="23"/>
-      <c r="C128" s="28" t="s">
+      <c r="A128" s="24"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="22" t="s">
         <v>147</v>
       </c>
       <c r="D128" s="2"/>
@@ -3272,44 +3269,44 @@
       <c r="J128" s="10"/>
     </row>
     <row r="129" spans="1:10" ht="15.6">
-      <c r="A129" s="25"/>
-      <c r="B129" s="23"/>
+      <c r="A129" s="24"/>
+      <c r="B129" s="25"/>
       <c r="C129" s="21" t="s">
         <v>148</v>
       </c>
       <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
+      <c r="E129" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
-      <c r="H129" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H129" s="2"/>
       <c r="I129" s="10"/>
       <c r="J129" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="15.6">
-      <c r="A130" s="25"/>
-      <c r="B130" s="23"/>
+      <c r="A130" s="24"/>
+      <c r="B130" s="25"/>
       <c r="C130" s="21" t="s">
         <v>149</v>
       </c>
       <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
+      <c r="E130" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
-      <c r="H130" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H130" s="2"/>
       <c r="I130" s="10"/>
       <c r="J130" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="15.6">
-      <c r="A131" s="25"/>
-      <c r="B131" s="23"/>
+      <c r="A131" s="24"/>
+      <c r="B131" s="25"/>
       <c r="C131" s="21" t="s">
         <v>150</v>
       </c>
@@ -3326,8 +3323,8 @@
       </c>
     </row>
     <row r="132" spans="1:10" ht="15.6">
-      <c r="A132" s="25"/>
-      <c r="B132" s="23"/>
+      <c r="A132" s="24"/>
+      <c r="B132" s="25"/>
       <c r="C132" s="21" t="s">
         <v>151</v>
       </c>
@@ -3344,8 +3341,8 @@
       </c>
     </row>
     <row r="133" spans="1:10" ht="15.6">
-      <c r="A133" s="25"/>
-      <c r="B133" s="23"/>
+      <c r="A133" s="24"/>
+      <c r="B133" s="25"/>
       <c r="C133" s="21" t="s">
         <v>152</v>
       </c>
@@ -3362,8 +3359,8 @@
       </c>
     </row>
     <row r="134" spans="1:10" ht="16.8" customHeight="1">
-      <c r="A134" s="25"/>
-      <c r="B134" s="23"/>
+      <c r="A134" s="24"/>
+      <c r="B134" s="25"/>
       <c r="C134" s="21" t="s">
         <v>153</v>
       </c>
@@ -3380,8 +3377,8 @@
       </c>
     </row>
     <row r="135" spans="1:10" ht="15.6">
-      <c r="A135" s="25"/>
-      <c r="B135" s="23"/>
+      <c r="A135" s="24"/>
+      <c r="B135" s="25"/>
       <c r="C135" s="21" t="s">
         <v>154</v>
       </c>
@@ -3398,8 +3395,8 @@
       </c>
     </row>
     <row r="136" spans="1:10" ht="15.6">
-      <c r="A136" s="25"/>
-      <c r="B136" s="23"/>
+      <c r="A136" s="24"/>
+      <c r="B136" s="25"/>
       <c r="C136" s="21" t="s">
         <v>155</v>
       </c>
@@ -3416,8 +3413,8 @@
       </c>
     </row>
     <row r="137" spans="1:10" ht="15.6">
-      <c r="A137" s="25"/>
-      <c r="B137" s="23"/>
+      <c r="A137" s="24"/>
+      <c r="B137" s="25"/>
       <c r="C137" s="21" t="s">
         <v>156</v>
       </c>
@@ -3434,26 +3431,26 @@
       </c>
     </row>
     <row r="138" spans="1:10" ht="15.6">
-      <c r="A138" s="25"/>
-      <c r="B138" s="23"/>
+      <c r="A138" s="24"/>
+      <c r="B138" s="25"/>
       <c r="C138" s="21" t="s">
         <v>157</v>
       </c>
       <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
+      <c r="E138" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
-      <c r="H138" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H138" s="2"/>
       <c r="I138" s="10"/>
       <c r="J138" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="15.6">
-      <c r="A139" s="25"/>
-      <c r="B139" s="23"/>
+      <c r="A139" s="24"/>
+      <c r="B139" s="25"/>
       <c r="C139" s="21" t="s">
         <v>158</v>
       </c>
@@ -3470,10 +3467,10 @@
       </c>
     </row>
     <row r="140" spans="1:10" ht="15.6">
-      <c r="A140" s="25"/>
-      <c r="B140" s="23"/>
+      <c r="A140" s="24"/>
+      <c r="B140" s="25"/>
       <c r="C140" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -3488,53 +3485,53 @@
       </c>
     </row>
     <row r="141" spans="1:10" ht="15.6">
-      <c r="A141" s="25"/>
-      <c r="B141" s="23"/>
+      <c r="A141" s="24"/>
+      <c r="B141" s="25"/>
       <c r="C141" s="21" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
+      <c r="E141" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
-      <c r="H141" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H141" s="2"/>
       <c r="I141" s="10"/>
       <c r="J141" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="15.6">
-      <c r="A142" s="25"/>
-      <c r="B142" s="23"/>
+      <c r="A142" s="24"/>
+      <c r="B142" s="25"/>
       <c r="C142" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
+      <c r="E142" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
-      <c r="H142" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H142" s="2"/>
       <c r="I142" s="10"/>
       <c r="J142" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="15.6">
-      <c r="A143" s="25"/>
-      <c r="B143" s="23"/>
+      <c r="A143" s="24"/>
+      <c r="B143" s="25"/>
       <c r="C143" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
+      <c r="E143" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F143" s="2"/>
-      <c r="G143" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="10"/>
       <c r="J143" s="10">
@@ -3542,17 +3539,17 @@
       </c>
     </row>
     <row r="144" spans="1:10" ht="15.6">
-      <c r="A144" s="25"/>
-      <c r="B144" s="23"/>
+      <c r="A144" s="24"/>
+      <c r="B144" s="25"/>
       <c r="C144" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
+      <c r="E144" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F144" s="2"/>
-      <c r="G144" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="10"/>
       <c r="J144" s="10">
@@ -3560,10 +3557,10 @@
       </c>
     </row>
     <row r="145" spans="1:10" ht="15.6">
-      <c r="A145" s="25"/>
-      <c r="B145" s="23"/>
+      <c r="A145" s="24"/>
+      <c r="B145" s="25"/>
       <c r="C145" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>8</v>
@@ -3578,10 +3575,10 @@
       </c>
     </row>
     <row r="146" spans="1:10" ht="15.6">
-      <c r="A146" s="25"/>
-      <c r="B146" s="23"/>
+      <c r="A146" s="24"/>
+      <c r="B146" s="25"/>
       <c r="C146" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>8</v>
@@ -3596,10 +3593,10 @@
       </c>
     </row>
     <row r="147" spans="1:10" ht="15.6">
-      <c r="A147" s="25"/>
-      <c r="B147" s="23"/>
+      <c r="A147" s="24"/>
+      <c r="B147" s="25"/>
       <c r="C147" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>8</v>
@@ -3614,10 +3611,10 @@
       </c>
     </row>
     <row r="148" spans="1:10" ht="15.6">
-      <c r="A148" s="25"/>
-      <c r="B148" s="23"/>
+      <c r="A148" s="24"/>
+      <c r="B148" s="25"/>
       <c r="C148" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>8</v>
@@ -3632,35 +3629,35 @@
       </c>
     </row>
     <row r="149" spans="1:10" ht="15.6">
-      <c r="A149" s="25"/>
-      <c r="B149" s="23"/>
+      <c r="A149" s="24"/>
+      <c r="B149" s="25"/>
       <c r="C149" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
+      <c r="E149" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
-      <c r="H149" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H149" s="2"/>
       <c r="I149" s="10"/>
       <c r="J149" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="15.6">
-      <c r="A150" s="25"/>
-      <c r="B150" s="23"/>
+      <c r="A150" s="24"/>
+      <c r="B150" s="25"/>
       <c r="C150" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F150" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="I150" s="10"/>
       <c r="J150" s="10">
@@ -3668,51 +3665,45 @@
       </c>
     </row>
     <row r="151" spans="1:10" ht="15.6">
-      <c r="A151" s="25"/>
-      <c r="B151" s="23"/>
+      <c r="A151" s="24"/>
+      <c r="B151" s="25"/>
       <c r="C151" s="21" t="s">
         <v>169</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
-      <c r="F151" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F151" s="2"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="I151" s="10"/>
       <c r="J151" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="15.6">
-      <c r="A152" s="25"/>
-      <c r="B152" s="23"/>
-      <c r="C152" s="21" t="s">
-        <v>170</v>
+      <c r="A152" s="24"/>
+      <c r="B152" s="25"/>
+      <c r="C152" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
+      <c r="E152" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
-      <c r="H152" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H152" s="2"/>
       <c r="I152" s="10"/>
-      <c r="J152" s="10">
-        <v>1</v>
-      </c>
+      <c r="J152" s="10"/>
     </row>
     <row r="153" spans="1:10" ht="15.6">
-      <c r="A153" s="25"/>
-      <c r="B153" s="23"/>
-      <c r="C153" s="4" t="s">
-        <v>35</v>
+      <c r="A153" s="24"/>
+      <c r="B153" s="25"/>
+      <c r="C153" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D153" s="2"/>
-      <c r="E153" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
@@ -3720,122 +3711,124 @@
       <c r="J153" s="10"/>
     </row>
     <row r="154" spans="1:10" ht="15.6">
-      <c r="A154" s="25"/>
-      <c r="B154" s="23"/>
-      <c r="C154" s="8" t="s">
-        <v>23</v>
+      <c r="A154" s="24"/>
+      <c r="B154" s="25"/>
+      <c r="C154" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
+      <c r="G154" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H154" s="2"/>
       <c r="I154" s="10"/>
       <c r="J154" s="10"/>
     </row>
     <row r="155" spans="1:10" ht="15.6">
-      <c r="A155" s="25"/>
-      <c r="B155" s="23"/>
+      <c r="A155" s="24"/>
+      <c r="B155" s="25"/>
       <c r="C155" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
-      <c r="G155" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="I155" s="10"/>
       <c r="J155" s="10"/>
     </row>
     <row r="156" spans="1:10" ht="15.6">
-      <c r="A156" s="25"/>
-      <c r="B156" s="23"/>
-      <c r="C156" s="7" t="s">
-        <v>117</v>
+      <c r="A156" s="24"/>
+      <c r="B156" s="25"/>
+      <c r="C156" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
-      <c r="H156" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H156" s="2"/>
       <c r="I156" s="10"/>
       <c r="J156" s="10"/>
     </row>
     <row r="157" spans="1:10" ht="15.6">
-      <c r="A157" s="25"/>
-      <c r="B157" s="23"/>
-      <c r="C157" s="8" t="s">
-        <v>24</v>
+      <c r="A157" s="24"/>
+      <c r="B157" s="25"/>
+      <c r="C157" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
+      <c r="G157" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H157" s="2"/>
       <c r="I157" s="10"/>
       <c r="J157" s="10"/>
     </row>
     <row r="158" spans="1:10" ht="15.6">
-      <c r="A158" s="25"/>
-      <c r="B158" s="23"/>
+      <c r="A158" s="24"/>
+      <c r="B158" s="25"/>
       <c r="C158" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
-      <c r="G158" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="I158" s="10"/>
       <c r="J158" s="10"/>
     </row>
     <row r="159" spans="1:10" ht="15.6">
-      <c r="A159" s="25"/>
-      <c r="B159" s="23"/>
-      <c r="C159" s="7" t="s">
-        <v>117</v>
+      <c r="A159" s="24"/>
+      <c r="B159" s="25"/>
+      <c r="C159" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
+      <c r="F159" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G159" s="2"/>
-      <c r="H159" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H159" s="2"/>
       <c r="I159" s="10"/>
       <c r="J159" s="10"/>
     </row>
-    <row r="160" spans="1:10" ht="15.6">
-      <c r="A160" s="25"/>
-      <c r="B160" s="23"/>
+    <row r="160" spans="1:10" ht="15.6" customHeight="1">
+      <c r="A160" s="23">
+        <v>6</v>
+      </c>
+      <c r="B160" s="25" t="s">
+        <v>7</v>
+      </c>
       <c r="C160" s="8" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
-      <c r="F160" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H160" s="2"/>
       <c r="I160" s="10"/>
       <c r="J160" s="10"/>
     </row>
-    <row r="161" spans="1:10" ht="15.6" customHeight="1">
-      <c r="A161" s="24">
-        <v>6</v>
-      </c>
-      <c r="B161" s="23" t="s">
-        <v>7</v>
-      </c>
+    <row r="161" spans="1:10" ht="15.6">
+      <c r="A161" s="24"/>
+      <c r="B161" s="25"/>
       <c r="C161" s="8" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -3848,10 +3841,10 @@
       <c r="J161" s="10"/>
     </row>
     <row r="162" spans="1:10" ht="15.6">
-      <c r="A162" s="25"/>
-      <c r="B162" s="23"/>
+      <c r="A162" s="24"/>
+      <c r="B162" s="25"/>
       <c r="C162" s="8" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -3863,24 +3856,21 @@
       <c r="I162" s="10"/>
       <c r="J162" s="10"/>
     </row>
-    <row r="163" spans="1:10" ht="15.6">
-      <c r="A163" s="25"/>
-      <c r="B163" s="23"/>
-      <c r="C163" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H163" s="2"/>
-      <c r="I163" s="10"/>
-      <c r="J163" s="10"/>
+    <row r="163" spans="1:10">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+      <c r="J163" s="3"/>
     </row>
     <row r="164" spans="1:10">
-      <c r="A164" s="3"/>
+      <c r="A164" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="B164" s="3"/>
       <c r="C164" s="1"/>
       <c r="D164" s="3"/>
@@ -3891,11 +3881,15 @@
       <c r="J164" s="3"/>
     </row>
     <row r="165" spans="1:10">
-      <c r="A165" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B165" s="3"/>
-      <c r="C165" s="1"/>
+      <c r="A165" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
@@ -3903,15 +3897,15 @@
       <c r="H165" s="3"/>
       <c r="J165" s="3"/>
     </row>
-    <row r="166" spans="1:10">
-      <c r="A166" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B166" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>40</v>
+    <row r="166" spans="1:10" ht="55.2">
+      <c r="A166" s="16">
+        <v>1</v>
+      </c>
+      <c r="B166" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C166" s="4">
+        <v>1</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -3920,15 +3914,15 @@
       <c r="H166" s="3"/>
       <c r="J166" s="3"/>
     </row>
-    <row r="167" spans="1:10" ht="55.2">
-      <c r="A167" s="16">
-        <v>1</v>
+    <row r="167" spans="1:10" ht="27.6">
+      <c r="A167" s="18">
+        <v>2</v>
       </c>
       <c r="B167" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C167" s="4">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="C167" s="18">
+        <v>2</v>
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -3939,13 +3933,13 @@
     </row>
     <row r="168" spans="1:10" ht="27.6">
       <c r="A168" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B168" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C168" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -3956,13 +3950,13 @@
     </row>
     <row r="169" spans="1:10" ht="27.6">
       <c r="A169" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B169" s="17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C169" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -3973,13 +3967,13 @@
     </row>
     <row r="170" spans="1:10" ht="27.6">
       <c r="A170" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B170" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C170" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -3988,16 +3982,7 @@
       <c r="H170" s="3"/>
       <c r="J170" s="3"/>
     </row>
-    <row r="171" spans="1:10" ht="27.6">
-      <c r="A171" s="18">
-        <v>5</v>
-      </c>
-      <c r="B171" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C171" s="18">
-        <v>5</v>
-      </c>
+    <row r="171" spans="1:10">
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
@@ -4117,31 +4102,23 @@
       <c r="H185" s="3"/>
       <c r="J185" s="3"/>
     </row>
-    <row r="186" spans="4:10">
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
-      <c r="J186" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A161:A163"/>
-    <mergeCell ref="B161:B163"/>
-    <mergeCell ref="B98:B160"/>
-    <mergeCell ref="A98:A160"/>
-    <mergeCell ref="B46:B97"/>
-    <mergeCell ref="A46:A97"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B45"/>
     <mergeCell ref="A11:A45"/>
     <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="B160:B162"/>
+    <mergeCell ref="B98:B159"/>
+    <mergeCell ref="A98:A159"/>
+    <mergeCell ref="B46:B97"/>
+    <mergeCell ref="A46:A97"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:H184">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:H183">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>

--- a/Document/Reports/TasksheetFinal.xlsx
+++ b/Document/Reports/TasksheetFinal.xlsx
@@ -1188,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G137" sqref="G137"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3526,10 +3526,10 @@
       <c r="C143" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
@@ -3544,10 +3544,10 @@
       <c r="C144" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>

--- a/Document/Reports/TasksheetFinal.xlsx
+++ b/Document/Reports/TasksheetFinal.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\FU\Capstone\trunk\Document\Reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="36" windowWidth="20112" windowHeight="8016"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -21,7 +26,7 @@
     <author>phuong</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0">
+    <comment ref="C12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0">
+    <comment ref="C13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="177">
   <si>
     <t>No.</t>
   </si>
@@ -649,6 +654,12 @@
   </si>
   <si>
     <t>&lt;User&gt; View response ticket list</t>
+  </si>
+  <si>
+    <t>Total Tasks:</t>
+  </si>
+  <si>
+    <t>Total Implement Points:</t>
   </si>
 </sst>
 </file>
@@ -816,7 +827,6 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -866,14 +876,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -881,9 +894,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,6 +905,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -942,7 +956,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -977,7 +991,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1188,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1202,743 +1216,743 @@
     <col min="7" max="7" width="6.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="51.6">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" ht="50.4">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6">
-      <c r="A2" s="28">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="15.6">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="15.6">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="15.6">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="15.6">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="15.6">
-      <c r="A7" s="25">
+      <c r="A7" s="23">
         <v>2</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="15.6">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="15.6">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="4" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="15.6">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="15.6">
-      <c r="A11" s="25">
+      <c r="A11" s="23">
         <v>3</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="15.6">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="15.6">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="19" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" ht="15.6">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" ht="15.6">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" ht="15.6">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="21" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="15.6">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="21" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" ht="15.6">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="21" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" ht="15.6">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="21" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" ht="15.6">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="21" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" ht="15.6">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="21" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" ht="15.6">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="21" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" ht="15.6">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="21" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" ht="15.6">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="20" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" ht="15.6">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="21" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" ht="15.6">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="21" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" ht="15.6">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="21" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" ht="15.6">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="21" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" ht="15.6">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="21" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" ht="15.6">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="21" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" ht="15.6">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="21" t="s">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" ht="15.6">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="21" t="s">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="21" t="s">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
+      <c r="D33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="21" t="s">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="21" t="s">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10" ht="15.6">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="21" t="s">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:10" ht="15.6">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="21" t="s">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
+      <c r="D37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
     </row>
     <row r="38" spans="1:10" ht="15.6">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="21" t="s">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" ht="15.6">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="21" t="s">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
     </row>
     <row r="40" spans="1:10" ht="15.6">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="20" t="s">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
     </row>
     <row r="41" spans="1:10" ht="15.6">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="21" t="s">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10" ht="15.6">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="21" t="s">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
     </row>
     <row r="43" spans="1:10" ht="15.6">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="21" t="s">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
     </row>
     <row r="44" spans="1:10" ht="15.6">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="21" t="s">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
     </row>
     <row r="45" spans="1:10" ht="15.6">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="4" t="s">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
     </row>
     <row r="46" spans="1:10" ht="15.6">
       <c r="A46" s="26">
@@ -1947,2178 +1961,2213 @@
       <c r="B46" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
+      <c r="D46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
     </row>
     <row r="47" spans="1:10" ht="15.6">
       <c r="A47" s="27"/>
       <c r="B47" s="27"/>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
     </row>
     <row r="48" spans="1:10" ht="15.6">
       <c r="A48" s="27"/>
       <c r="B48" s="27"/>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
     </row>
     <row r="49" spans="1:10" ht="15.6">
       <c r="A49" s="27"/>
       <c r="B49" s="27"/>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="27"/>
       <c r="B50" s="27"/>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="27"/>
       <c r="B51" s="27"/>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
+      <c r="D51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
     </row>
     <row r="52" spans="1:10" ht="15.6">
       <c r="A52" s="27"/>
       <c r="B52" s="27"/>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
     </row>
     <row r="53" spans="1:10" ht="15.6">
       <c r="A53" s="27"/>
       <c r="B53" s="27"/>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
     </row>
     <row r="54" spans="1:10" ht="15.6">
       <c r="A54" s="27"/>
       <c r="B54" s="27"/>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="2"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
     </row>
     <row r="55" spans="1:10" ht="15.6">
       <c r="A55" s="27"/>
       <c r="B55" s="27"/>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
     </row>
     <row r="56" spans="1:10" ht="15.6">
       <c r="A56" s="27"/>
       <c r="B56" s="27"/>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
     </row>
     <row r="57" spans="1:10" ht="15.6">
       <c r="A57" s="27"/>
       <c r="B57" s="27"/>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
     </row>
     <row r="58" spans="1:10" ht="15.6">
       <c r="A58" s="27"/>
       <c r="B58" s="27"/>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
     </row>
     <row r="59" spans="1:10" ht="15.6">
       <c r="A59" s="27"/>
       <c r="B59" s="27"/>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="2"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
     </row>
     <row r="60" spans="1:10" ht="15.6">
       <c r="A60" s="27"/>
       <c r="B60" s="27"/>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
     </row>
     <row r="61" spans="1:10" ht="15.6">
       <c r="A61" s="27"/>
       <c r="B61" s="27"/>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
     </row>
     <row r="62" spans="1:10" ht="15.6">
       <c r="A62" s="27"/>
       <c r="B62" s="27"/>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="2"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
     </row>
     <row r="63" spans="1:10" ht="15.6">
       <c r="A63" s="27"/>
       <c r="B63" s="27"/>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
+      <c r="D63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
     </row>
     <row r="64" spans="1:10" ht="15.6">
       <c r="A64" s="27"/>
       <c r="B64" s="27"/>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
+      <c r="D64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
     </row>
     <row r="65" spans="1:10" ht="15.6">
       <c r="A65" s="27"/>
       <c r="B65" s="27"/>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
     </row>
     <row r="66" spans="1:10" ht="15.6">
       <c r="A66" s="27"/>
       <c r="B66" s="27"/>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
     </row>
     <row r="67" spans="1:10" ht="15.6">
       <c r="A67" s="27"/>
       <c r="B67" s="27"/>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H67" s="2"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
     </row>
     <row r="68" spans="1:10" ht="15.6">
       <c r="A68" s="27"/>
       <c r="B68" s="27"/>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
     </row>
     <row r="69" spans="1:10" ht="15.6">
       <c r="A69" s="27"/>
       <c r="B69" s="27"/>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
     </row>
     <row r="70" spans="1:10" ht="15.6">
       <c r="A70" s="27"/>
       <c r="B70" s="27"/>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H70" s="2"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
     </row>
     <row r="71" spans="1:10" ht="15.6">
       <c r="A71" s="27"/>
       <c r="B71" s="27"/>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
     </row>
     <row r="72" spans="1:10" ht="15.6">
       <c r="A72" s="27"/>
       <c r="B72" s="27"/>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
     </row>
     <row r="73" spans="1:10" ht="15.6">
       <c r="A73" s="27"/>
       <c r="B73" s="27"/>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H73" s="2"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
     </row>
     <row r="74" spans="1:10" ht="15.6">
       <c r="A74" s="27"/>
       <c r="B74" s="27"/>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
     </row>
     <row r="75" spans="1:10" ht="15.6">
       <c r="A75" s="27"/>
       <c r="B75" s="27"/>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
+      <c r="D75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
     </row>
     <row r="76" spans="1:10" ht="15.6">
       <c r="A76" s="27"/>
       <c r="B76" s="27"/>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
     </row>
     <row r="77" spans="1:10" ht="15.6">
       <c r="A77" s="27"/>
       <c r="B77" s="27"/>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
+      <c r="D77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
     </row>
     <row r="78" spans="1:10" ht="15.6">
       <c r="A78" s="27"/>
       <c r="B78" s="27"/>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
     </row>
     <row r="79" spans="1:10" ht="15.6">
       <c r="A79" s="27"/>
       <c r="B79" s="27"/>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
+      <c r="D79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
     </row>
     <row r="80" spans="1:10" ht="15.6">
       <c r="A80" s="27"/>
       <c r="B80" s="27"/>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
     </row>
     <row r="81" spans="1:10" ht="15.6">
       <c r="A81" s="27"/>
       <c r="B81" s="27"/>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
     </row>
     <row r="82" spans="1:10" ht="15.6">
       <c r="A82" s="27"/>
       <c r="B82" s="27"/>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
     </row>
     <row r="83" spans="1:10" ht="15.6">
       <c r="A83" s="27"/>
       <c r="B83" s="27"/>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="2"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
     </row>
     <row r="84" spans="1:10" ht="15.6">
       <c r="A84" s="27"/>
       <c r="B84" s="27"/>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
     </row>
     <row r="85" spans="1:10" ht="15.6">
       <c r="A85" s="27"/>
       <c r="B85" s="27"/>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
     </row>
     <row r="86" spans="1:10" ht="15.6">
       <c r="A86" s="27"/>
       <c r="B86" s="27"/>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
     </row>
     <row r="87" spans="1:10" ht="15.6">
       <c r="A87" s="27"/>
       <c r="B87" s="27"/>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H87" s="2"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
     </row>
     <row r="88" spans="1:10" ht="15.6">
       <c r="A88" s="27"/>
       <c r="B88" s="27"/>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
     </row>
     <row r="89" spans="1:10" ht="15.6">
       <c r="A89" s="27"/>
       <c r="B89" s="27"/>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
     </row>
     <row r="90" spans="1:10" ht="15.6">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
     </row>
     <row r="91" spans="1:10" ht="15.6">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
+      <c r="D91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
     </row>
     <row r="92" spans="1:10" ht="15.6">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
     </row>
     <row r="93" spans="1:10" ht="15.6">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
     </row>
     <row r="94" spans="1:10" ht="15.6">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
+      <c r="D94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
     </row>
     <row r="95" spans="1:10" ht="15.6">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
     </row>
     <row r="96" spans="1:10" ht="15.6">
       <c r="A96" s="27"/>
       <c r="B96" s="27"/>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
     </row>
     <row r="97" spans="1:10" ht="15.6">
-      <c r="A97" s="28"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="7" t="s">
+      <c r="A97" s="22"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
     </row>
     <row r="98" spans="1:10" ht="15.6">
-      <c r="A98" s="23">
+      <c r="A98" s="24">
         <v>5</v>
       </c>
-      <c r="B98" s="25" t="s">
+      <c r="B98" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
     </row>
     <row r="99" spans="1:10" ht="15.6">
-      <c r="A99" s="24"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="4" t="s">
+      <c r="A99" s="25"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H99" s="2"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
     </row>
     <row r="100" spans="1:10" ht="15.6">
-      <c r="A100" s="24"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="4" t="s">
+      <c r="A100" s="25"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
     </row>
     <row r="101" spans="1:10" ht="15.6">
-      <c r="A101" s="24"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="22" t="s">
+      <c r="A101" s="25"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
     </row>
     <row r="102" spans="1:10" ht="15.6">
-      <c r="A102" s="24"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="20" t="s">
+      <c r="A102" s="25"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
     </row>
     <row r="103" spans="1:10" ht="15.6">
-      <c r="A103" s="24"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="21" t="s">
+      <c r="A103" s="25"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="10">
+      <c r="D103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="15.6">
-      <c r="A104" s="24"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="21" t="s">
+      <c r="A104" s="25"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10">
+      <c r="D104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="15.6">
-      <c r="A105" s="24"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="21" t="s">
+      <c r="A105" s="25"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10">
+      <c r="D105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="15.6">
-      <c r="A106" s="24"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="21" t="s">
+      <c r="A106" s="25"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="10">
+      <c r="D106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="15.6">
-      <c r="A107" s="24"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="20" t="s">
+      <c r="A107" s="25"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="10"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
     </row>
     <row r="108" spans="1:10" ht="15.6">
-      <c r="A108" s="24"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="21" t="s">
+      <c r="A108" s="25"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="10"/>
-      <c r="J108" s="10">
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="15.6">
-      <c r="A109" s="24"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="21" t="s">
+      <c r="A109" s="25"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="10">
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="15.6">
-      <c r="A110" s="24"/>
-      <c r="B110" s="25"/>
-      <c r="C110" s="21" t="s">
+      <c r="A110" s="25"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="10">
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="15.6">
-      <c r="A111" s="24"/>
-      <c r="B111" s="25"/>
-      <c r="C111" s="20" t="s">
+      <c r="A111" s="25"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="10"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
     </row>
     <row r="112" spans="1:10" ht="15.6">
-      <c r="A112" s="24"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="21" t="s">
+      <c r="A112" s="25"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="10">
+      <c r="D112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="15.6">
-      <c r="A113" s="24"/>
-      <c r="B113" s="25"/>
-      <c r="C113" s="21" t="s">
+      <c r="A113" s="25"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="10">
+      <c r="D113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="15.6">
-      <c r="A114" s="24"/>
-      <c r="B114" s="25"/>
-      <c r="C114" s="21" t="s">
+      <c r="A114" s="25"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10">
+      <c r="D114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="15.6">
-      <c r="A115" s="24"/>
-      <c r="B115" s="25"/>
-      <c r="C115" s="20" t="s">
+      <c r="A115" s="25"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="10"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
     </row>
     <row r="116" spans="1:10" ht="15.6">
-      <c r="A116" s="24"/>
-      <c r="B116" s="25"/>
-      <c r="C116" s="21" t="s">
+      <c r="A116" s="25"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="10"/>
-      <c r="J116" s="10">
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="15.6">
-      <c r="A117" s="24"/>
-      <c r="B117" s="25"/>
-      <c r="C117" s="21" t="s">
+      <c r="A117" s="25"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="10">
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="15.6">
-      <c r="A118" s="24"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="20" t="s">
+      <c r="A118" s="25"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="10"/>
-      <c r="J118" s="10"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
     </row>
     <row r="119" spans="1:10" ht="15.6">
-      <c r="A119" s="24"/>
-      <c r="B119" s="25"/>
-      <c r="C119" s="21" t="s">
+      <c r="A119" s="25"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="10"/>
-      <c r="J119" s="10">
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="15.6">
-      <c r="A120" s="24"/>
-      <c r="B120" s="25"/>
-      <c r="C120" s="21" t="s">
+      <c r="A120" s="25"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="10"/>
-      <c r="J120" s="10">
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="15.6">
-      <c r="A121" s="24"/>
-      <c r="B121" s="25"/>
-      <c r="C121" s="20" t="s">
+      <c r="A121" s="25"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="10"/>
-      <c r="J121" s="10"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
     </row>
     <row r="122" spans="1:10" ht="15.6">
-      <c r="A122" s="24"/>
-      <c r="B122" s="25"/>
-      <c r="C122" s="21" t="s">
+      <c r="A122" s="25"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="10"/>
-      <c r="J122" s="10">
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="15.6">
-      <c r="A123" s="24"/>
-      <c r="B123" s="25"/>
-      <c r="C123" s="20" t="s">
+      <c r="A123" s="25"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="10"/>
-      <c r="J123" s="10"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
     </row>
     <row r="124" spans="1:10" ht="15.6">
-      <c r="A124" s="24"/>
-      <c r="B124" s="25"/>
-      <c r="C124" s="21" t="s">
+      <c r="A124" s="25"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="10">
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="15.6">
-      <c r="A125" s="24"/>
-      <c r="B125" s="25"/>
-      <c r="C125" s="21" t="s">
+      <c r="A125" s="25"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="10">
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="15.6">
-      <c r="A126" s="24"/>
-      <c r="B126" s="25"/>
-      <c r="C126" s="20" t="s">
+      <c r="A126" s="25"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="10"/>
-      <c r="J126" s="10"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
     </row>
     <row r="127" spans="1:10" ht="15.6">
-      <c r="A127" s="24"/>
-      <c r="B127" s="25"/>
-      <c r="C127" s="21" t="s">
+      <c r="A127" s="25"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="10"/>
-      <c r="J127" s="10">
+      <c r="D127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="15.6">
-      <c r="A128" s="24"/>
-      <c r="B128" s="25"/>
-      <c r="C128" s="22" t="s">
+      <c r="A128" s="25"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="10"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
     </row>
     <row r="129" spans="1:10" ht="15.6">
-      <c r="A129" s="24"/>
-      <c r="B129" s="25"/>
-      <c r="C129" s="21" t="s">
+      <c r="A129" s="25"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="10">
+      <c r="D129" s="1"/>
+      <c r="E129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="15.6">
-      <c r="A130" s="24"/>
-      <c r="B130" s="25"/>
-      <c r="C130" s="21" t="s">
+      <c r="A130" s="25"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="10">
+      <c r="D130" s="1"/>
+      <c r="E130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="15.6">
-      <c r="A131" s="24"/>
-      <c r="B131" s="25"/>
-      <c r="C131" s="21" t="s">
+      <c r="A131" s="25"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="10"/>
-      <c r="J131" s="10">
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="15.6">
-      <c r="A132" s="24"/>
-      <c r="B132" s="25"/>
-      <c r="C132" s="21" t="s">
+      <c r="A132" s="25"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="10"/>
-      <c r="J132" s="10">
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="15.6">
-      <c r="A133" s="24"/>
-      <c r="B133" s="25"/>
-      <c r="C133" s="21" t="s">
+      <c r="A133" s="25"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="10"/>
-      <c r="J133" s="10">
+      <c r="D133" s="1"/>
+      <c r="E133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="16.8" customHeight="1">
-      <c r="A134" s="24"/>
-      <c r="B134" s="25"/>
-      <c r="C134" s="21" t="s">
+      <c r="A134" s="25"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="10"/>
-      <c r="J134" s="10">
+      <c r="D134" s="1"/>
+      <c r="E134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="15.6">
-      <c r="A135" s="24"/>
-      <c r="B135" s="25"/>
-      <c r="C135" s="21" t="s">
+      <c r="A135" s="25"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="10"/>
-      <c r="J135" s="10">
+      <c r="D135" s="1"/>
+      <c r="E135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="15.6">
-      <c r="A136" s="24"/>
-      <c r="B136" s="25"/>
-      <c r="C136" s="21" t="s">
+      <c r="A136" s="25"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="10"/>
-      <c r="J136" s="10">
+      <c r="D136" s="1"/>
+      <c r="E136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="15.6">
-      <c r="A137" s="24"/>
-      <c r="B137" s="25"/>
-      <c r="C137" s="21" t="s">
+      <c r="A137" s="25"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="10"/>
-      <c r="J137" s="10">
+      <c r="D137" s="1"/>
+      <c r="E137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="15.6">
-      <c r="A138" s="24"/>
-      <c r="B138" s="25"/>
-      <c r="C138" s="21" t="s">
+      <c r="A138" s="25"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="10"/>
-      <c r="J138" s="10">
+      <c r="D138" s="1"/>
+      <c r="E138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="15.6">
-      <c r="A139" s="24"/>
-      <c r="B139" s="25"/>
-      <c r="C139" s="21" t="s">
+      <c r="A139" s="25"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="10"/>
-      <c r="J139" s="10">
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="15.6">
-      <c r="A140" s="24"/>
-      <c r="B140" s="25"/>
-      <c r="C140" s="21" t="s">
+      <c r="A140" s="25"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="10"/>
-      <c r="J140" s="10">
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="15.6">
-      <c r="A141" s="24"/>
-      <c r="B141" s="25"/>
-      <c r="C141" s="21" t="s">
+      <c r="A141" s="25"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="10"/>
-      <c r="J141" s="10">
+      <c r="D141" s="1"/>
+      <c r="E141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="15.6">
-      <c r="A142" s="24"/>
-      <c r="B142" s="25"/>
-      <c r="C142" s="21" t="s">
+      <c r="A142" s="25"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="10"/>
-      <c r="J142" s="10">
+      <c r="D142" s="1"/>
+      <c r="E142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="15.6">
-      <c r="A143" s="24"/>
-      <c r="B143" s="25"/>
-      <c r="C143" s="21" t="s">
+      <c r="A143" s="25"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="D143" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="10"/>
-      <c r="J143" s="10">
+      <c r="D143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="15.6">
-      <c r="A144" s="24"/>
-      <c r="B144" s="25"/>
-      <c r="C144" s="21" t="s">
+      <c r="A144" s="25"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="10"/>
-      <c r="J144" s="10">
+      <c r="D144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="15.6">
-      <c r="A145" s="24"/>
-      <c r="B145" s="25"/>
-      <c r="C145" s="21" t="s">
+      <c r="A145" s="25"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="10"/>
-      <c r="J145" s="10">
+      <c r="D145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="15.6">
-      <c r="A146" s="24"/>
-      <c r="B146" s="25"/>
-      <c r="C146" s="21" t="s">
+      <c r="A146" s="25"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="10"/>
-      <c r="J146" s="10">
+      <c r="D146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="15.6">
-      <c r="A147" s="24"/>
-      <c r="B147" s="25"/>
-      <c r="C147" s="21" t="s">
+      <c r="A147" s="25"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="D147" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="10"/>
-      <c r="J147" s="10">
+      <c r="D147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="15.6">
-      <c r="A148" s="24"/>
-      <c r="B148" s="25"/>
-      <c r="C148" s="21" t="s">
+      <c r="A148" s="25"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="10"/>
-      <c r="J148" s="10">
+      <c r="D148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="15.6">
-      <c r="A149" s="24"/>
-      <c r="B149" s="25"/>
-      <c r="C149" s="21" t="s">
+      <c r="A149" s="25"/>
+      <c r="B149" s="23"/>
+      <c r="C149" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="10"/>
-      <c r="J149" s="10">
+      <c r="D149" s="1"/>
+      <c r="E149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="15.6">
-      <c r="A150" s="24"/>
-      <c r="B150" s="25"/>
-      <c r="C150" s="21" t="s">
+      <c r="A150" s="25"/>
+      <c r="B150" s="23"/>
+      <c r="C150" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="10"/>
-      <c r="J150" s="10">
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="15.6">
-      <c r="A151" s="24"/>
-      <c r="B151" s="25"/>
-      <c r="C151" s="21" t="s">
+      <c r="A151" s="25"/>
+      <c r="B151" s="23"/>
+      <c r="C151" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="10"/>
-      <c r="J151" s="10">
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="15.6">
-      <c r="A152" s="24"/>
-      <c r="B152" s="25"/>
-      <c r="C152" s="4" t="s">
+      <c r="A152" s="25"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="10"/>
-      <c r="J152" s="10"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
     </row>
     <row r="153" spans="1:10" ht="15.6">
-      <c r="A153" s="24"/>
-      <c r="B153" s="25"/>
-      <c r="C153" s="8" t="s">
+      <c r="A153" s="25"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
-      <c r="I153" s="10"/>
-      <c r="J153" s="10"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
     </row>
     <row r="154" spans="1:10" ht="15.6">
-      <c r="A154" s="24"/>
-      <c r="B154" s="25"/>
-      <c r="C154" s="7" t="s">
+      <c r="A154" s="25"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H154" s="2"/>
-      <c r="I154" s="10"/>
-      <c r="J154" s="10"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H154" s="1"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
     </row>
     <row r="155" spans="1:10" ht="15.6">
-      <c r="A155" s="24"/>
-      <c r="B155" s="25"/>
-      <c r="C155" s="7" t="s">
+      <c r="A155" s="25"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I155" s="10"/>
-      <c r="J155" s="10"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
     </row>
     <row r="156" spans="1:10" ht="15.6">
-      <c r="A156" s="24"/>
-      <c r="B156" s="25"/>
-      <c r="C156" s="8" t="s">
+      <c r="A156" s="25"/>
+      <c r="B156" s="23"/>
+      <c r="C156" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="10"/>
-      <c r="J156" s="10"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
     </row>
     <row r="157" spans="1:10" ht="15.6">
-      <c r="A157" s="24"/>
-      <c r="B157" s="25"/>
-      <c r="C157" s="7" t="s">
+      <c r="A157" s="25"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H157" s="2"/>
-      <c r="I157" s="10"/>
-      <c r="J157" s="10"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H157" s="1"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
     </row>
     <row r="158" spans="1:10" ht="15.6">
-      <c r="A158" s="24"/>
-      <c r="B158" s="25"/>
-      <c r="C158" s="7" t="s">
+      <c r="A158" s="25"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I158" s="10"/>
-      <c r="J158" s="10"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
     </row>
     <row r="159" spans="1:10" ht="15.6">
-      <c r="A159" s="24"/>
-      <c r="B159" s="25"/>
-      <c r="C159" s="8" t="s">
+      <c r="A159" s="25"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="10"/>
-      <c r="J159" s="10"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="9"/>
     </row>
     <row r="160" spans="1:10" ht="15.6" customHeight="1">
-      <c r="A160" s="23">
+      <c r="A160" s="24">
         <v>6</v>
       </c>
-      <c r="B160" s="25" t="s">
+      <c r="B160" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="C160" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H160" s="2"/>
-      <c r="I160" s="10"/>
-      <c r="J160" s="10"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H160" s="1"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
     </row>
     <row r="161" spans="1:10" ht="15.6">
-      <c r="A161" s="24"/>
-      <c r="B161" s="25"/>
-      <c r="C161" s="8" t="s">
+      <c r="A161" s="25"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H161" s="2"/>
-      <c r="I161" s="10"/>
-      <c r="J161" s="10"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H161" s="1"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
     </row>
     <row r="162" spans="1:10" ht="15.6">
-      <c r="A162" s="24"/>
-      <c r="B162" s="25"/>
-      <c r="C162" s="8" t="s">
+      <c r="A162" s="25"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H162" s="2"/>
-      <c r="I162" s="10"/>
-      <c r="J162" s="10"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H162" s="1"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
     </row>
     <row r="163" spans="1:10">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
-      <c r="J163" s="3"/>
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D163" s="2">
+        <f>COUNTA(D2:D162)</f>
+        <v>33</v>
+      </c>
+      <c r="E163" s="2">
+        <f t="shared" ref="E163:H163" si="0">COUNTA(E2:E162)</f>
+        <v>28</v>
+      </c>
+      <c r="F163" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="G163" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H163" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
     </row>
     <row r="164" spans="1:10">
-      <c r="A164" s="15" t="s">
+      <c r="A164" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B164" s="3"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="J164" s="3"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="D164" s="2">
+        <f>SUMIF(D2:D162,"=O",$J$2:$J$162)</f>
+        <v>31</v>
+      </c>
+      <c r="E164" s="2">
+        <f t="shared" ref="E164:H164" si="1">SUMIF(E2:E162,"=O",$J$2:$J$162)</f>
+        <v>20</v>
+      </c>
+      <c r="F164" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="G164" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H164" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J164" s="2"/>
     </row>
     <row r="165" spans="1:10">
-      <c r="A165" s="16" t="s">
+      <c r="A165" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B165" s="16" t="s">
+      <c r="B165" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="C165" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="J165" s="3"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="J165" s="2"/>
     </row>
     <row r="166" spans="1:10" ht="55.2">
-      <c r="A166" s="16">
+      <c r="A166" s="15">
         <v>1</v>
       </c>
-      <c r="B166" s="17" t="s">
+      <c r="B166" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C166" s="4">
+      <c r="C166" s="3">
         <v>1</v>
       </c>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="J166" s="3"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="J166" s="2"/>
     </row>
     <row r="167" spans="1:10" ht="27.6">
-      <c r="A167" s="18">
+      <c r="A167" s="17">
         <v>2</v>
       </c>
-      <c r="B167" s="17" t="s">
+      <c r="B167" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C167" s="18">
+      <c r="C167" s="17">
         <v>2</v>
       </c>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3"/>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
-      <c r="J167" s="3"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="J167" s="2"/>
     </row>
     <row r="168" spans="1:10" ht="27.6">
-      <c r="A168" s="18">
+      <c r="A168" s="17">
         <v>3</v>
       </c>
-      <c r="B168" s="17" t="s">
+      <c r="B168" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C168" s="18">
+      <c r="C168" s="17">
         <v>3</v>
       </c>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-      <c r="J168" s="3"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="J168" s="2"/>
     </row>
     <row r="169" spans="1:10" ht="27.6">
-      <c r="A169" s="18">
+      <c r="A169" s="17">
         <v>4</v>
       </c>
-      <c r="B169" s="17" t="s">
+      <c r="B169" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C169" s="18">
+      <c r="C169" s="17">
         <v>4</v>
       </c>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="J169" s="3"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="J169" s="2"/>
     </row>
     <row r="170" spans="1:10" ht="27.6">
-      <c r="A170" s="18">
+      <c r="A170" s="17">
         <v>5</v>
       </c>
-      <c r="B170" s="17" t="s">
+      <c r="B170" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C170" s="18">
+      <c r="C170" s="17">
         <v>5</v>
       </c>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
-      <c r="J170" s="3"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="J170" s="2"/>
     </row>
     <row r="171" spans="1:10">
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
-      <c r="H171" s="3"/>
-      <c r="J171" s="3"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="J171" s="2"/>
     </row>
     <row r="172" spans="1:10">
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
-      <c r="J172" s="3"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="J172" s="2"/>
     </row>
     <row r="173" spans="1:10">
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
-      <c r="J173" s="3"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="J173" s="2"/>
     </row>
     <row r="174" spans="1:10">
-      <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
-      <c r="J174" s="3"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="J174" s="2"/>
     </row>
     <row r="175" spans="1:10">
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
-      <c r="H175" s="3"/>
-      <c r="J175" s="3"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="J175" s="2"/>
     </row>
     <row r="176" spans="1:10">
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
-      <c r="J176" s="3"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="J176" s="2"/>
     </row>
     <row r="177" spans="4:10">
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
-      <c r="J177" s="3"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="J177" s="2"/>
     </row>
     <row r="178" spans="4:10">
-      <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
-      <c r="J178" s="3"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="J178" s="2"/>
     </row>
     <row r="179" spans="4:10">
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
-      <c r="J179" s="3"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="J179" s="2"/>
     </row>
     <row r="180" spans="4:10">
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
-      <c r="H180" s="3"/>
-      <c r="J180" s="3"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="J180" s="2"/>
     </row>
     <row r="181" spans="4:10">
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="3"/>
-      <c r="G181" s="3"/>
-      <c r="H181" s="3"/>
-      <c r="J181" s="3"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="J181" s="2"/>
     </row>
     <row r="182" spans="4:10">
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
-      <c r="H182" s="3"/>
-      <c r="J182" s="3"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="J182" s="2"/>
     </row>
     <row r="183" spans="4:10">
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
-      <c r="G183" s="3"/>
-      <c r="H183" s="3"/>
-      <c r="J183" s="3"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="J183" s="2"/>
     </row>
     <row r="184" spans="4:10">
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3"/>
-      <c r="H184" s="3"/>
-      <c r="J184" s="3"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="J184" s="2"/>
     </row>
     <row r="185" spans="4:10">
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
-      <c r="J185" s="3"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="J185" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="B160:B162"/>
+    <mergeCell ref="B98:B159"/>
+    <mergeCell ref="A98:A159"/>
+    <mergeCell ref="B46:B97"/>
+    <mergeCell ref="A46:A97"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B45"/>
     <mergeCell ref="A11:A45"/>
     <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A160:A162"/>
-    <mergeCell ref="B160:B162"/>
-    <mergeCell ref="B98:B159"/>
-    <mergeCell ref="A98:A159"/>
-    <mergeCell ref="B46:B97"/>
-    <mergeCell ref="A46:A97"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:H183">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:H162 D165:H183">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>

--- a/Document/Reports/TasksheetFinal.xlsx
+++ b/Document/Reports/TasksheetFinal.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\FU\Capstone\trunk\Document\Reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="36" windowWidth="20112" windowHeight="8016"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -26,7 +21,7 @@
     <author>phuong</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0">
+    <comment ref="C12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0">
+    <comment ref="C13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="179">
   <si>
     <t>No.</t>
   </si>
@@ -488,9 +483,6 @@
     <t>Test plan</t>
   </si>
   <si>
-    <t>Free Test</t>
-  </si>
-  <si>
     <t>Admin's Guide</t>
   </si>
   <si>
@@ -584,9 +576,6 @@
     <t>&lt;Guest/User&gt; Search event</t>
   </si>
   <si>
-    <t>&lt;Guest/User&gt; View event details</t>
-  </si>
-  <si>
     <t>&lt;User&gt; Buy ticket</t>
   </si>
   <si>
@@ -660,6 +649,18 @@
   </si>
   <si>
     <t>Total Implement Points:</t>
+  </si>
+  <si>
+    <t>&lt;User&gt; Suggest event</t>
+  </si>
+  <si>
+    <t>&lt;Guest/User&gt; View event list/details</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; View request</t>
+  </si>
+  <si>
+    <t>&lt;Admin&gt; View transaction list</t>
   </si>
 </sst>
 </file>
@@ -876,17 +877,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -894,7 +893,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -956,7 +957,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -991,7 +992,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1200,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J185"/>
+  <dimension ref="A1:J187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="C160" sqref="C160"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1216,7 +1217,7 @@
     <col min="7" max="7" width="6.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="50.4">
+    <row r="1" spans="1:10" ht="51.6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1249,10 +1250,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6">
-      <c r="A2" s="22">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -1269,8 +1270,8 @@
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="15.6">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
@@ -1285,8 +1286,8 @@
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="15.6">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
@@ -1301,8 +1302,8 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="15.6">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1317,8 +1318,8 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="15.6">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="3" t="s">
         <v>51</v>
       </c>
@@ -1333,10 +1334,10 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="15.6">
-      <c r="A7" s="23">
+      <c r="A7" s="25">
         <v>2</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1353,8 +1354,8 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="15.6">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1369,8 +1370,8 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="15.6">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1385,8 +1386,8 @@
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="15.6">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1401,10 +1402,10 @@
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="15.6">
-      <c r="A11" s="23">
+      <c r="A11" s="25">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1421,8 +1422,8 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="15.6">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1435,8 +1436,8 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="15.6">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="18" t="s">
         <v>15</v>
       </c>
@@ -1451,8 +1452,8 @@
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" ht="15.6">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="19" t="s">
         <v>16</v>
       </c>
@@ -1465,8 +1466,8 @@
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" ht="15.6">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="19" t="s">
         <v>53</v>
       </c>
@@ -1479,8 +1480,8 @@
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" ht="15.6">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
         <v>54</v>
       </c>
@@ -1495,8 +1496,8 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="15.6">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="20" t="s">
         <v>55</v>
       </c>
@@ -1511,8 +1512,8 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" ht="15.6">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="20" t="s">
         <v>56</v>
       </c>
@@ -1527,8 +1528,8 @@
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" ht="15.6">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="20" t="s">
         <v>57</v>
       </c>
@@ -1543,8 +1544,8 @@
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" ht="15.6">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="20" t="s">
         <v>58</v>
       </c>
@@ -1559,8 +1560,8 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" ht="15.6">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="20" t="s">
         <v>59</v>
       </c>
@@ -1575,8 +1576,8 @@
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" ht="15.6">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="20" t="s">
         <v>60</v>
       </c>
@@ -1591,8 +1592,8 @@
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" ht="15.6">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="20" t="s">
         <v>61</v>
       </c>
@@ -1607,8 +1608,8 @@
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" ht="15.6">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="19" t="s">
         <v>62</v>
       </c>
@@ -1621,8 +1622,8 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" ht="15.6">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="20" t="s">
         <v>63</v>
       </c>
@@ -1637,8 +1638,8 @@
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" ht="15.6">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="20" t="s">
         <v>64</v>
       </c>
@@ -1653,8 +1654,8 @@
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" ht="15.6">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="20" t="s">
         <v>65</v>
       </c>
@@ -1669,8 +1670,8 @@
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" ht="15.6">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
         <v>66</v>
       </c>
@@ -1685,8 +1686,8 @@
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" ht="15.6">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="20" t="s">
         <v>67</v>
       </c>
@@ -1701,8 +1702,8 @@
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" ht="15.6">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="20" t="s">
         <v>68</v>
       </c>
@@ -1717,8 +1718,8 @@
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" ht="15.6">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="20" t="s">
         <v>69</v>
       </c>
@@ -1733,8 +1734,8 @@
       <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" ht="15.6">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="20" t="s">
         <v>70</v>
       </c>
@@ -1749,8 +1750,8 @@
       <c r="J32" s="9"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="20" t="s">
         <v>71</v>
       </c>
@@ -1765,8 +1766,8 @@
       <c r="J33" s="9"/>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="20" t="s">
         <v>52</v>
       </c>
@@ -1781,8 +1782,8 @@
       <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="20" t="s">
         <v>72</v>
       </c>
@@ -1797,8 +1798,8 @@
       <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10" ht="15.6">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="20" t="s">
         <v>73</v>
       </c>
@@ -1813,10 +1814,10 @@
       <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:10" ht="15.6">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>8</v>
@@ -1829,8 +1830,8 @@
       <c r="J37" s="9"/>
     </row>
     <row r="38" spans="1:10" ht="15.6">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="20" t="s">
         <v>58</v>
       </c>
@@ -1845,8 +1846,8 @@
       <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" ht="15.6">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="20" t="s">
         <v>74</v>
       </c>
@@ -1861,8 +1862,8 @@
       <c r="J39" s="9"/>
     </row>
     <row r="40" spans="1:10" ht="15.6">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="19" t="s">
         <v>17</v>
       </c>
@@ -1875,8 +1876,8 @@
       <c r="J40" s="9"/>
     </row>
     <row r="41" spans="1:10" ht="15.6">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="20" t="s">
         <v>18</v>
       </c>
@@ -1891,8 +1892,8 @@
       <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10" ht="15.6">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="20" t="s">
         <v>19</v>
       </c>
@@ -1907,8 +1908,8 @@
       <c r="J42" s="9"/>
     </row>
     <row r="43" spans="1:10" ht="15.6">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="20" t="s">
         <v>75</v>
       </c>
@@ -1923,8 +1924,8 @@
       <c r="J43" s="9"/>
     </row>
     <row r="44" spans="1:10" ht="15.6">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="20" t="s">
         <v>76</v>
       </c>
@@ -1939,8 +1940,8 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="1:10" ht="15.6">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="3" t="s">
         <v>20</v>
       </c>
@@ -2116,7 +2117,7 @@
       <c r="A56" s="27"/>
       <c r="B56" s="27"/>
       <c r="C56" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2755,8 +2756,8 @@
       <c r="J96" s="9"/>
     </row>
     <row r="97" spans="1:10" ht="15.6">
-      <c r="A97" s="22"/>
-      <c r="B97" s="22"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="28"/>
       <c r="C97" s="6" t="s">
         <v>115</v>
       </c>
@@ -2771,10 +2772,10 @@
       <c r="J97" s="9"/>
     </row>
     <row r="98" spans="1:10" ht="15.6">
-      <c r="A98" s="24">
+      <c r="A98" s="23">
         <v>5</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="B98" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C98" s="4" t="s">
@@ -2789,8 +2790,8 @@
       <c r="J98" s="9"/>
     </row>
     <row r="99" spans="1:10" ht="15.6">
-      <c r="A99" s="25"/>
-      <c r="B99" s="23"/>
+      <c r="A99" s="24"/>
+      <c r="B99" s="25"/>
       <c r="C99" s="3" t="s">
         <v>118</v>
       </c>
@@ -2805,10 +2806,10 @@
       <c r="J99" s="9"/>
     </row>
     <row r="100" spans="1:10" ht="15.6">
-      <c r="A100" s="25"/>
-      <c r="B100" s="23"/>
+      <c r="A100" s="24"/>
+      <c r="B100" s="25"/>
       <c r="C100" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -2819,10 +2820,10 @@
       <c r="J100" s="9"/>
     </row>
     <row r="101" spans="1:10" ht="15.6">
-      <c r="A101" s="25"/>
-      <c r="B101" s="23"/>
+      <c r="A101" s="24"/>
+      <c r="B101" s="25"/>
       <c r="C101" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -2833,10 +2834,10 @@
       <c r="J101" s="9"/>
     </row>
     <row r="102" spans="1:10" ht="15.6">
-      <c r="A102" s="25"/>
-      <c r="B102" s="23"/>
+      <c r="A102" s="24"/>
+      <c r="B102" s="25"/>
       <c r="C102" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -2847,10 +2848,10 @@
       <c r="J102" s="9"/>
     </row>
     <row r="103" spans="1:10" ht="15.6">
-      <c r="A103" s="25"/>
-      <c r="B103" s="23"/>
+      <c r="A103" s="24"/>
+      <c r="B103" s="25"/>
       <c r="C103" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>8</v>
@@ -2865,10 +2866,10 @@
       </c>
     </row>
     <row r="104" spans="1:10" ht="15.6">
-      <c r="A104" s="25"/>
-      <c r="B104" s="23"/>
+      <c r="A104" s="24"/>
+      <c r="B104" s="25"/>
       <c r="C104" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>8</v>
@@ -2883,10 +2884,10 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="15.6">
-      <c r="A105" s="25"/>
-      <c r="B105" s="23"/>
+      <c r="A105" s="24"/>
+      <c r="B105" s="25"/>
       <c r="C105" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>8</v>
@@ -2901,10 +2902,10 @@
       </c>
     </row>
     <row r="106" spans="1:10" ht="15.6">
-      <c r="A106" s="25"/>
-      <c r="B106" s="23"/>
+      <c r="A106" s="24"/>
+      <c r="B106" s="25"/>
       <c r="C106" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>8</v>
@@ -2919,10 +2920,10 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="15.6">
-      <c r="A107" s="25"/>
-      <c r="B107" s="23"/>
+      <c r="A107" s="24"/>
+      <c r="B107" s="25"/>
       <c r="C107" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -2933,10 +2934,10 @@
       <c r="J107" s="9"/>
     </row>
     <row r="108" spans="1:10" ht="15.6">
-      <c r="A108" s="25"/>
-      <c r="B108" s="23"/>
+      <c r="A108" s="24"/>
+      <c r="B108" s="25"/>
       <c r="C108" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -2951,10 +2952,10 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="15.6">
-      <c r="A109" s="25"/>
-      <c r="B109" s="23"/>
+      <c r="A109" s="24"/>
+      <c r="B109" s="25"/>
       <c r="C109" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -2969,10 +2970,10 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="15.6">
-      <c r="A110" s="25"/>
-      <c r="B110" s="23"/>
+      <c r="A110" s="24"/>
+      <c r="B110" s="25"/>
       <c r="C110" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -2987,10 +2988,10 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="15.6">
-      <c r="A111" s="25"/>
-      <c r="B111" s="23"/>
+      <c r="A111" s="24"/>
+      <c r="B111" s="25"/>
       <c r="C111" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -3001,10 +3002,10 @@
       <c r="J111" s="9"/>
     </row>
     <row r="112" spans="1:10" ht="15.6">
-      <c r="A112" s="25"/>
-      <c r="B112" s="23"/>
+      <c r="A112" s="24"/>
+      <c r="B112" s="25"/>
       <c r="C112" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>8</v>
@@ -3019,10 +3020,10 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="15.6">
-      <c r="A113" s="25"/>
-      <c r="B113" s="23"/>
+      <c r="A113" s="24"/>
+      <c r="B113" s="25"/>
       <c r="C113" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>8</v>
@@ -3037,10 +3038,10 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="15.6">
-      <c r="A114" s="25"/>
-      <c r="B114" s="23"/>
+      <c r="A114" s="24"/>
+      <c r="B114" s="25"/>
       <c r="C114" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>8</v>
@@ -3055,10 +3056,10 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="15.6">
-      <c r="A115" s="25"/>
-      <c r="B115" s="23"/>
+      <c r="A115" s="24"/>
+      <c r="B115" s="25"/>
       <c r="C115" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -3069,17 +3070,17 @@
       <c r="J115" s="9"/>
     </row>
     <row r="116" spans="1:10" ht="15.6">
-      <c r="A116" s="25"/>
-      <c r="B116" s="23"/>
+      <c r="A116" s="24"/>
+      <c r="B116" s="25"/>
       <c r="C116" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H116" s="1"/>
       <c r="I116" s="9"/>
       <c r="J116" s="9">
@@ -3087,17 +3088,17 @@
       </c>
     </row>
     <row r="117" spans="1:10" ht="15.6">
-      <c r="A117" s="25"/>
-      <c r="B117" s="23"/>
+      <c r="A117" s="24"/>
+      <c r="B117" s="25"/>
       <c r="C117" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H117" s="1"/>
       <c r="I117" s="9"/>
       <c r="J117" s="9">
@@ -3105,10 +3106,10 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="15.6">
-      <c r="A118" s="25"/>
-      <c r="B118" s="23"/>
+      <c r="A118" s="24"/>
+      <c r="B118" s="25"/>
       <c r="C118" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -3119,10 +3120,10 @@
       <c r="J118" s="9"/>
     </row>
     <row r="119" spans="1:10" ht="15.6">
-      <c r="A119" s="25"/>
-      <c r="B119" s="23"/>
+      <c r="A119" s="24"/>
+      <c r="B119" s="25"/>
       <c r="C119" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -3137,10 +3138,10 @@
       </c>
     </row>
     <row r="120" spans="1:10" ht="15.6">
-      <c r="A120" s="25"/>
-      <c r="B120" s="23"/>
+      <c r="A120" s="24"/>
+      <c r="B120" s="25"/>
       <c r="C120" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -3155,10 +3156,10 @@
       </c>
     </row>
     <row r="121" spans="1:10" ht="15.6">
-      <c r="A121" s="25"/>
-      <c r="B121" s="23"/>
+      <c r="A121" s="24"/>
+      <c r="B121" s="25"/>
       <c r="C121" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -3169,17 +3170,17 @@
       <c r="J121" s="9"/>
     </row>
     <row r="122" spans="1:10" ht="15.6">
-      <c r="A122" s="25"/>
-      <c r="B122" s="23"/>
+      <c r="A122" s="24"/>
+      <c r="B122" s="25"/>
       <c r="C122" s="20" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H122" s="1"/>
       <c r="I122" s="9"/>
       <c r="J122" s="9">
@@ -3187,42 +3188,42 @@
       </c>
     </row>
     <row r="123" spans="1:10" ht="15.6">
-      <c r="A123" s="25"/>
-      <c r="B123" s="23"/>
-      <c r="C123" s="19" t="s">
-        <v>142</v>
+      <c r="A123" s="24"/>
+      <c r="B123" s="25"/>
+      <c r="C123" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
+      <c r="G123" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H123" s="1"/>
       <c r="I123" s="9"/>
-      <c r="J123" s="9"/>
+      <c r="J123" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:10" ht="15.6">
-      <c r="A124" s="25"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="20" t="s">
-        <v>143</v>
+      <c r="A124" s="24"/>
+      <c r="B124" s="25"/>
+      <c r="C124" s="19" t="s">
+        <v>141</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="9"/>
-      <c r="J124" s="9">
-        <v>3</v>
-      </c>
+      <c r="J124" s="9"/>
     </row>
     <row r="125" spans="1:10" ht="15.6">
-      <c r="A125" s="25"/>
-      <c r="B125" s="23"/>
+      <c r="A125" s="24"/>
+      <c r="B125" s="25"/>
       <c r="C125" s="20" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -3237,42 +3238,46 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="15.6">
-      <c r="A126" s="25"/>
-      <c r="B126" s="23"/>
-      <c r="C126" s="19" t="s">
-        <v>144</v>
+      <c r="A126" s="24"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="20" t="s">
+        <v>142</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
+      <c r="F126" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="9"/>
-      <c r="J126" s="9"/>
+      <c r="J126" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="127" spans="1:10" ht="15.6">
-      <c r="A127" s="25"/>
-      <c r="B127" s="23"/>
+      <c r="A127" s="24"/>
+      <c r="B127" s="25"/>
       <c r="C127" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
+      <c r="F127" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="9"/>
       <c r="J127" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="15.6">
-      <c r="A128" s="25"/>
-      <c r="B128" s="23"/>
-      <c r="C128" s="21" t="s">
-        <v>147</v>
+      <c r="A128" s="24"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -3283,118 +3288,114 @@
       <c r="J128" s="9"/>
     </row>
     <row r="129" spans="1:10" ht="15.6">
-      <c r="A129" s="25"/>
-      <c r="B129" s="23"/>
+      <c r="A129" s="24"/>
+      <c r="B129" s="25"/>
       <c r="C129" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D129" s="1"/>
-      <c r="E129" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E129" s="1"/>
       <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
+      <c r="G129" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H129" s="1"/>
       <c r="I129" s="9"/>
       <c r="J129" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="15.6">
-      <c r="A130" s="25"/>
-      <c r="B130" s="23"/>
-      <c r="C130" s="20" t="s">
-        <v>149</v>
+      <c r="A130" s="24"/>
+      <c r="B130" s="25"/>
+      <c r="C130" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="D130" s="1"/>
-      <c r="E130" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="9">
-        <v>1</v>
-      </c>
+      <c r="J130" s="9"/>
     </row>
     <row r="131" spans="1:10" ht="15.6">
-      <c r="A131" s="25"/>
-      <c r="B131" s="23"/>
+      <c r="A131" s="24"/>
+      <c r="B131" s="25"/>
       <c r="C131" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F131" s="1"/>
       <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
+      <c r="H131" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="15.6">
-      <c r="A132" s="25"/>
-      <c r="B132" s="23"/>
+      <c r="A132" s="24"/>
+      <c r="B132" s="25"/>
       <c r="C132" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F132" s="1"/>
       <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
+      <c r="H132" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="15.6">
-      <c r="A133" s="25"/>
-      <c r="B133" s="23"/>
+      <c r="A133" s="24"/>
+      <c r="B133" s="25"/>
       <c r="C133" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D133" s="1"/>
-      <c r="E133" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="9"/>
       <c r="J133" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="16.8" customHeight="1">
-      <c r="A134" s="25"/>
-      <c r="B134" s="23"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="15.6">
+      <c r="A134" s="24"/>
+      <c r="B134" s="25"/>
       <c r="C134" s="20" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="D134" s="1"/>
-      <c r="E134" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="9"/>
       <c r="J134" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="15.6">
-      <c r="A135" s="25"/>
-      <c r="B135" s="23"/>
+      <c r="A135" s="24"/>
+      <c r="B135" s="25"/>
       <c r="C135" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1" t="s">
@@ -3405,14 +3406,14 @@
       <c r="H135" s="1"/>
       <c r="I135" s="9"/>
       <c r="J135" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="15.6">
-      <c r="A136" s="25"/>
-      <c r="B136" s="23"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="16.8" customHeight="1">
+      <c r="A136" s="24"/>
+      <c r="B136" s="25"/>
       <c r="C136" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1" t="s">
@@ -3423,32 +3424,32 @@
       <c r="H136" s="1"/>
       <c r="I136" s="9"/>
       <c r="J136" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="15.6">
-      <c r="A137" s="25"/>
-      <c r="B137" s="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="16.8" customHeight="1">
+      <c r="A137" s="24"/>
+      <c r="B137" s="25"/>
       <c r="C137" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="9"/>
       <c r="J137" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="15.6">
-      <c r="A138" s="25"/>
-      <c r="B138" s="23"/>
+      <c r="A138" s="24"/>
+      <c r="B138" s="25"/>
       <c r="C138" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1" t="s">
@@ -3463,16 +3464,16 @@
       </c>
     </row>
     <row r="139" spans="1:10" ht="15.6">
-      <c r="A139" s="25"/>
-      <c r="B139" s="23"/>
+      <c r="A139" s="24"/>
+      <c r="B139" s="25"/>
       <c r="C139" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="9"/>
@@ -3481,16 +3482,16 @@
       </c>
     </row>
     <row r="140" spans="1:10" ht="15.6">
-      <c r="A140" s="25"/>
-      <c r="B140" s="23"/>
+      <c r="A140" s="24"/>
+      <c r="B140" s="25"/>
       <c r="C140" s="20" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="9"/>
@@ -3499,28 +3500,28 @@
       </c>
     </row>
     <row r="141" spans="1:10" ht="15.6">
-      <c r="A141" s="25"/>
-      <c r="B141" s="23"/>
+      <c r="A141" s="24"/>
+      <c r="B141" s="25"/>
       <c r="C141" s="20" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D141" s="1"/>
-      <c r="E141" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
+      <c r="H141" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="15.6">
-      <c r="A142" s="25"/>
-      <c r="B142" s="23"/>
+      <c r="A142" s="24"/>
+      <c r="B142" s="25"/>
       <c r="C142" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
@@ -3531,73 +3532,73 @@
       <c r="H142" s="1"/>
       <c r="I142" s="9"/>
       <c r="J142" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="15.6">
-      <c r="A143" s="25"/>
-      <c r="B143" s="23"/>
+      <c r="A143" s="24"/>
+      <c r="B143" s="25"/>
       <c r="C143" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E143" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="9"/>
       <c r="J143" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="15.6">
-      <c r="A144" s="25"/>
-      <c r="B144" s="23"/>
+      <c r="A144" s="24"/>
+      <c r="B144" s="25"/>
       <c r="C144" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
+      <c r="H144" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="15.6">
-      <c r="A145" s="25"/>
-      <c r="B145" s="23"/>
+      <c r="A145" s="24"/>
+      <c r="B145" s="25"/>
       <c r="C145" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
+      <c r="H145" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="15.6">
-      <c r="A146" s="25"/>
-      <c r="B146" s="23"/>
+      <c r="A146" s="24"/>
+      <c r="B146" s="25"/>
       <c r="C146" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E146" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
@@ -3607,15 +3608,15 @@
       </c>
     </row>
     <row r="147" spans="1:10" ht="15.6">
-      <c r="A147" s="25"/>
-      <c r="B147" s="23"/>
+      <c r="A147" s="24"/>
+      <c r="B147" s="25"/>
       <c r="C147" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E147" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
@@ -3625,10 +3626,10 @@
       </c>
     </row>
     <row r="148" spans="1:10" ht="15.6">
-      <c r="A148" s="25"/>
-      <c r="B148" s="23"/>
+      <c r="A148" s="24"/>
+      <c r="B148" s="25"/>
       <c r="C148" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>8</v>
@@ -3639,128 +3640,138 @@
       <c r="H148" s="1"/>
       <c r="I148" s="9"/>
       <c r="J148" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="15.6">
-      <c r="A149" s="25"/>
-      <c r="B149" s="23"/>
+      <c r="A149" s="24"/>
+      <c r="B149" s="25"/>
       <c r="C149" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="9"/>
       <c r="J149" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="15.6">
-      <c r="A150" s="25"/>
-      <c r="B150" s="23"/>
+      <c r="A150" s="24"/>
+      <c r="B150" s="25"/>
       <c r="C150" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="D150" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E150" s="1"/>
-      <c r="F150" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="9"/>
       <c r="J150" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="15.6">
-      <c r="A151" s="25"/>
-      <c r="B151" s="23"/>
+      <c r="A151" s="24"/>
+      <c r="B151" s="25"/>
       <c r="C151" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="D151" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="9"/>
       <c r="J151" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="15.6">
-      <c r="A152" s="25"/>
-      <c r="B152" s="23"/>
-      <c r="C152" s="3" t="s">
-        <v>35</v>
+      <c r="A152" s="24"/>
+      <c r="B152" s="25"/>
+      <c r="C152" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="D152" s="1"/>
-      <c r="E152" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
+      <c r="H152" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I152" s="9"/>
-      <c r="J152" s="9"/>
+      <c r="J152" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:10" ht="15.6">
-      <c r="A153" s="25"/>
-      <c r="B153" s="23"/>
-      <c r="C153" s="7" t="s">
-        <v>23</v>
+      <c r="A153" s="24"/>
+      <c r="B153" s="25"/>
+      <c r="C153" s="20" t="s">
+        <v>165</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
+      <c r="H153" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I153" s="9"/>
-      <c r="J153" s="9"/>
+      <c r="J153" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="154" spans="1:10" ht="15.6">
-      <c r="A154" s="25"/>
-      <c r="B154" s="23"/>
-      <c r="C154" s="6" t="s">
-        <v>116</v>
+      <c r="A154" s="24"/>
+      <c r="B154" s="25"/>
+      <c r="C154" s="20" t="s">
+        <v>167</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
-      <c r="G154" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I154" s="9"/>
-      <c r="J154" s="9"/>
+      <c r="J154" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="155" spans="1:10" ht="15.6">
-      <c r="A155" s="25"/>
-      <c r="B155" s="23"/>
-      <c r="C155" s="6" t="s">
-        <v>117</v>
+      <c r="A155" s="24"/>
+      <c r="B155" s="25"/>
+      <c r="C155" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
+      <c r="E155" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
-      <c r="H155" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H155" s="1"/>
       <c r="I155" s="9"/>
       <c r="J155" s="9"/>
     </row>
     <row r="156" spans="1:10" ht="15.6">
-      <c r="A156" s="25"/>
-      <c r="B156" s="23"/>
+      <c r="A156" s="24"/>
+      <c r="B156" s="25"/>
       <c r="C156" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -3771,8 +3782,8 @@
       <c r="J156" s="9"/>
     </row>
     <row r="157" spans="1:10" ht="15.6">
-      <c r="A157" s="25"/>
-      <c r="B157" s="23"/>
+      <c r="A157" s="24"/>
+      <c r="B157" s="25"/>
       <c r="C157" s="6" t="s">
         <v>116</v>
       </c>
@@ -3787,8 +3798,8 @@
       <c r="J157" s="9"/>
     </row>
     <row r="158" spans="1:10" ht="15.6">
-      <c r="A158" s="25"/>
-      <c r="B158" s="23"/>
+      <c r="A158" s="24"/>
+      <c r="B158" s="25"/>
       <c r="C158" s="6" t="s">
         <v>117</v>
       </c>
@@ -3803,30 +3814,24 @@
       <c r="J158" s="9"/>
     </row>
     <row r="159" spans="1:10" ht="15.6">
-      <c r="A159" s="25"/>
-      <c r="B159" s="23"/>
+      <c r="A159" s="24"/>
+      <c r="B159" s="25"/>
       <c r="C159" s="7" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="9"/>
       <c r="J159" s="9"/>
     </row>
-    <row r="160" spans="1:10" ht="15.6" customHeight="1">
-      <c r="A160" s="24">
-        <v>6</v>
-      </c>
-      <c r="B160" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>26</v>
+    <row r="160" spans="1:10" ht="15.6">
+      <c r="A160" s="24"/>
+      <c r="B160" s="25"/>
+      <c r="C160" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -3839,26 +3844,30 @@
       <c r="J160" s="9"/>
     </row>
     <row r="161" spans="1:10" ht="15.6">
-      <c r="A161" s="25"/>
-      <c r="B161" s="23"/>
-      <c r="C161" s="7" t="s">
-        <v>120</v>
+      <c r="A161" s="24"/>
+      <c r="B161" s="25"/>
+      <c r="C161" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
-      <c r="G161" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I161" s="9"/>
       <c r="J161" s="9"/>
     </row>
-    <row r="162" spans="1:10" ht="15.6">
-      <c r="A162" s="25"/>
-      <c r="B162" s="23"/>
+    <row r="162" spans="1:10" ht="15.6" customHeight="1">
+      <c r="A162" s="23">
+        <v>6</v>
+      </c>
+      <c r="B162" s="25" t="s">
+        <v>7</v>
+      </c>
       <c r="C162" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -3870,108 +3879,106 @@
       <c r="I162" s="9"/>
       <c r="J162" s="9"/>
     </row>
-    <row r="163" spans="1:10">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="D163" s="2">
-        <f>COUNTA(D2:D162)</f>
-        <v>33</v>
-      </c>
-      <c r="E163" s="2">
-        <f t="shared" ref="E163:H163" si="0">COUNTA(E2:E162)</f>
+    <row r="163" spans="1:10" ht="15.6">
+      <c r="A163" s="24"/>
+      <c r="B163" s="25"/>
+      <c r="C163" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H163" s="1"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="9"/>
+    </row>
+    <row r="164" spans="1:10" ht="15.6">
+      <c r="A164" s="24"/>
+      <c r="B164" s="25"/>
+      <c r="C164" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H164" s="1"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="9"/>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D165" s="2">
+        <f>COUNTA(D2:D164)</f>
+        <v>31</v>
+      </c>
+      <c r="E165" s="2">
+        <f>COUNTA(E2:E164)</f>
+        <v>26</v>
+      </c>
+      <c r="F165" s="2">
+        <f>COUNTA(F2:F164)</f>
+        <v>25</v>
+      </c>
+      <c r="G165" s="2">
+        <f>COUNTA(G2:G164)</f>
+        <v>24</v>
+      </c>
+      <c r="H165" s="2">
+        <f>COUNTA(H2:H164)</f>
         <v>28</v>
       </c>
-      <c r="F163" s="2">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="G163" s="2">
-        <f t="shared" si="0"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B166" s="2"/>
+      <c r="C166" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D166" s="2">
+        <f>SUMIF(D2:D164,"=O",$J$2:$J$164)</f>
+        <v>29</v>
+      </c>
+      <c r="E166" s="2">
+        <f>SUMIF(E2:E164,"=O",$J$2:$J$164)</f>
         <v>19</v>
       </c>
-      <c r="H163" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="I163" s="2"/>
-      <c r="J163" s="2"/>
-    </row>
-    <row r="164" spans="1:10">
-      <c r="A164" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B164" s="2"/>
-      <c r="C164" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="D164" s="2">
-        <f>SUMIF(D2:D162,"=O",$J$2:$J$162)</f>
-        <v>31</v>
-      </c>
-      <c r="E164" s="2">
-        <f t="shared" ref="E164:H164" si="1">SUMIF(E2:E162,"=O",$J$2:$J$162)</f>
-        <v>20</v>
-      </c>
-      <c r="F164" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="G164" s="2">
-        <f t="shared" si="1"/>
+      <c r="F166" s="2">
+        <f>SUMIF(F2:F164,"=O",$J$2:$J$164)</f>
+        <v>21</v>
+      </c>
+      <c r="G166" s="2">
+        <f>SUMIF(G2:G164,"=O",$J$2:$J$164)</f>
+        <v>10</v>
+      </c>
+      <c r="H166" s="2">
+        <f>SUMIF(H2:H164,"=O",$J$2:$J$164)</f>
+        <v>10</v>
+      </c>
+      <c r="J166" s="2"/>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H164" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J164" s="2"/>
-    </row>
-    <row r="165" spans="1:10">
-      <c r="A165" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B165" s="15" t="s">
+      <c r="B167" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C167" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
-      <c r="J165" s="2"/>
-    </row>
-    <row r="166" spans="1:10" ht="55.2">
-      <c r="A166" s="15">
-        <v>1</v>
-      </c>
-      <c r="B166" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C166" s="3">
-        <v>1</v>
-      </c>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
-      <c r="J166" s="2"/>
-    </row>
-    <row r="167" spans="1:10" ht="27.6">
-      <c r="A167" s="17">
-        <v>2</v>
-      </c>
-      <c r="B167" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C167" s="17">
-        <v>2</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -3980,15 +3987,15 @@
       <c r="H167" s="2"/>
       <c r="J167" s="2"/>
     </row>
-    <row r="168" spans="1:10" ht="27.6">
-      <c r="A168" s="17">
-        <v>3</v>
+    <row r="168" spans="1:10" ht="55.2">
+      <c r="A168" s="15">
+        <v>1</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C168" s="17">
-        <v>3</v>
+        <v>43</v>
+      </c>
+      <c r="C168" s="3">
+        <v>1</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -3999,13 +4006,13 @@
     </row>
     <row r="169" spans="1:10" ht="27.6">
       <c r="A169" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C169" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -4016,13 +4023,13 @@
     </row>
     <row r="170" spans="1:10" ht="27.6">
       <c r="A170" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C170" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -4031,7 +4038,16 @@
       <c r="H170" s="2"/>
       <c r="J170" s="2"/>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" ht="27.6">
+      <c r="A171" s="17">
+        <v>4</v>
+      </c>
+      <c r="B171" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C171" s="17">
+        <v>4</v>
+      </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -4039,7 +4055,16 @@
       <c r="H171" s="2"/>
       <c r="J171" s="2"/>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" ht="27.6">
+      <c r="A172" s="17">
+        <v>5</v>
+      </c>
+      <c r="B172" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C172" s="17">
+        <v>5</v>
+      </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
@@ -4151,23 +4176,39 @@
       <c r="H185" s="2"/>
       <c r="J185" s="2"/>
     </row>
+    <row r="186" spans="4:10">
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="J186" s="2"/>
+    </row>
+    <row r="187" spans="4:10">
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="J187" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A160:A162"/>
-    <mergeCell ref="B160:B162"/>
-    <mergeCell ref="B98:B159"/>
-    <mergeCell ref="A98:A159"/>
-    <mergeCell ref="B46:B97"/>
-    <mergeCell ref="A46:A97"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B45"/>
     <mergeCell ref="A11:A45"/>
     <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="B98:B161"/>
+    <mergeCell ref="A98:A161"/>
+    <mergeCell ref="B46:B97"/>
+    <mergeCell ref="A46:A97"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:H162 D165:H183">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D167:H185 D2:H164">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>

--- a/Document/Reports/TasksheetFinal.xlsx
+++ b/Document/Reports/TasksheetFinal.xlsx
@@ -878,22 +878,22 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1203,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H157" sqref="H157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1250,10 +1250,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6">
-      <c r="A2" s="28">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -1270,8 +1270,8 @@
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="15.6">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
@@ -1286,8 +1286,8 @@
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="15.6">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
@@ -1302,8 +1302,8 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="15.6">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1318,8 +1318,8 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="15.6">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="3" t="s">
         <v>51</v>
       </c>
@@ -1334,10 +1334,10 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="15.6">
-      <c r="A7" s="25">
+      <c r="A7" s="24">
         <v>2</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1354,8 +1354,8 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="15.6">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1370,8 +1370,8 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="15.6">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1386,8 +1386,8 @@
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="15.6">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1402,10 +1402,10 @@
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="15.6">
-      <c r="A11" s="25">
+      <c r="A11" s="24">
         <v>3</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1422,8 +1422,8 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="15.6">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1436,8 +1436,8 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="15.6">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="18" t="s">
         <v>15</v>
       </c>
@@ -1452,8 +1452,8 @@
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" ht="15.6">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="19" t="s">
         <v>16</v>
       </c>
@@ -1466,8 +1466,8 @@
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" ht="15.6">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="19" t="s">
         <v>53</v>
       </c>
@@ -1480,8 +1480,8 @@
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" ht="15.6">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="20" t="s">
         <v>54</v>
       </c>
@@ -1496,15 +1496,15 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="15.6">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1512,8 +1512,8 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" ht="15.6">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="20" t="s">
         <v>56</v>
       </c>
@@ -1528,8 +1528,8 @@
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" ht="15.6">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="20" t="s">
         <v>57</v>
       </c>
@@ -1544,8 +1544,8 @@
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" ht="15.6">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="20" t="s">
         <v>58</v>
       </c>
@@ -1560,40 +1560,40 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" ht="15.6">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" ht="15.6">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" ht="15.6">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="20" t="s">
         <v>61</v>
       </c>
@@ -1608,8 +1608,8 @@
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" ht="15.6">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="19" t="s">
         <v>62</v>
       </c>
@@ -1622,8 +1622,8 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" ht="15.6">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="20" t="s">
         <v>63</v>
       </c>
@@ -1638,8 +1638,8 @@
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" ht="15.6">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="20" t="s">
         <v>64</v>
       </c>
@@ -1654,8 +1654,8 @@
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" ht="15.6">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="20" t="s">
         <v>65</v>
       </c>
@@ -1670,8 +1670,8 @@
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" ht="15.6">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="20" t="s">
         <v>66</v>
       </c>
@@ -1686,8 +1686,8 @@
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" ht="15.6">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="20" t="s">
         <v>67</v>
       </c>
@@ -1702,8 +1702,8 @@
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" ht="15.6">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="20" t="s">
         <v>68</v>
       </c>
@@ -1718,8 +1718,8 @@
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" ht="15.6">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="20" t="s">
         <v>69</v>
       </c>
@@ -1734,8 +1734,8 @@
       <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" ht="15.6">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="20" t="s">
         <v>70</v>
       </c>
@@ -1750,8 +1750,8 @@
       <c r="J32" s="9"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="20" t="s">
         <v>71</v>
       </c>
@@ -1766,8 +1766,8 @@
       <c r="J33" s="9"/>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="20" t="s">
         <v>52</v>
       </c>
@@ -1782,8 +1782,8 @@
       <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="20" t="s">
         <v>72</v>
       </c>
@@ -1798,8 +1798,8 @@
       <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10" ht="15.6">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="20" t="s">
         <v>73</v>
       </c>
@@ -1814,8 +1814,8 @@
       <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:10" ht="15.6">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="20" t="s">
         <v>120</v>
       </c>
@@ -1830,8 +1830,8 @@
       <c r="J37" s="9"/>
     </row>
     <row r="38" spans="1:10" ht="15.6">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="20" t="s">
         <v>58</v>
       </c>
@@ -1846,8 +1846,8 @@
       <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" ht="15.6">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="20" t="s">
         <v>74</v>
       </c>
@@ -1862,8 +1862,8 @@
       <c r="J39" s="9"/>
     </row>
     <row r="40" spans="1:10" ht="15.6">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="19" t="s">
         <v>17</v>
       </c>
@@ -1876,8 +1876,8 @@
       <c r="J40" s="9"/>
     </row>
     <row r="41" spans="1:10" ht="15.6">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="20" t="s">
         <v>18</v>
       </c>
@@ -1892,8 +1892,8 @@
       <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10" ht="15.6">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="20" t="s">
         <v>19</v>
       </c>
@@ -1908,8 +1908,8 @@
       <c r="J42" s="9"/>
     </row>
     <row r="43" spans="1:10" ht="15.6">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="20" t="s">
         <v>75</v>
       </c>
@@ -1924,8 +1924,8 @@
       <c r="J43" s="9"/>
     </row>
     <row r="44" spans="1:10" ht="15.6">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="20" t="s">
         <v>76</v>
       </c>
@@ -1940,8 +1940,8 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="1:10" ht="15.6">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="3" t="s">
         <v>20</v>
       </c>
@@ -1956,10 +1956,10 @@
       <c r="J45" s="9"/>
     </row>
     <row r="46" spans="1:10" ht="15.6">
-      <c r="A46" s="26">
+      <c r="A46" s="27">
         <v>4</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -1976,8 +1976,8 @@
       <c r="J46" s="9"/>
     </row>
     <row r="47" spans="1:10" ht="15.6">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
       <c r="C47" s="3" t="s">
         <v>32</v>
       </c>
@@ -1990,8 +1990,8 @@
       <c r="J47" s="9"/>
     </row>
     <row r="48" spans="1:10" ht="15.6">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
       <c r="C48" s="5" t="s">
         <v>33</v>
       </c>
@@ -2004,8 +2004,8 @@
       <c r="J48" s="9"/>
     </row>
     <row r="49" spans="1:10" ht="15.6">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
       <c r="C49" s="6" t="s">
         <v>77</v>
       </c>
@@ -2020,8 +2020,8 @@
       <c r="J49" s="9"/>
     </row>
     <row r="50" spans="1:10" ht="15.6">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="6" t="s">
         <v>78</v>
       </c>
@@ -2034,8 +2034,8 @@
       <c r="J50" s="9"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
       <c r="C51" s="6" t="s">
         <v>79</v>
       </c>
@@ -2050,8 +2050,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="1:10" ht="15.6">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="6" t="s">
         <v>81</v>
       </c>
@@ -2066,8 +2066,8 @@
       <c r="J52" s="9"/>
     </row>
     <row r="53" spans="1:10" ht="15.6">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
       <c r="C53" s="6" t="s">
         <v>80</v>
       </c>
@@ -2082,8 +2082,8 @@
       <c r="J53" s="9"/>
     </row>
     <row r="54" spans="1:10" ht="15.6">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="6" t="s">
         <v>84</v>
       </c>
@@ -2098,8 +2098,8 @@
       <c r="J54" s="9"/>
     </row>
     <row r="55" spans="1:10" ht="15.6">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="6" t="s">
         <v>82</v>
       </c>
@@ -2114,8 +2114,8 @@
       <c r="J55" s="9"/>
     </row>
     <row r="56" spans="1:10" ht="15.6">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
       <c r="C56" s="6" t="s">
         <v>121</v>
       </c>
@@ -2130,8 +2130,8 @@
       <c r="J56" s="9"/>
     </row>
     <row r="57" spans="1:10" ht="15.6">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
       <c r="C57" s="6" t="s">
         <v>83</v>
       </c>
@@ -2146,8 +2146,8 @@
       <c r="J57" s="9"/>
     </row>
     <row r="58" spans="1:10" ht="15.6">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
       <c r="C58" s="6" t="s">
         <v>85</v>
       </c>
@@ -2162,8 +2162,8 @@
       <c r="J58" s="9"/>
     </row>
     <row r="59" spans="1:10" ht="15.6">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
       <c r="C59" s="6" t="s">
         <v>86</v>
       </c>
@@ -2178,8 +2178,8 @@
       <c r="J59" s="9"/>
     </row>
     <row r="60" spans="1:10" ht="15.6">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
       <c r="C60" s="4" t="s">
         <v>87</v>
       </c>
@@ -2192,8 +2192,8 @@
       <c r="J60" s="9"/>
     </row>
     <row r="61" spans="1:10" ht="15.6">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
       <c r="C61" s="21" t="s">
         <v>101</v>
       </c>
@@ -2206,8 +2206,8 @@
       <c r="J61" s="9"/>
     </row>
     <row r="62" spans="1:10" ht="15.6">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="6" t="s">
         <v>93</v>
       </c>
@@ -2222,8 +2222,8 @@
       <c r="J62" s="9"/>
     </row>
     <row r="63" spans="1:10" ht="15.6">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="6" t="s">
         <v>103</v>
       </c>
@@ -2238,8 +2238,8 @@
       <c r="J63" s="9"/>
     </row>
     <row r="64" spans="1:10" ht="15.6">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
       <c r="C64" s="6" t="s">
         <v>94</v>
       </c>
@@ -2254,8 +2254,8 @@
       <c r="J64" s="9"/>
     </row>
     <row r="65" spans="1:10" ht="15.6">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
       <c r="C65" s="6" t="s">
         <v>91</v>
       </c>
@@ -2270,8 +2270,8 @@
       <c r="J65" s="9"/>
     </row>
     <row r="66" spans="1:10" ht="15.6">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
       <c r="C66" s="6" t="s">
         <v>96</v>
       </c>
@@ -2286,8 +2286,8 @@
       <c r="J66" s="9"/>
     </row>
     <row r="67" spans="1:10" ht="15.6">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
       <c r="C67" s="6" t="s">
         <v>97</v>
       </c>
@@ -2302,24 +2302,24 @@
       <c r="J67" s="9"/>
     </row>
     <row r="68" spans="1:10" ht="15.6">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="28"/>
       <c r="C68" s="6" t="s">
         <v>98</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="1"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
     </row>
     <row r="69" spans="1:10" ht="15.6">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
       <c r="C69" s="6" t="s">
         <v>99</v>
       </c>
@@ -2334,8 +2334,8 @@
       <c r="J69" s="9"/>
     </row>
     <row r="70" spans="1:10" ht="15.6">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
       <c r="C70" s="6" t="s">
         <v>104</v>
       </c>
@@ -2350,24 +2350,24 @@
       <c r="J70" s="9"/>
     </row>
     <row r="71" spans="1:10" ht="15.6">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
       <c r="C71" s="6" t="s">
         <v>102</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="1"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
     </row>
     <row r="72" spans="1:10" ht="15.6">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
       <c r="C72" s="5" t="s">
         <v>62</v>
       </c>
@@ -2380,8 +2380,8 @@
       <c r="J72" s="9"/>
     </row>
     <row r="73" spans="1:10" ht="15.6">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
       <c r="C73" s="6" t="s">
         <v>88</v>
       </c>
@@ -2396,8 +2396,8 @@
       <c r="J73" s="9"/>
     </row>
     <row r="74" spans="1:10" ht="15.6">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
       <c r="C74" s="6" t="s">
         <v>89</v>
       </c>
@@ -2412,8 +2412,8 @@
       <c r="J74" s="9"/>
     </row>
     <row r="75" spans="1:10" ht="15.6">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
       <c r="C75" s="6" t="s">
         <v>90</v>
       </c>
@@ -2428,8 +2428,8 @@
       <c r="J75" s="9"/>
     </row>
     <row r="76" spans="1:10" ht="15.6">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
       <c r="C76" s="6" t="s">
         <v>92</v>
       </c>
@@ -2444,8 +2444,8 @@
       <c r="J76" s="9"/>
     </row>
     <row r="77" spans="1:10" ht="15.6">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
       <c r="C77" s="6" t="s">
         <v>93</v>
       </c>
@@ -2460,8 +2460,8 @@
       <c r="J77" s="9"/>
     </row>
     <row r="78" spans="1:10" ht="15.6">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
       <c r="C78" s="6" t="s">
         <v>94</v>
       </c>
@@ -2474,8 +2474,8 @@
       <c r="J78" s="9"/>
     </row>
     <row r="79" spans="1:10" ht="15.6">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
       <c r="C79" s="6" t="s">
         <v>95</v>
       </c>
@@ -2490,8 +2490,8 @@
       <c r="J79" s="9"/>
     </row>
     <row r="80" spans="1:10" ht="15.6">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
       <c r="C80" s="6" t="s">
         <v>91</v>
       </c>
@@ -2506,40 +2506,40 @@
       <c r="J80" s="9"/>
     </row>
     <row r="81" spans="1:10" ht="15.6">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
       <c r="C81" s="6" t="s">
         <v>96</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="1"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
     </row>
     <row r="82" spans="1:10" ht="15.6">
-      <c r="A82" s="27"/>
-      <c r="B82" s="27"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
       <c r="C82" s="6" t="s">
         <v>97</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="1"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
     </row>
     <row r="83" spans="1:10" ht="15.6">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
       <c r="C83" s="6" t="s">
         <v>98</v>
       </c>
@@ -2554,8 +2554,8 @@
       <c r="J83" s="9"/>
     </row>
     <row r="84" spans="1:10" ht="15.6">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
+      <c r="A84" s="28"/>
+      <c r="B84" s="28"/>
       <c r="C84" s="6" t="s">
         <v>99</v>
       </c>
@@ -2570,8 +2570,8 @@
       <c r="J84" s="9"/>
     </row>
     <row r="85" spans="1:10" ht="15.6">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
+      <c r="A85" s="28"/>
+      <c r="B85" s="28"/>
       <c r="C85" s="6" t="s">
         <v>100</v>
       </c>
@@ -2586,8 +2586,8 @@
       <c r="J85" s="9"/>
     </row>
     <row r="86" spans="1:10" ht="15.6">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
+      <c r="A86" s="28"/>
+      <c r="B86" s="28"/>
       <c r="C86" s="7" t="s">
         <v>22</v>
       </c>
@@ -2600,8 +2600,8 @@
       <c r="J86" s="9"/>
     </row>
     <row r="87" spans="1:10" ht="15.6">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
+      <c r="A87" s="28"/>
+      <c r="B87" s="28"/>
       <c r="C87" s="6" t="s">
         <v>106</v>
       </c>
@@ -2616,8 +2616,8 @@
       <c r="J87" s="9"/>
     </row>
     <row r="88" spans="1:10" ht="15.6">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
+      <c r="A88" s="28"/>
+      <c r="B88" s="28"/>
       <c r="C88" s="6" t="s">
         <v>105</v>
       </c>
@@ -2632,8 +2632,8 @@
       <c r="J88" s="9"/>
     </row>
     <row r="89" spans="1:10" ht="15.6">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
+      <c r="A89" s="28"/>
+      <c r="B89" s="28"/>
       <c r="C89" s="6" t="s">
         <v>107</v>
       </c>
@@ -2648,24 +2648,24 @@
       <c r="J89" s="9"/>
     </row>
     <row r="90" spans="1:10" ht="15.6">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="28"/>
       <c r="C90" s="6" t="s">
         <v>108</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="1"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
     </row>
     <row r="91" spans="1:10" ht="15.6">
-      <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="28"/>
       <c r="C91" s="6" t="s">
         <v>109</v>
       </c>
@@ -2680,8 +2680,8 @@
       <c r="J91" s="9"/>
     </row>
     <row r="92" spans="1:10" ht="15.6">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="28"/>
       <c r="C92" s="7" t="s">
         <v>111</v>
       </c>
@@ -2694,8 +2694,8 @@
       <c r="J92" s="9"/>
     </row>
     <row r="93" spans="1:10" ht="15.6">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="28"/>
       <c r="C93" s="6" t="s">
         <v>112</v>
       </c>
@@ -2710,8 +2710,8 @@
       <c r="J93" s="9"/>
     </row>
     <row r="94" spans="1:10" ht="15.6">
-      <c r="A94" s="27"/>
-      <c r="B94" s="27"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="28"/>
       <c r="C94" s="6" t="s">
         <v>113</v>
       </c>
@@ -2726,8 +2726,8 @@
       <c r="J94" s="9"/>
     </row>
     <row r="95" spans="1:10" ht="15.6">
-      <c r="A95" s="27"/>
-      <c r="B95" s="27"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="28"/>
       <c r="C95" s="7" t="s">
         <v>110</v>
       </c>
@@ -2740,8 +2740,8 @@
       <c r="J95" s="9"/>
     </row>
     <row r="96" spans="1:10" ht="15.6">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="28"/>
       <c r="C96" s="6" t="s">
         <v>114</v>
       </c>
@@ -2756,26 +2756,26 @@
       <c r="J96" s="9"/>
     </row>
     <row r="97" spans="1:10" ht="15.6">
-      <c r="A97" s="28"/>
-      <c r="B97" s="28"/>
+      <c r="A97" s="23"/>
+      <c r="B97" s="23"/>
       <c r="C97" s="6" t="s">
         <v>115</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H97" s="1"/>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
     </row>
     <row r="98" spans="1:10" ht="15.6">
-      <c r="A98" s="23">
+      <c r="A98" s="25">
         <v>5</v>
       </c>
-      <c r="B98" s="25" t="s">
+      <c r="B98" s="24" t="s">
         <v>34</v>
       </c>
       <c r="C98" s="4" t="s">
@@ -2790,8 +2790,8 @@
       <c r="J98" s="9"/>
     </row>
     <row r="99" spans="1:10" ht="15.6">
-      <c r="A99" s="24"/>
-      <c r="B99" s="25"/>
+      <c r="A99" s="26"/>
+      <c r="B99" s="24"/>
       <c r="C99" s="3" t="s">
         <v>118</v>
       </c>
@@ -2806,8 +2806,8 @@
       <c r="J99" s="9"/>
     </row>
     <row r="100" spans="1:10" ht="15.6">
-      <c r="A100" s="24"/>
-      <c r="B100" s="25"/>
+      <c r="A100" s="26"/>
+      <c r="B100" s="24"/>
       <c r="C100" s="3" t="s">
         <v>122</v>
       </c>
@@ -2820,8 +2820,8 @@
       <c r="J100" s="9"/>
     </row>
     <row r="101" spans="1:10" ht="15.6">
-      <c r="A101" s="24"/>
-      <c r="B101" s="25"/>
+      <c r="A101" s="26"/>
+      <c r="B101" s="24"/>
       <c r="C101" s="21" t="s">
         <v>145</v>
       </c>
@@ -2834,8 +2834,8 @@
       <c r="J101" s="9"/>
     </row>
     <row r="102" spans="1:10" ht="15.6">
-      <c r="A102" s="24"/>
-      <c r="B102" s="25"/>
+      <c r="A102" s="26"/>
+      <c r="B102" s="24"/>
       <c r="C102" s="19" t="s">
         <v>125</v>
       </c>
@@ -2848,8 +2848,8 @@
       <c r="J102" s="9"/>
     </row>
     <row r="103" spans="1:10" ht="15.6">
-      <c r="A103" s="24"/>
-      <c r="B103" s="25"/>
+      <c r="A103" s="26"/>
+      <c r="B103" s="24"/>
       <c r="C103" s="20" t="s">
         <v>127</v>
       </c>
@@ -2866,8 +2866,8 @@
       </c>
     </row>
     <row r="104" spans="1:10" ht="15.6">
-      <c r="A104" s="24"/>
-      <c r="B104" s="25"/>
+      <c r="A104" s="26"/>
+      <c r="B104" s="24"/>
       <c r="C104" s="20" t="s">
         <v>123</v>
       </c>
@@ -2884,8 +2884,8 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="15.6">
-      <c r="A105" s="24"/>
-      <c r="B105" s="25"/>
+      <c r="A105" s="26"/>
+      <c r="B105" s="24"/>
       <c r="C105" s="20" t="s">
         <v>124</v>
       </c>
@@ -2902,8 +2902,8 @@
       </c>
     </row>
     <row r="106" spans="1:10" ht="15.6">
-      <c r="A106" s="24"/>
-      <c r="B106" s="25"/>
+      <c r="A106" s="26"/>
+      <c r="B106" s="24"/>
       <c r="C106" s="20" t="s">
         <v>128</v>
       </c>
@@ -2920,8 +2920,8 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="15.6">
-      <c r="A107" s="24"/>
-      <c r="B107" s="25"/>
+      <c r="A107" s="26"/>
+      <c r="B107" s="24"/>
       <c r="C107" s="19" t="s">
         <v>126</v>
       </c>
@@ -2934,8 +2934,8 @@
       <c r="J107" s="9"/>
     </row>
     <row r="108" spans="1:10" ht="15.6">
-      <c r="A108" s="24"/>
-      <c r="B108" s="25"/>
+      <c r="A108" s="26"/>
+      <c r="B108" s="24"/>
       <c r="C108" s="20" t="s">
         <v>169</v>
       </c>
@@ -2952,8 +2952,8 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="15.6">
-      <c r="A109" s="24"/>
-      <c r="B109" s="25"/>
+      <c r="A109" s="26"/>
+      <c r="B109" s="24"/>
       <c r="C109" s="20" t="s">
         <v>168</v>
       </c>
@@ -2970,8 +2970,8 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="15.6">
-      <c r="A110" s="24"/>
-      <c r="B110" s="25"/>
+      <c r="A110" s="26"/>
+      <c r="B110" s="24"/>
       <c r="C110" s="20" t="s">
         <v>129</v>
       </c>
@@ -2988,8 +2988,8 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="15.6">
-      <c r="A111" s="24"/>
-      <c r="B111" s="25"/>
+      <c r="A111" s="26"/>
+      <c r="B111" s="24"/>
       <c r="C111" s="19" t="s">
         <v>130</v>
       </c>
@@ -3002,8 +3002,8 @@
       <c r="J111" s="9"/>
     </row>
     <row r="112" spans="1:10" ht="15.6">
-      <c r="A112" s="24"/>
-      <c r="B112" s="25"/>
+      <c r="A112" s="26"/>
+      <c r="B112" s="24"/>
       <c r="C112" s="20" t="s">
         <v>131</v>
       </c>
@@ -3020,8 +3020,8 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="15.6">
-      <c r="A113" s="24"/>
-      <c r="B113" s="25"/>
+      <c r="A113" s="26"/>
+      <c r="B113" s="24"/>
       <c r="C113" s="20" t="s">
         <v>170</v>
       </c>
@@ -3038,8 +3038,8 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="15.6">
-      <c r="A114" s="24"/>
-      <c r="B114" s="25"/>
+      <c r="A114" s="26"/>
+      <c r="B114" s="24"/>
       <c r="C114" s="20" t="s">
         <v>132</v>
       </c>
@@ -3056,8 +3056,8 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="15.6">
-      <c r="A115" s="24"/>
-      <c r="B115" s="25"/>
+      <c r="A115" s="26"/>
+      <c r="B115" s="24"/>
       <c r="C115" s="19" t="s">
         <v>133</v>
       </c>
@@ -3070,8 +3070,8 @@
       <c r="J115" s="9"/>
     </row>
     <row r="116" spans="1:10" ht="15.6">
-      <c r="A116" s="24"/>
-      <c r="B116" s="25"/>
+      <c r="A116" s="26"/>
+      <c r="B116" s="24"/>
       <c r="C116" s="20" t="s">
         <v>134</v>
       </c>
@@ -3088,8 +3088,8 @@
       </c>
     </row>
     <row r="117" spans="1:10" ht="15.6">
-      <c r="A117" s="24"/>
-      <c r="B117" s="25"/>
+      <c r="A117" s="26"/>
+      <c r="B117" s="24"/>
       <c r="C117" s="20" t="s">
         <v>135</v>
       </c>
@@ -3106,8 +3106,8 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="15.6">
-      <c r="A118" s="24"/>
-      <c r="B118" s="25"/>
+      <c r="A118" s="26"/>
+      <c r="B118" s="24"/>
       <c r="C118" s="19" t="s">
         <v>136</v>
       </c>
@@ -3120,8 +3120,8 @@
       <c r="J118" s="9"/>
     </row>
     <row r="119" spans="1:10" ht="15.6">
-      <c r="A119" s="24"/>
-      <c r="B119" s="25"/>
+      <c r="A119" s="26"/>
+      <c r="B119" s="24"/>
       <c r="C119" s="20" t="s">
         <v>137</v>
       </c>
@@ -3138,8 +3138,8 @@
       </c>
     </row>
     <row r="120" spans="1:10" ht="15.6">
-      <c r="A120" s="24"/>
-      <c r="B120" s="25"/>
+      <c r="A120" s="26"/>
+      <c r="B120" s="24"/>
       <c r="C120" s="20" t="s">
         <v>138</v>
       </c>
@@ -3156,8 +3156,8 @@
       </c>
     </row>
     <row r="121" spans="1:10" ht="15.6">
-      <c r="A121" s="24"/>
-      <c r="B121" s="25"/>
+      <c r="A121" s="26"/>
+      <c r="B121" s="24"/>
       <c r="C121" s="19" t="s">
         <v>139</v>
       </c>
@@ -3170,8 +3170,8 @@
       <c r="J121" s="9"/>
     </row>
     <row r="122" spans="1:10" ht="15.6">
-      <c r="A122" s="24"/>
-      <c r="B122" s="25"/>
+      <c r="A122" s="26"/>
+      <c r="B122" s="24"/>
       <c r="C122" s="20" t="s">
         <v>177</v>
       </c>
@@ -3188,8 +3188,8 @@
       </c>
     </row>
     <row r="123" spans="1:10" ht="15.6">
-      <c r="A123" s="24"/>
-      <c r="B123" s="25"/>
+      <c r="A123" s="26"/>
+      <c r="B123" s="24"/>
       <c r="C123" s="20" t="s">
         <v>140</v>
       </c>
@@ -3206,8 +3206,8 @@
       </c>
     </row>
     <row r="124" spans="1:10" ht="15.6">
-      <c r="A124" s="24"/>
-      <c r="B124" s="25"/>
+      <c r="A124" s="26"/>
+      <c r="B124" s="24"/>
       <c r="C124" s="19" t="s">
         <v>141</v>
       </c>
@@ -3220,8 +3220,8 @@
       <c r="J124" s="9"/>
     </row>
     <row r="125" spans="1:10" ht="15.6">
-      <c r="A125" s="24"/>
-      <c r="B125" s="25"/>
+      <c r="A125" s="26"/>
+      <c r="B125" s="24"/>
       <c r="C125" s="20" t="s">
         <v>178</v>
       </c>
@@ -3238,8 +3238,8 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="15.6">
-      <c r="A126" s="24"/>
-      <c r="B126" s="25"/>
+      <c r="A126" s="26"/>
+      <c r="B126" s="24"/>
       <c r="C126" s="20" t="s">
         <v>142</v>
       </c>
@@ -3256,8 +3256,8 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="15.6">
-      <c r="A127" s="24"/>
-      <c r="B127" s="25"/>
+      <c r="A127" s="26"/>
+      <c r="B127" s="24"/>
       <c r="C127" s="20" t="s">
         <v>171</v>
       </c>
@@ -3274,8 +3274,8 @@
       </c>
     </row>
     <row r="128" spans="1:10" ht="15.6">
-      <c r="A128" s="24"/>
-      <c r="B128" s="25"/>
+      <c r="A128" s="26"/>
+      <c r="B128" s="24"/>
       <c r="C128" s="19" t="s">
         <v>143</v>
       </c>
@@ -3288,8 +3288,8 @@
       <c r="J128" s="9"/>
     </row>
     <row r="129" spans="1:10" ht="15.6">
-      <c r="A129" s="24"/>
-      <c r="B129" s="25"/>
+      <c r="A129" s="26"/>
+      <c r="B129" s="24"/>
       <c r="C129" s="20" t="s">
         <v>144</v>
       </c>
@@ -3306,8 +3306,8 @@
       </c>
     </row>
     <row r="130" spans="1:10" ht="15.6">
-      <c r="A130" s="24"/>
-      <c r="B130" s="25"/>
+      <c r="A130" s="26"/>
+      <c r="B130" s="24"/>
       <c r="C130" s="21" t="s">
         <v>146</v>
       </c>
@@ -3320,8 +3320,8 @@
       <c r="J130" s="9"/>
     </row>
     <row r="131" spans="1:10" ht="15.6">
-      <c r="A131" s="24"/>
-      <c r="B131" s="25"/>
+      <c r="A131" s="26"/>
+      <c r="B131" s="24"/>
       <c r="C131" s="20" t="s">
         <v>147</v>
       </c>
@@ -3338,8 +3338,8 @@
       </c>
     </row>
     <row r="132" spans="1:10" ht="15.6">
-      <c r="A132" s="24"/>
-      <c r="B132" s="25"/>
+      <c r="A132" s="26"/>
+      <c r="B132" s="24"/>
       <c r="C132" s="20" t="s">
         <v>148</v>
       </c>
@@ -3356,8 +3356,8 @@
       </c>
     </row>
     <row r="133" spans="1:10" ht="15.6">
-      <c r="A133" s="24"/>
-      <c r="B133" s="25"/>
+      <c r="A133" s="26"/>
+      <c r="B133" s="24"/>
       <c r="C133" s="20" t="s">
         <v>149</v>
       </c>
@@ -3374,8 +3374,8 @@
       </c>
     </row>
     <row r="134" spans="1:10" ht="15.6">
-      <c r="A134" s="24"/>
-      <c r="B134" s="25"/>
+      <c r="A134" s="26"/>
+      <c r="B134" s="24"/>
       <c r="C134" s="20" t="s">
         <v>176</v>
       </c>
@@ -3392,8 +3392,8 @@
       </c>
     </row>
     <row r="135" spans="1:10" ht="15.6">
-      <c r="A135" s="24"/>
-      <c r="B135" s="25"/>
+      <c r="A135" s="26"/>
+      <c r="B135" s="24"/>
       <c r="C135" s="20" t="s">
         <v>150</v>
       </c>
@@ -3410,8 +3410,8 @@
       </c>
     </row>
     <row r="136" spans="1:10" ht="16.8" customHeight="1">
-      <c r="A136" s="24"/>
-      <c r="B136" s="25"/>
+      <c r="A136" s="26"/>
+      <c r="B136" s="24"/>
       <c r="C136" s="20" t="s">
         <v>151</v>
       </c>
@@ -3428,8 +3428,8 @@
       </c>
     </row>
     <row r="137" spans="1:10" ht="16.8" customHeight="1">
-      <c r="A137" s="24"/>
-      <c r="B137" s="25"/>
+      <c r="A137" s="26"/>
+      <c r="B137" s="24"/>
       <c r="C137" s="20" t="s">
         <v>175</v>
       </c>
@@ -3446,8 +3446,8 @@
       </c>
     </row>
     <row r="138" spans="1:10" ht="15.6">
-      <c r="A138" s="24"/>
-      <c r="B138" s="25"/>
+      <c r="A138" s="26"/>
+      <c r="B138" s="24"/>
       <c r="C138" s="20" t="s">
         <v>152</v>
       </c>
@@ -3464,8 +3464,8 @@
       </c>
     </row>
     <row r="139" spans="1:10" ht="15.6">
-      <c r="A139" s="24"/>
-      <c r="B139" s="25"/>
+      <c r="A139" s="26"/>
+      <c r="B139" s="24"/>
       <c r="C139" s="20" t="s">
         <v>153</v>
       </c>
@@ -3482,8 +3482,8 @@
       </c>
     </row>
     <row r="140" spans="1:10" ht="15.6">
-      <c r="A140" s="24"/>
-      <c r="B140" s="25"/>
+      <c r="A140" s="26"/>
+      <c r="B140" s="24"/>
       <c r="C140" s="20" t="s">
         <v>154</v>
       </c>
@@ -3500,8 +3500,8 @@
       </c>
     </row>
     <row r="141" spans="1:10" ht="15.6">
-      <c r="A141" s="24"/>
-      <c r="B141" s="25"/>
+      <c r="A141" s="26"/>
+      <c r="B141" s="24"/>
       <c r="C141" s="20" t="s">
         <v>155</v>
       </c>
@@ -3518,8 +3518,8 @@
       </c>
     </row>
     <row r="142" spans="1:10" ht="15.6">
-      <c r="A142" s="24"/>
-      <c r="B142" s="25"/>
+      <c r="A142" s="26"/>
+      <c r="B142" s="24"/>
       <c r="C142" s="20" t="s">
         <v>156</v>
       </c>
@@ -3536,8 +3536,8 @@
       </c>
     </row>
     <row r="143" spans="1:10" ht="15.6">
-      <c r="A143" s="24"/>
-      <c r="B143" s="25"/>
+      <c r="A143" s="26"/>
+      <c r="B143" s="24"/>
       <c r="C143" s="20" t="s">
         <v>172</v>
       </c>
@@ -3554,8 +3554,8 @@
       </c>
     </row>
     <row r="144" spans="1:10" ht="15.6">
-      <c r="A144" s="24"/>
-      <c r="B144" s="25"/>
+      <c r="A144" s="26"/>
+      <c r="B144" s="24"/>
       <c r="C144" s="20" t="s">
         <v>166</v>
       </c>
@@ -3572,8 +3572,8 @@
       </c>
     </row>
     <row r="145" spans="1:10" ht="15.6">
-      <c r="A145" s="24"/>
-      <c r="B145" s="25"/>
+      <c r="A145" s="26"/>
+      <c r="B145" s="24"/>
       <c r="C145" s="20" t="s">
         <v>157</v>
       </c>
@@ -3590,8 +3590,8 @@
       </c>
     </row>
     <row r="146" spans="1:10" ht="15.6">
-      <c r="A146" s="24"/>
-      <c r="B146" s="25"/>
+      <c r="A146" s="26"/>
+      <c r="B146" s="24"/>
       <c r="C146" s="20" t="s">
         <v>158</v>
       </c>
@@ -3608,8 +3608,8 @@
       </c>
     </row>
     <row r="147" spans="1:10" ht="15.6">
-      <c r="A147" s="24"/>
-      <c r="B147" s="25"/>
+      <c r="A147" s="26"/>
+      <c r="B147" s="24"/>
       <c r="C147" s="20" t="s">
         <v>159</v>
       </c>
@@ -3626,8 +3626,8 @@
       </c>
     </row>
     <row r="148" spans="1:10" ht="15.6">
-      <c r="A148" s="24"/>
-      <c r="B148" s="25"/>
+      <c r="A148" s="26"/>
+      <c r="B148" s="24"/>
       <c r="C148" s="20" t="s">
         <v>160</v>
       </c>
@@ -3644,8 +3644,8 @@
       </c>
     </row>
     <row r="149" spans="1:10" ht="15.6">
-      <c r="A149" s="24"/>
-      <c r="B149" s="25"/>
+      <c r="A149" s="26"/>
+      <c r="B149" s="24"/>
       <c r="C149" s="20" t="s">
         <v>161</v>
       </c>
@@ -3662,8 +3662,8 @@
       </c>
     </row>
     <row r="150" spans="1:10" ht="15.6">
-      <c r="A150" s="24"/>
-      <c r="B150" s="25"/>
+      <c r="A150" s="26"/>
+      <c r="B150" s="24"/>
       <c r="C150" s="20" t="s">
         <v>162</v>
       </c>
@@ -3680,8 +3680,8 @@
       </c>
     </row>
     <row r="151" spans="1:10" ht="15.6">
-      <c r="A151" s="24"/>
-      <c r="B151" s="25"/>
+      <c r="A151" s="26"/>
+      <c r="B151" s="24"/>
       <c r="C151" s="20" t="s">
         <v>163</v>
       </c>
@@ -3698,8 +3698,8 @@
       </c>
     </row>
     <row r="152" spans="1:10" ht="15.6">
-      <c r="A152" s="24"/>
-      <c r="B152" s="25"/>
+      <c r="A152" s="26"/>
+      <c r="B152" s="24"/>
       <c r="C152" s="20" t="s">
         <v>164</v>
       </c>
@@ -3716,8 +3716,8 @@
       </c>
     </row>
     <row r="153" spans="1:10" ht="15.6">
-      <c r="A153" s="24"/>
-      <c r="B153" s="25"/>
+      <c r="A153" s="26"/>
+      <c r="B153" s="24"/>
       <c r="C153" s="20" t="s">
         <v>165</v>
       </c>
@@ -3734,8 +3734,8 @@
       </c>
     </row>
     <row r="154" spans="1:10" ht="15.6">
-      <c r="A154" s="24"/>
-      <c r="B154" s="25"/>
+      <c r="A154" s="26"/>
+      <c r="B154" s="24"/>
       <c r="C154" s="20" t="s">
         <v>167</v>
       </c>
@@ -3752,8 +3752,8 @@
       </c>
     </row>
     <row r="155" spans="1:10" ht="15.6">
-      <c r="A155" s="24"/>
-      <c r="B155" s="25"/>
+      <c r="A155" s="26"/>
+      <c r="B155" s="24"/>
       <c r="C155" s="3" t="s">
         <v>35</v>
       </c>
@@ -3768,8 +3768,8 @@
       <c r="J155" s="9"/>
     </row>
     <row r="156" spans="1:10" ht="15.6">
-      <c r="A156" s="24"/>
-      <c r="B156" s="25"/>
+      <c r="A156" s="26"/>
+      <c r="B156" s="24"/>
       <c r="C156" s="7" t="s">
         <v>23</v>
       </c>
@@ -3782,8 +3782,8 @@
       <c r="J156" s="9"/>
     </row>
     <row r="157" spans="1:10" ht="15.6">
-      <c r="A157" s="24"/>
-      <c r="B157" s="25"/>
+      <c r="A157" s="26"/>
+      <c r="B157" s="24"/>
       <c r="C157" s="6" t="s">
         <v>116</v>
       </c>
@@ -3798,8 +3798,8 @@
       <c r="J157" s="9"/>
     </row>
     <row r="158" spans="1:10" ht="15.6">
-      <c r="A158" s="24"/>
-      <c r="B158" s="25"/>
+      <c r="A158" s="26"/>
+      <c r="B158" s="24"/>
       <c r="C158" s="6" t="s">
         <v>117</v>
       </c>
@@ -3814,8 +3814,8 @@
       <c r="J158" s="9"/>
     </row>
     <row r="159" spans="1:10" ht="15.6">
-      <c r="A159" s="24"/>
-      <c r="B159" s="25"/>
+      <c r="A159" s="26"/>
+      <c r="B159" s="24"/>
       <c r="C159" s="7" t="s">
         <v>24</v>
       </c>
@@ -3828,8 +3828,8 @@
       <c r="J159" s="9"/>
     </row>
     <row r="160" spans="1:10" ht="15.6">
-      <c r="A160" s="24"/>
-      <c r="B160" s="25"/>
+      <c r="A160" s="26"/>
+      <c r="B160" s="24"/>
       <c r="C160" s="6" t="s">
         <v>116</v>
       </c>
@@ -3844,8 +3844,8 @@
       <c r="J160" s="9"/>
     </row>
     <row r="161" spans="1:10" ht="15.6">
-      <c r="A161" s="24"/>
-      <c r="B161" s="25"/>
+      <c r="A161" s="26"/>
+      <c r="B161" s="24"/>
       <c r="C161" s="6" t="s">
         <v>117</v>
       </c>
@@ -3860,10 +3860,10 @@
       <c r="J161" s="9"/>
     </row>
     <row r="162" spans="1:10" ht="15.6" customHeight="1">
-      <c r="A162" s="23">
+      <c r="A162" s="25">
         <v>6</v>
       </c>
-      <c r="B162" s="25" t="s">
+      <c r="B162" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C162" s="7" t="s">
@@ -3880,8 +3880,8 @@
       <c r="J162" s="9"/>
     </row>
     <row r="163" spans="1:10" ht="15.6">
-      <c r="A163" s="24"/>
-      <c r="B163" s="25"/>
+      <c r="A163" s="26"/>
+      <c r="B163" s="24"/>
       <c r="C163" s="7" t="s">
         <v>119</v>
       </c>
@@ -3896,8 +3896,8 @@
       <c r="J163" s="9"/>
     </row>
     <row r="164" spans="1:10" ht="15.6">
-      <c r="A164" s="24"/>
-      <c r="B164" s="25"/>
+      <c r="A164" s="26"/>
+      <c r="B164" s="24"/>
       <c r="C164" s="7" t="s">
         <v>27</v>
       </c>
@@ -3919,11 +3919,11 @@
       </c>
       <c r="D165" s="2">
         <f>COUNTA(D2:D164)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E165" s="2">
         <f>COUNTA(E2:E164)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F165" s="2">
         <f>COUNTA(F2:F164)</f>
@@ -3931,11 +3931,11 @@
       </c>
       <c r="G165" s="2">
         <f>COUNTA(G2:G164)</f>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H165" s="2">
         <f>COUNTA(H2:H164)</f>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
@@ -4194,18 +4194,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="B98:B161"/>
+    <mergeCell ref="A98:A161"/>
+    <mergeCell ref="B46:B97"/>
+    <mergeCell ref="A46:A97"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B45"/>
     <mergeCell ref="A11:A45"/>
     <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="B98:B161"/>
-    <mergeCell ref="A98:A161"/>
-    <mergeCell ref="B46:B97"/>
-    <mergeCell ref="A46:A97"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D167:H185 D2:H164">

--- a/Document/Reports/TasksheetFinal.xlsx
+++ b/Document/Reports/TasksheetFinal.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="36" windowWidth="20112" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="182">
   <si>
     <t>No.</t>
   </si>
@@ -441,21 +441,9 @@
     <t>SettingController</t>
   </si>
   <si>
-    <t>Manage ticket</t>
-  </si>
-  <si>
     <t>Get list ticket</t>
   </si>
   <si>
-    <t>Manage transaction</t>
-  </si>
-  <si>
-    <t>Manage user</t>
-  </si>
-  <si>
-    <t>Create event</t>
-  </si>
-  <si>
     <t>Activity Diagram</t>
   </si>
   <si>
@@ -661,6 +649,27 @@
   </si>
   <si>
     <t>&lt;Admin&gt; View transaction list</t>
+  </si>
+  <si>
+    <t>Edit Ticket</t>
+  </si>
+  <si>
+    <t>Delete Ticket</t>
+  </si>
+  <si>
+    <t>Approve Ticket</t>
+  </si>
+  <si>
+    <t>Delivered Transaction</t>
+  </si>
+  <si>
+    <t>Received Transaction</t>
+  </si>
+  <si>
+    <t>Create Event</t>
+  </si>
+  <si>
+    <t>Active User</t>
   </si>
 </sst>
 </file>
@@ -878,22 +887,22 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -903,6 +912,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -919,7 +996,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="464646"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1201,23 +1278,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J187"/>
+  <dimension ref="A1:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H157" sqref="H157"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="51.6">
+    <row r="1" spans="1:10" ht="52.5">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1249,11 +1326,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6">
-      <c r="A2" s="23">
+    <row r="2" spans="1:10" ht="15.75">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -1269,9 +1346,9 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:10" ht="15.6">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
+    <row r="3" spans="1:10" ht="15.75">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
@@ -1285,9 +1362,9 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
+    <row r="4" spans="1:10" ht="15.75">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
@@ -1301,9 +1378,9 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" ht="15.6">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
+    <row r="5" spans="1:10" ht="15.75">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1317,9 +1394,9 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" ht="15.6">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
+    <row r="6" spans="1:10" ht="15.75">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="3" t="s">
         <v>51</v>
       </c>
@@ -1333,11 +1410,11 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="15.6">
-      <c r="A7" s="24">
+    <row r="7" spans="1:10" ht="15.75">
+      <c r="A7" s="25">
         <v>2</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1353,9 +1430,9 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" ht="15.6">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
+    <row r="8" spans="1:10" ht="15.75">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1369,9 +1446,9 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:10" ht="15.6">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
+    <row r="9" spans="1:10" ht="15.75">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1385,9 +1462,9 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10" ht="15.6">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
+    <row r="10" spans="1:10" ht="15.75">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1401,11 +1478,11 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:10" ht="15.6">
-      <c r="A11" s="24">
+    <row r="11" spans="1:10" ht="15.75">
+      <c r="A11" s="25">
         <v>3</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1421,9 +1498,9 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:10" ht="15.6">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
+    <row r="12" spans="1:10" ht="15.75">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1435,9 +1512,9 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:10" ht="15.6">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
+    <row r="13" spans="1:10" ht="15.75">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="18" t="s">
         <v>15</v>
       </c>
@@ -1451,9 +1528,9 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10" ht="15.6">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
+    <row r="14" spans="1:10" ht="15.75">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="19" t="s">
         <v>16</v>
       </c>
@@ -1465,9 +1542,9 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" ht="15.6">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
+    <row r="15" spans="1:10" ht="15.75">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="19" t="s">
         <v>53</v>
       </c>
@@ -1479,9 +1556,9 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:10" ht="15.6">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+    <row r="16" spans="1:10" ht="15.75">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
         <v>54</v>
       </c>
@@ -1495,9 +1572,9 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" ht="15.6">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
+    <row r="17" spans="1:10" ht="15.75">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="20" t="s">
         <v>55</v>
       </c>
@@ -1511,9 +1588,9 @@
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:10" ht="15.6">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
+    <row r="18" spans="1:10" ht="15.75">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="20" t="s">
         <v>56</v>
       </c>
@@ -1527,9 +1604,9 @@
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="1:10" ht="15.6">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
+    <row r="19" spans="1:10" ht="15.75">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="20" t="s">
         <v>57</v>
       </c>
@@ -1543,9 +1620,9 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
+    <row r="20" spans="1:10" ht="15.75">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="20" t="s">
         <v>58</v>
       </c>
@@ -1559,9 +1636,9 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
+    <row r="21" spans="1:10" ht="15.75">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="20" t="s">
         <v>59</v>
       </c>
@@ -1575,9 +1652,9 @@
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" spans="1:10" ht="15.6">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
+    <row r="22" spans="1:10" ht="15.75">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="20" t="s">
         <v>60</v>
       </c>
@@ -1591,9 +1668,9 @@
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:10" ht="15.6">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
+    <row r="23" spans="1:10" ht="15.75">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="20" t="s">
         <v>61</v>
       </c>
@@ -1607,9 +1684,9 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:10" ht="15.6">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
+    <row r="24" spans="1:10" ht="15.75">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="19" t="s">
         <v>62</v>
       </c>
@@ -1621,9 +1698,9 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10" ht="15.6">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
+    <row r="25" spans="1:10" ht="15.75">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="20" t="s">
         <v>63</v>
       </c>
@@ -1637,9 +1714,9 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" ht="15.6">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
+    <row r="26" spans="1:10" ht="15.75">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="20" t="s">
         <v>64</v>
       </c>
@@ -1653,9 +1730,9 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:10" ht="15.6">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
+    <row r="27" spans="1:10" ht="15.75">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="20" t="s">
         <v>65</v>
       </c>
@@ -1669,9 +1746,9 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:10" ht="15.6">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
+    <row r="28" spans="1:10" ht="15.75">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
         <v>66</v>
       </c>
@@ -1685,9 +1762,9 @@
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" ht="15.6">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
+    <row r="29" spans="1:10" ht="15.75">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="20" t="s">
         <v>67</v>
       </c>
@@ -1701,9 +1778,9 @@
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="1:10" ht="15.6">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
+    <row r="30" spans="1:10" ht="15.75">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="20" t="s">
         <v>68</v>
       </c>
@@ -1717,9 +1794,9 @@
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="1:10" ht="15.6">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
+    <row r="31" spans="1:10" ht="15.75">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="20" t="s">
         <v>69</v>
       </c>
@@ -1733,9 +1810,9 @@
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="1:10" ht="15.6">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
+    <row r="32" spans="1:10" ht="15.75">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="20" t="s">
         <v>70</v>
       </c>
@@ -1749,9 +1826,9 @@
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
+    <row r="33" spans="1:10" ht="15.75">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="20" t="s">
         <v>71</v>
       </c>
@@ -1765,9 +1842,9 @@
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
+    <row r="34" spans="1:10" ht="15.75">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="20" t="s">
         <v>52</v>
       </c>
@@ -1781,9 +1858,9 @@
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
     </row>
-    <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
+    <row r="35" spans="1:10" ht="15.75">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="20" t="s">
         <v>72</v>
       </c>
@@ -1797,9 +1874,9 @@
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="1:10" ht="15.6">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
+    <row r="36" spans="1:10" ht="15.75">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="20" t="s">
         <v>73</v>
       </c>
@@ -1813,11 +1890,11 @@
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="1:10" ht="15.6">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
+    <row r="37" spans="1:10" ht="15.75">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>8</v>
@@ -1829,9 +1906,9 @@
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="1:10" ht="15.6">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
+    <row r="38" spans="1:10" ht="15.75">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="20" t="s">
         <v>58</v>
       </c>
@@ -1845,9 +1922,9 @@
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="1:10" ht="15.6">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
+    <row r="39" spans="1:10" ht="15.75">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="20" t="s">
         <v>74</v>
       </c>
@@ -1861,9 +1938,9 @@
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" spans="1:10" ht="15.6">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
+    <row r="40" spans="1:10" ht="15.75">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="19" t="s">
         <v>17</v>
       </c>
@@ -1875,9 +1952,9 @@
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
     </row>
-    <row r="41" spans="1:10" ht="15.6">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
+    <row r="41" spans="1:10" ht="15.75">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="20" t="s">
         <v>18</v>
       </c>
@@ -1891,9 +1968,9 @@
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:10" ht="15.6">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
+    <row r="42" spans="1:10" ht="15.75">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="20" t="s">
         <v>19</v>
       </c>
@@ -1907,9 +1984,9 @@
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
     </row>
-    <row r="43" spans="1:10" ht="15.6">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
+    <row r="43" spans="1:10" ht="15.75">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="20" t="s">
         <v>75</v>
       </c>
@@ -1923,9 +2000,9 @@
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
     </row>
-    <row r="44" spans="1:10" ht="15.6">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
+    <row r="44" spans="1:10" ht="15.75">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="20" t="s">
         <v>76</v>
       </c>
@@ -1939,9 +2016,9 @@
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
     </row>
-    <row r="45" spans="1:10" ht="15.6">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
+    <row r="45" spans="1:10" ht="15.75">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="3" t="s">
         <v>20</v>
       </c>
@@ -1955,11 +2032,11 @@
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
     </row>
-    <row r="46" spans="1:10" ht="15.6">
-      <c r="A46" s="27">
+    <row r="46" spans="1:10" ht="15.75">
+      <c r="A46" s="26">
         <v>4</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -1975,9 +2052,9 @@
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
     </row>
-    <row r="47" spans="1:10" ht="15.6">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
+    <row r="47" spans="1:10" ht="15.75">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
       <c r="C47" s="3" t="s">
         <v>32</v>
       </c>
@@ -1989,9 +2066,9 @@
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="1:10" ht="15.6">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
+    <row r="48" spans="1:10" ht="15.75">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
       <c r="C48" s="5" t="s">
         <v>33</v>
       </c>
@@ -2003,9 +2080,9 @@
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="1:10" ht="15.6">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
+    <row r="49" spans="1:10" ht="15.75">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
       <c r="C49" s="6" t="s">
         <v>77</v>
       </c>
@@ -2019,9 +2096,9 @@
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
     </row>
-    <row r="50" spans="1:10" ht="15.6">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
+    <row r="50" spans="1:10" ht="15.75">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
       <c r="C50" s="6" t="s">
         <v>78</v>
       </c>
@@ -2033,9 +2110,9 @@
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
     </row>
-    <row r="51" spans="1:10" ht="15.6">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
+    <row r="51" spans="1:10" ht="15.75">
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
       <c r="C51" s="6" t="s">
         <v>79</v>
       </c>
@@ -2049,9 +2126,9 @@
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
+    <row r="52" spans="1:10" ht="15.75">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
       <c r="C52" s="6" t="s">
         <v>81</v>
       </c>
@@ -2065,9 +2142,9 @@
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
     </row>
-    <row r="53" spans="1:10" ht="15.6">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
+    <row r="53" spans="1:10" ht="15.75">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
       <c r="C53" s="6" t="s">
         <v>80</v>
       </c>
@@ -2081,9 +2158,9 @@
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
     </row>
-    <row r="54" spans="1:10" ht="15.6">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
+    <row r="54" spans="1:10" ht="15.75">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
       <c r="C54" s="6" t="s">
         <v>84</v>
       </c>
@@ -2097,9 +2174,9 @@
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
     </row>
-    <row r="55" spans="1:10" ht="15.6">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
+    <row r="55" spans="1:10" ht="15.75">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
       <c r="C55" s="6" t="s">
         <v>82</v>
       </c>
@@ -2113,11 +2190,11 @@
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
     </row>
-    <row r="56" spans="1:10" ht="15.6">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
+    <row r="56" spans="1:10" ht="15.75">
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
       <c r="C56" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2129,9 +2206,9 @@
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
     </row>
-    <row r="57" spans="1:10" ht="15.6">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
+    <row r="57" spans="1:10" ht="15.75">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
       <c r="C57" s="6" t="s">
         <v>83</v>
       </c>
@@ -2145,9 +2222,9 @@
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
     </row>
-    <row r="58" spans="1:10" ht="15.6">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
+    <row r="58" spans="1:10" ht="15.75">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
       <c r="C58" s="6" t="s">
         <v>85</v>
       </c>
@@ -2161,9 +2238,9 @@
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
     </row>
-    <row r="59" spans="1:10" ht="15.6">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
+    <row r="59" spans="1:10" ht="15.75">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
       <c r="C59" s="6" t="s">
         <v>86</v>
       </c>
@@ -2177,9 +2254,9 @@
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
     </row>
-    <row r="60" spans="1:10" ht="15.6">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
+    <row r="60" spans="1:10" ht="15.75">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
       <c r="C60" s="4" t="s">
         <v>87</v>
       </c>
@@ -2191,9 +2268,9 @@
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
     </row>
-    <row r="61" spans="1:10" ht="15.6">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
+    <row r="61" spans="1:10" ht="15.75">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
       <c r="C61" s="21" t="s">
         <v>101</v>
       </c>
@@ -2205,9 +2282,9 @@
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
     </row>
-    <row r="62" spans="1:10" ht="15.6">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
+    <row r="62" spans="1:10" ht="15.75">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
       <c r="C62" s="6" t="s">
         <v>93</v>
       </c>
@@ -2221,9 +2298,9 @@
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
     </row>
-    <row r="63" spans="1:10" ht="15.6">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
+    <row r="63" spans="1:10" ht="15.75">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
       <c r="C63" s="6" t="s">
         <v>103</v>
       </c>
@@ -2237,9 +2314,9 @@
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
     </row>
-    <row r="64" spans="1:10" ht="15.6">
-      <c r="A64" s="28"/>
-      <c r="B64" s="28"/>
+    <row r="64" spans="1:10" ht="15.75">
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
       <c r="C64" s="6" t="s">
         <v>94</v>
       </c>
@@ -2253,9 +2330,9 @@
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
     </row>
-    <row r="65" spans="1:10" ht="15.6">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
+    <row r="65" spans="1:10" ht="15.75">
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
       <c r="C65" s="6" t="s">
         <v>91</v>
       </c>
@@ -2269,9 +2346,9 @@
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
     </row>
-    <row r="66" spans="1:10" ht="15.6">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
+    <row r="66" spans="1:10" ht="15.75">
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
       <c r="C66" s="6" t="s">
         <v>96</v>
       </c>
@@ -2285,9 +2362,9 @@
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
     </row>
-    <row r="67" spans="1:10" ht="15.6">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
+    <row r="67" spans="1:10" ht="15.75">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
       <c r="C67" s="6" t="s">
         <v>97</v>
       </c>
@@ -2301,9 +2378,9 @@
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
     </row>
-    <row r="68" spans="1:10" ht="15.6">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
+    <row r="68" spans="1:10" ht="15.75">
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
       <c r="C68" s="6" t="s">
         <v>98</v>
       </c>
@@ -2317,9 +2394,9 @@
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
     </row>
-    <row r="69" spans="1:10" ht="15.6">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
+    <row r="69" spans="1:10" ht="15.75">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
       <c r="C69" s="6" t="s">
         <v>99</v>
       </c>
@@ -2333,9 +2410,9 @@
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
     </row>
-    <row r="70" spans="1:10" ht="15.6">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
+    <row r="70" spans="1:10" ht="15.75">
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
       <c r="C70" s="6" t="s">
         <v>104</v>
       </c>
@@ -2349,9 +2426,9 @@
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
     </row>
-    <row r="71" spans="1:10" ht="15.6">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28"/>
+    <row r="71" spans="1:10" ht="15.75">
+      <c r="A71" s="27"/>
+      <c r="B71" s="27"/>
       <c r="C71" s="6" t="s">
         <v>102</v>
       </c>
@@ -2365,9 +2442,9 @@
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
     </row>
-    <row r="72" spans="1:10" ht="15.6">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
+    <row r="72" spans="1:10" ht="15.75">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
       <c r="C72" s="5" t="s">
         <v>62</v>
       </c>
@@ -2379,9 +2456,9 @@
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
     </row>
-    <row r="73" spans="1:10" ht="15.6">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
+    <row r="73" spans="1:10" ht="15.75">
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
       <c r="C73" s="6" t="s">
         <v>88</v>
       </c>
@@ -2395,9 +2472,9 @@
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
     </row>
-    <row r="74" spans="1:10" ht="15.6">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
+    <row r="74" spans="1:10" ht="15.75">
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
       <c r="C74" s="6" t="s">
         <v>89</v>
       </c>
@@ -2411,9 +2488,9 @@
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
     </row>
-    <row r="75" spans="1:10" ht="15.6">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
+    <row r="75" spans="1:10" ht="15.75">
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
       <c r="C75" s="6" t="s">
         <v>90</v>
       </c>
@@ -2427,9 +2504,9 @@
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
     </row>
-    <row r="76" spans="1:10" ht="15.6">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
+    <row r="76" spans="1:10" ht="15.75">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
       <c r="C76" s="6" t="s">
         <v>92</v>
       </c>
@@ -2443,9 +2520,9 @@
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
     </row>
-    <row r="77" spans="1:10" ht="15.6">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
+    <row r="77" spans="1:10" ht="15.75">
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
       <c r="C77" s="6" t="s">
         <v>93</v>
       </c>
@@ -2459,9 +2536,9 @@
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
     </row>
-    <row r="78" spans="1:10" ht="15.6">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
+    <row r="78" spans="1:10" ht="15.75">
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
       <c r="C78" s="6" t="s">
         <v>94</v>
       </c>
@@ -2473,9 +2550,9 @@
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
     </row>
-    <row r="79" spans="1:10" ht="15.6">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28"/>
+    <row r="79" spans="1:10" ht="15.75">
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
       <c r="C79" s="6" t="s">
         <v>95</v>
       </c>
@@ -2489,9 +2566,9 @@
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
     </row>
-    <row r="80" spans="1:10" ht="15.6">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
+    <row r="80" spans="1:10" ht="15.75">
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
       <c r="C80" s="6" t="s">
         <v>91</v>
       </c>
@@ -2505,9 +2582,9 @@
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
     </row>
-    <row r="81" spans="1:10" ht="15.6">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
+    <row r="81" spans="1:10" ht="15.75">
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
       <c r="C81" s="6" t="s">
         <v>96</v>
       </c>
@@ -2521,9 +2598,9 @@
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
     </row>
-    <row r="82" spans="1:10" ht="15.6">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
+    <row r="82" spans="1:10" ht="15.75">
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
       <c r="C82" s="6" t="s">
         <v>97</v>
       </c>
@@ -2537,9 +2614,9 @@
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
     </row>
-    <row r="83" spans="1:10" ht="15.6">
-      <c r="A83" s="28"/>
-      <c r="B83" s="28"/>
+    <row r="83" spans="1:10" ht="15.75">
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
       <c r="C83" s="6" t="s">
         <v>98</v>
       </c>
@@ -2553,9 +2630,9 @@
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
     </row>
-    <row r="84" spans="1:10" ht="15.6">
-      <c r="A84" s="28"/>
-      <c r="B84" s="28"/>
+    <row r="84" spans="1:10" ht="15.75">
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
       <c r="C84" s="6" t="s">
         <v>99</v>
       </c>
@@ -2569,9 +2646,9 @@
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
     </row>
-    <row r="85" spans="1:10" ht="15.6">
-      <c r="A85" s="28"/>
-      <c r="B85" s="28"/>
+    <row r="85" spans="1:10" ht="15.75">
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
       <c r="C85" s="6" t="s">
         <v>100</v>
       </c>
@@ -2585,9 +2662,9 @@
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
     </row>
-    <row r="86" spans="1:10" ht="15.6">
-      <c r="A86" s="28"/>
-      <c r="B86" s="28"/>
+    <row r="86" spans="1:10" ht="15.75">
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
       <c r="C86" s="7" t="s">
         <v>22</v>
       </c>
@@ -2599,11 +2676,11 @@
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
     </row>
-    <row r="87" spans="1:10" ht="15.6">
-      <c r="A87" s="28"/>
-      <c r="B87" s="28"/>
+    <row r="87" spans="1:10" ht="15.75">
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
       <c r="C87" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -2615,11 +2692,11 @@
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
     </row>
-    <row r="88" spans="1:10" ht="15.6">
-      <c r="A88" s="28"/>
-      <c r="B88" s="28"/>
+    <row r="88" spans="1:10" ht="15.75">
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
       <c r="C88" s="6" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
@@ -2631,11 +2708,11 @@
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
     </row>
-    <row r="89" spans="1:10" ht="15.6">
-      <c r="A89" s="28"/>
-      <c r="B89" s="28"/>
+    <row r="89" spans="1:10" ht="15.75">
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
       <c r="C89" s="6" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -2647,11 +2724,11 @@
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
     </row>
-    <row r="90" spans="1:10" ht="15.6">
-      <c r="A90" s="28"/>
-      <c r="B90" s="28"/>
+    <row r="90" spans="1:10" ht="15.75">
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
       <c r="C90" s="6" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -2663,11 +2740,11 @@
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
     </row>
-    <row r="91" spans="1:10" ht="15.6">
-      <c r="A91" s="28"/>
-      <c r="B91" s="28"/>
+    <row r="91" spans="1:10" ht="15.75">
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
       <c r="C91" s="6" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>8</v>
@@ -2679,57 +2756,59 @@
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
     </row>
-    <row r="92" spans="1:10" ht="15.6">
-      <c r="A92" s="28"/>
-      <c r="B92" s="28"/>
-      <c r="C92" s="7" t="s">
-        <v>111</v>
+    <row r="92" spans="1:10" ht="15.75">
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
+      <c r="H92" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
     </row>
-    <row r="93" spans="1:10" ht="15.6">
-      <c r="A93" s="28"/>
-      <c r="B93" s="28"/>
+    <row r="93" spans="1:10" ht="15.75">
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
       <c r="C93" s="6" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="D93" s="1"/>
-      <c r="E93" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
+      <c r="G93" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H93" s="1"/>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
     </row>
-    <row r="94" spans="1:10" ht="15.6">
-      <c r="A94" s="28"/>
-      <c r="B94" s="28"/>
+    <row r="94" spans="1:10" ht="15.75">
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
       <c r="C94" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
+      <c r="H94" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
     </row>
-    <row r="95" spans="1:10" ht="15.6">
-      <c r="A95" s="28"/>
-      <c r="B95" s="28"/>
+    <row r="95" spans="1:10" ht="15.75">
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
       <c r="C95" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -2739,11 +2818,11 @@
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
     </row>
-    <row r="96" spans="1:10" ht="15.6">
-      <c r="A96" s="28"/>
-      <c r="B96" s="28"/>
+    <row r="96" spans="1:10" ht="15.75">
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
       <c r="C96" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1" t="s">
@@ -2755,31 +2834,27 @@
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
     </row>
-    <row r="97" spans="1:10" ht="15.6">
-      <c r="A97" s="23"/>
-      <c r="B97" s="23"/>
+    <row r="97" spans="1:10" ht="15.75">
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
       <c r="C97" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D97" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
     </row>
-    <row r="98" spans="1:10" ht="15.6">
-      <c r="A98" s="25">
-        <v>5</v>
-      </c>
-      <c r="B98" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>25</v>
+    <row r="98" spans="1:10" ht="15.75">
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -2789,41 +2864,47 @@
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
     </row>
-    <row r="99" spans="1:10" ht="15.6">
-      <c r="A99" s="26"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="3" t="s">
-        <v>118</v>
+    <row r="99" spans="1:10" ht="15.75">
+      <c r="A99" s="27"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
+      <c r="E99" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F99" s="1"/>
-      <c r="G99" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
     </row>
-    <row r="100" spans="1:10" ht="15.6">
-      <c r="A100" s="26"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="3" t="s">
-        <v>122</v>
+    <row r="100" spans="1:10" ht="15.75">
+      <c r="A100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
+      <c r="G100" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H100" s="1"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
     </row>
-    <row r="101" spans="1:10" ht="15.6">
-      <c r="A101" s="26"/>
-      <c r="B101" s="24"/>
-      <c r="C101" s="21" t="s">
-        <v>145</v>
+    <row r="101" spans="1:10" ht="15.75">
+      <c r="A101" s="23">
+        <v>5</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -2833,79 +2914,69 @@
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
     </row>
-    <row r="102" spans="1:10" ht="15.6">
-      <c r="A102" s="26"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="19" t="s">
-        <v>125</v>
+    <row r="102" spans="1:10" ht="15.75">
+      <c r="A102" s="24"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
+      <c r="G102" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H102" s="1"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
     </row>
-    <row r="103" spans="1:10" ht="15.6">
-      <c r="A103" s="26"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="103" spans="1:10" ht="15.75">
+      <c r="A103" s="24"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="15.6">
-      <c r="A104" s="26"/>
-      <c r="B104" s="24"/>
-      <c r="C104" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="J103" s="9"/>
+    </row>
+    <row r="104" spans="1:10" ht="15.75">
+      <c r="A104" s="24"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="9"/>
-      <c r="J104" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="15.6">
-      <c r="A105" s="26"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="J104" s="9"/>
+    </row>
+    <row r="105" spans="1:10" ht="15.75">
+      <c r="A105" s="24"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="9"/>
-      <c r="J105" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="15.6">
-      <c r="A106" s="26"/>
-      <c r="B106" s="24"/>
+      <c r="J105" s="9"/>
+    </row>
+    <row r="106" spans="1:10" ht="15.75">
+      <c r="A106" s="24"/>
+      <c r="B106" s="25"/>
       <c r="C106" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>8</v>
@@ -2919,197 +2990,201 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15.6">
-      <c r="A107" s="26"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D107" s="1"/>
+    <row r="107" spans="1:10" ht="15.75">
+      <c r="A107" s="24"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
-    </row>
-    <row r="108" spans="1:10" ht="15.6">
-      <c r="A108" s="26"/>
-      <c r="B108" s="24"/>
+      <c r="J107" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15.75">
+      <c r="A108" s="24"/>
+      <c r="B108" s="25"/>
       <c r="C108" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="D108" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E108" s="1"/>
-      <c r="F108" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="9"/>
       <c r="J108" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="15.6">
-      <c r="A109" s="26"/>
-      <c r="B109" s="24"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15.75">
+      <c r="A109" s="24"/>
+      <c r="B109" s="25"/>
       <c r="C109" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="D109" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E109" s="1"/>
-      <c r="F109" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="9"/>
       <c r="J109" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="15.6">
-      <c r="A110" s="26"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="20" t="s">
-        <v>129</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="15.75">
+      <c r="A110" s="24"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="9"/>
-      <c r="J110" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="15.6">
-      <c r="A111" s="26"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="19" t="s">
-        <v>130</v>
+      <c r="J110" s="9"/>
+    </row>
+    <row r="111" spans="1:10" ht="15.75">
+      <c r="A111" s="24"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="20" t="s">
+        <v>165</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
+      <c r="F111" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="9"/>
-      <c r="J111" s="9"/>
-    </row>
-    <row r="112" spans="1:10" ht="15.6">
-      <c r="A112" s="26"/>
-      <c r="B112" s="24"/>
+      <c r="J111" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15.75">
+      <c r="A112" s="24"/>
+      <c r="B112" s="25"/>
       <c r="C112" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D112" s="1"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
+      <c r="F112" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="9"/>
       <c r="J112" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="15.6">
-      <c r="A113" s="26"/>
-      <c r="B113" s="24"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15.75">
+      <c r="A113" s="24"/>
+      <c r="B113" s="25"/>
       <c r="C113" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D113" s="1"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
+      <c r="F113" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="9"/>
       <c r="J113" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="15.6">
-      <c r="A114" s="26"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15.75">
+      <c r="A114" s="24"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="9"/>
-      <c r="J114" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="15.6">
-      <c r="A115" s="26"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D115" s="1"/>
+      <c r="J114" s="9"/>
+    </row>
+    <row r="115" spans="1:10" ht="15.75">
+      <c r="A115" s="24"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
-    </row>
-    <row r="116" spans="1:10" ht="15.6">
-      <c r="A116" s="26"/>
-      <c r="B116" s="24"/>
+      <c r="J115" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="15.75">
+      <c r="A116" s="24"/>
+      <c r="B116" s="25"/>
       <c r="C116" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="D116" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-      <c r="G116" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="9"/>
       <c r="J116" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="15.6">
-      <c r="A117" s="26"/>
-      <c r="B117" s="24"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="15.75">
+      <c r="A117" s="24"/>
+      <c r="B117" s="25"/>
       <c r="C117" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D117" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="9"/>
       <c r="J117" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="15.6">
-      <c r="A118" s="26"/>
-      <c r="B118" s="24"/>
+    <row r="118" spans="1:10" ht="15.75">
+      <c r="A118" s="24"/>
+      <c r="B118" s="25"/>
       <c r="C118" s="19" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -3119,47 +3194,47 @@
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
     </row>
-    <row r="119" spans="1:10" ht="15.6">
-      <c r="A119" s="26"/>
-      <c r="B119" s="24"/>
+    <row r="119" spans="1:10" ht="15.75">
+      <c r="A119" s="24"/>
+      <c r="B119" s="25"/>
       <c r="C119" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H119" s="1"/>
       <c r="I119" s="9"/>
       <c r="J119" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15.6">
-      <c r="A120" s="26"/>
-      <c r="B120" s="24"/>
+    <row r="120" spans="1:10" ht="15.75">
+      <c r="A120" s="24"/>
+      <c r="B120" s="25"/>
       <c r="C120" s="20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H120" s="1"/>
       <c r="I120" s="9"/>
       <c r="J120" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15.6">
-      <c r="A121" s="26"/>
-      <c r="B121" s="24"/>
+    <row r="121" spans="1:10" ht="15.75">
+      <c r="A121" s="24"/>
+      <c r="B121" s="25"/>
       <c r="C121" s="19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -3169,47 +3244,47 @@
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
     </row>
-    <row r="122" spans="1:10" ht="15.6">
-      <c r="A122" s="26"/>
-      <c r="B122" s="24"/>
+    <row r="122" spans="1:10" ht="15.75">
+      <c r="A122" s="24"/>
+      <c r="B122" s="25"/>
       <c r="C122" s="20" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="9"/>
       <c r="J122" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="15.6">
-      <c r="A123" s="26"/>
-      <c r="B123" s="24"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="15.75">
+      <c r="A123" s="24"/>
+      <c r="B123" s="25"/>
       <c r="C123" s="20" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="9"/>
       <c r="J123" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="15.6">
-      <c r="A124" s="26"/>
-      <c r="B124" s="24"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="15.75">
+      <c r="A124" s="24"/>
+      <c r="B124" s="25"/>
       <c r="C124" s="19" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -3219,237 +3294,233 @@
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
     </row>
-    <row r="125" spans="1:10" ht="15.6">
-      <c r="A125" s="26"/>
-      <c r="B125" s="24"/>
+    <row r="125" spans="1:10" ht="15.75">
+      <c r="A125" s="24"/>
+      <c r="B125" s="25"/>
       <c r="C125" s="20" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H125" s="1"/>
       <c r="I125" s="9"/>
       <c r="J125" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15.6">
-      <c r="A126" s="26"/>
-      <c r="B126" s="24"/>
+    <row r="126" spans="1:10" ht="15.75">
+      <c r="A126" s="24"/>
+      <c r="B126" s="25"/>
       <c r="C126" s="20" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H126" s="1"/>
       <c r="I126" s="9"/>
       <c r="J126" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="15.6">
-      <c r="A127" s="26"/>
-      <c r="B127" s="24"/>
-      <c r="C127" s="20" t="s">
-        <v>171</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="15.75">
+      <c r="A127" s="24"/>
+      <c r="B127" s="25"/>
+      <c r="C127" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="9"/>
-      <c r="J127" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="15.6">
-      <c r="A128" s="26"/>
-      <c r="B128" s="24"/>
-      <c r="C128" s="19" t="s">
-        <v>143</v>
+      <c r="J127" s="9"/>
+    </row>
+    <row r="128" spans="1:10" ht="15.75">
+      <c r="A128" s="24"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="20" t="s">
+        <v>174</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
+      <c r="F128" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="9"/>
-      <c r="J128" s="9"/>
-    </row>
-    <row r="129" spans="1:10" ht="15.6">
-      <c r="A129" s="26"/>
-      <c r="B129" s="24"/>
+      <c r="J128" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="15.75">
+      <c r="A129" s="24"/>
+      <c r="B129" s="25"/>
       <c r="C129" s="20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="9"/>
       <c r="J129" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15.6">
-      <c r="A130" s="26"/>
-      <c r="B130" s="24"/>
-      <c r="C130" s="21" t="s">
-        <v>146</v>
+    <row r="130" spans="1:10" ht="15.75">
+      <c r="A130" s="24"/>
+      <c r="B130" s="25"/>
+      <c r="C130" s="20" t="s">
+        <v>167</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
+      <c r="F130" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="9"/>
-    </row>
-    <row r="131" spans="1:10" ht="15.6">
-      <c r="A131" s="26"/>
-      <c r="B131" s="24"/>
-      <c r="C131" s="20" t="s">
-        <v>147</v>
+      <c r="J130" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="15.75">
+      <c r="A131" s="24"/>
+      <c r="B131" s="25"/>
+      <c r="C131" s="19" t="s">
+        <v>139</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
-      <c r="H131" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H131" s="1"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="15.6">
-      <c r="A132" s="26"/>
-      <c r="B132" s="24"/>
+      <c r="J131" s="9"/>
+    </row>
+    <row r="132" spans="1:10" ht="15.75">
+      <c r="A132" s="24"/>
+      <c r="B132" s="25"/>
       <c r="C132" s="20" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H132" s="1"/>
       <c r="I132" s="9"/>
       <c r="J132" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="15.6">
-      <c r="A133" s="26"/>
-      <c r="B133" s="24"/>
-      <c r="C133" s="20" t="s">
-        <v>149</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="15.75">
+      <c r="A133" s="24"/>
+      <c r="B133" s="25"/>
+      <c r="C133" s="21" t="s">
+        <v>142</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="9"/>
-      <c r="J133" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="15.6">
-      <c r="A134" s="26"/>
-      <c r="B134" s="24"/>
+      <c r="J133" s="9"/>
+    </row>
+    <row r="134" spans="1:10" ht="15.75">
+      <c r="A134" s="24"/>
+      <c r="B134" s="25"/>
       <c r="C134" s="20" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F134" s="1"/>
       <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
+      <c r="H134" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15.6">
-      <c r="A135" s="26"/>
-      <c r="B135" s="24"/>
+    <row r="135" spans="1:10" ht="15.75">
+      <c r="A135" s="24"/>
+      <c r="B135" s="25"/>
       <c r="C135" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D135" s="1"/>
-      <c r="E135" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
+      <c r="H135" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="16.8" customHeight="1">
-      <c r="A136" s="26"/>
-      <c r="B136" s="24"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="15.75">
+      <c r="A136" s="24"/>
+      <c r="B136" s="25"/>
       <c r="C136" s="20" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D136" s="1"/>
-      <c r="E136" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="9"/>
       <c r="J136" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="16.8" customHeight="1">
-      <c r="A137" s="26"/>
-      <c r="B137" s="24"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="15.75">
+      <c r="A137" s="24"/>
+      <c r="B137" s="25"/>
       <c r="C137" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
+      <c r="F137" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="9"/>
       <c r="J137" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="15.6">
-      <c r="A138" s="26"/>
-      <c r="B138" s="24"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="15.75">
+      <c r="A138" s="24"/>
+      <c r="B138" s="25"/>
       <c r="C138" s="20" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1" t="s">
@@ -3460,14 +3531,14 @@
       <c r="H138" s="1"/>
       <c r="I138" s="9"/>
       <c r="J138" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="15.6">
-      <c r="A139" s="26"/>
-      <c r="B139" s="24"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="16.899999999999999" customHeight="1">
+      <c r="A139" s="24"/>
+      <c r="B139" s="25"/>
       <c r="C139" s="20" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1" t="s">
@@ -3478,50 +3549,50 @@
       <c r="H139" s="1"/>
       <c r="I139" s="9"/>
       <c r="J139" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="15.6">
-      <c r="A140" s="26"/>
-      <c r="B140" s="24"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="16.899999999999999" customHeight="1">
+      <c r="A140" s="24"/>
+      <c r="B140" s="25"/>
       <c r="C140" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="9"/>
       <c r="J140" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="15.6">
-      <c r="A141" s="26"/>
-      <c r="B141" s="24"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="15.75">
+      <c r="A141" s="24"/>
+      <c r="B141" s="25"/>
       <c r="C141" s="20" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
+      <c r="E141" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
-      <c r="H141" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H141" s="1"/>
       <c r="I141" s="9"/>
       <c r="J141" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="15.6">
-      <c r="A142" s="26"/>
-      <c r="B142" s="24"/>
+    <row r="142" spans="1:10" ht="15.75">
+      <c r="A142" s="24"/>
+      <c r="B142" s="25"/>
       <c r="C142" s="20" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
@@ -3535,11 +3606,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15.6">
-      <c r="A143" s="26"/>
-      <c r="B143" s="24"/>
+    <row r="143" spans="1:10" ht="15.75">
+      <c r="A143" s="24"/>
+      <c r="B143" s="25"/>
       <c r="C143" s="20" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
@@ -3553,11 +3624,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15.6">
-      <c r="A144" s="26"/>
-      <c r="B144" s="24"/>
+    <row r="144" spans="1:10" ht="15.75">
+      <c r="A144" s="24"/>
+      <c r="B144" s="25"/>
       <c r="C144" s="20" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -3571,29 +3642,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="15.6">
-      <c r="A145" s="26"/>
-      <c r="B145" s="24"/>
+    <row r="145" spans="1:10" ht="15.75">
+      <c r="A145" s="24"/>
+      <c r="B145" s="25"/>
       <c r="C145" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
+      <c r="E145" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
-      <c r="H145" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H145" s="1"/>
       <c r="I145" s="9"/>
       <c r="J145" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="15.6">
-      <c r="A146" s="26"/>
-      <c r="B146" s="24"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="15.75">
+      <c r="A146" s="24"/>
+      <c r="B146" s="25"/>
       <c r="C146" s="20" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="s">
@@ -3604,55 +3675,55 @@
       <c r="H146" s="1"/>
       <c r="I146" s="9"/>
       <c r="J146" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="15.6">
-      <c r="A147" s="26"/>
-      <c r="B147" s="24"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="15.75">
+      <c r="A147" s="24"/>
+      <c r="B147" s="25"/>
       <c r="C147" s="20" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D147" s="1"/>
-      <c r="E147" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
+      <c r="H147" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I147" s="9"/>
       <c r="J147" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="15.6">
-      <c r="A148" s="26"/>
-      <c r="B148" s="24"/>
+    <row r="148" spans="1:10" ht="15.75">
+      <c r="A148" s="24"/>
+      <c r="B148" s="25"/>
       <c r="C148" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
+      <c r="H148" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I148" s="9"/>
       <c r="J148" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="15.6">
-      <c r="A149" s="26"/>
-      <c r="B149" s="24"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="15.75">
+      <c r="A149" s="24"/>
+      <c r="B149" s="25"/>
       <c r="C149" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E149" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -3661,16 +3732,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="15.6">
-      <c r="A150" s="26"/>
-      <c r="B150" s="24"/>
+    <row r="150" spans="1:10" ht="15.75">
+      <c r="A150" s="24"/>
+      <c r="B150" s="25"/>
       <c r="C150" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E150" s="1"/>
+        <v>155</v>
+      </c>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
@@ -3679,11 +3750,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="15.6">
-      <c r="A151" s="26"/>
-      <c r="B151" s="24"/>
+    <row r="151" spans="1:10" ht="15.75">
+      <c r="A151" s="24"/>
+      <c r="B151" s="25"/>
       <c r="C151" s="20" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>8</v>
@@ -3694,130 +3765,138 @@
       <c r="H151" s="1"/>
       <c r="I151" s="9"/>
       <c r="J151" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" ht="15.6">
-      <c r="A152" s="26"/>
-      <c r="B152" s="24"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="15.75">
+      <c r="A152" s="24"/>
+      <c r="B152" s="25"/>
       <c r="C152" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="D152" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
-      <c r="H152" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H152" s="1"/>
       <c r="I152" s="9"/>
       <c r="J152" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="15.6">
-      <c r="A153" s="26"/>
-      <c r="B153" s="24"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="15.75">
+      <c r="A153" s="24"/>
+      <c r="B153" s="25"/>
       <c r="C153" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="D153" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
-      <c r="H153" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H153" s="1"/>
       <c r="I153" s="9"/>
       <c r="J153" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" ht="15.6">
-      <c r="A154" s="26"/>
-      <c r="B154" s="24"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="15.75">
+      <c r="A154" s="24"/>
+      <c r="B154" s="25"/>
       <c r="C154" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="D154" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
-      <c r="H154" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H154" s="1"/>
       <c r="I154" s="9"/>
       <c r="J154" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" ht="15.6">
-      <c r="A155" s="26"/>
-      <c r="B155" s="24"/>
-      <c r="C155" s="3" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="15.75">
+      <c r="A155" s="24"/>
+      <c r="B155" s="25"/>
+      <c r="C155" s="20" t="s">
+        <v>160</v>
       </c>
       <c r="D155" s="1"/>
-      <c r="E155" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
+      <c r="H155" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I155" s="9"/>
-      <c r="J155" s="9"/>
-    </row>
-    <row r="156" spans="1:10" ht="15.6">
-      <c r="A156" s="26"/>
-      <c r="B156" s="24"/>
-      <c r="C156" s="7" t="s">
-        <v>23</v>
+      <c r="J155" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="15.75">
+      <c r="A156" s="24"/>
+      <c r="B156" s="25"/>
+      <c r="C156" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
+      <c r="H156" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I156" s="9"/>
-      <c r="J156" s="9"/>
-    </row>
-    <row r="157" spans="1:10" ht="15.6">
-      <c r="A157" s="26"/>
-      <c r="B157" s="24"/>
-      <c r="C157" s="6" t="s">
-        <v>116</v>
+      <c r="J156" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="15.75">
+      <c r="A157" s="24"/>
+      <c r="B157" s="25"/>
+      <c r="C157" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
-      <c r="G157" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I157" s="9"/>
-      <c r="J157" s="9"/>
-    </row>
-    <row r="158" spans="1:10" ht="15.6">
-      <c r="A158" s="26"/>
-      <c r="B158" s="24"/>
-      <c r="C158" s="6" t="s">
-        <v>117</v>
+      <c r="J157" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="15.75">
+      <c r="A158" s="24"/>
+      <c r="B158" s="25"/>
+      <c r="C158" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
+      <c r="E158" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
-      <c r="H158" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H158" s="1"/>
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
     </row>
-    <row r="159" spans="1:10" ht="15.6">
-      <c r="A159" s="26"/>
-      <c r="B159" s="24"/>
+    <row r="159" spans="1:10" ht="15.75">
+      <c r="A159" s="24"/>
+      <c r="B159" s="25"/>
       <c r="C159" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -3827,11 +3906,11 @@
       <c r="I159" s="9"/>
       <c r="J159" s="9"/>
     </row>
-    <row r="160" spans="1:10" ht="15.6">
-      <c r="A160" s="26"/>
-      <c r="B160" s="24"/>
+    <row r="160" spans="1:10" ht="15.75">
+      <c r="A160" s="24"/>
+      <c r="B160" s="25"/>
       <c r="C160" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -3843,11 +3922,11 @@
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
     </row>
-    <row r="161" spans="1:10" ht="15.6">
-      <c r="A161" s="26"/>
-      <c r="B161" s="24"/>
+    <row r="161" spans="1:10" ht="15.75">
+      <c r="A161" s="24"/>
+      <c r="B161" s="25"/>
       <c r="C161" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -3859,31 +3938,25 @@
       <c r="I161" s="9"/>
       <c r="J161" s="9"/>
     </row>
-    <row r="162" spans="1:10" ht="15.6" customHeight="1">
-      <c r="A162" s="25">
-        <v>6</v>
-      </c>
-      <c r="B162" s="24" t="s">
-        <v>7</v>
-      </c>
+    <row r="162" spans="1:10" ht="15.75">
+      <c r="A162" s="24"/>
+      <c r="B162" s="25"/>
       <c r="C162" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
-      <c r="G162" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="9"/>
       <c r="J162" s="9"/>
     </row>
-    <row r="163" spans="1:10" ht="15.6">
-      <c r="A163" s="26"/>
-      <c r="B163" s="24"/>
-      <c r="C163" s="7" t="s">
-        <v>119</v>
+    <row r="163" spans="1:10" ht="15.75">
+      <c r="A163" s="24"/>
+      <c r="B163" s="25"/>
+      <c r="C163" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -3895,141 +3968,142 @@
       <c r="I163" s="9"/>
       <c r="J163" s="9"/>
     </row>
-    <row r="164" spans="1:10" ht="15.6">
-      <c r="A164" s="26"/>
-      <c r="B164" s="24"/>
-      <c r="C164" s="7" t="s">
-        <v>27</v>
+    <row r="164" spans="1:10" ht="15.75">
+      <c r="A164" s="24"/>
+      <c r="B164" s="25"/>
+      <c r="C164" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
-      <c r="G164" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I164" s="9"/>
       <c r="J164" s="9"/>
     </row>
-    <row r="165" spans="1:10">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="D165" s="2">
-        <f>COUNTA(D2:D164)</f>
+    <row r="165" spans="1:10" ht="15.6" customHeight="1">
+      <c r="A165" s="23">
+        <v>6</v>
+      </c>
+      <c r="B165" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H165" s="1"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="9"/>
+    </row>
+    <row r="166" spans="1:10" ht="15.75">
+      <c r="A166" s="24"/>
+      <c r="B166" s="25"/>
+      <c r="C166" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H166" s="1"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="9"/>
+    </row>
+    <row r="167" spans="1:10" ht="15.75">
+      <c r="A167" s="24"/>
+      <c r="B167" s="25"/>
+      <c r="C167" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H167" s="1"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="9"/>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D168" s="2">
+        <f>COUNTA(D2:D167)</f>
         <v>29</v>
       </c>
-      <c r="E165" s="2">
-        <f>COUNTA(E2:E164)</f>
+      <c r="E168" s="2">
+        <f>COUNTA(E2:E167)</f>
         <v>27</v>
       </c>
-      <c r="F165" s="2">
-        <f>COUNTA(F2:F164)</f>
+      <c r="F168" s="2">
+        <f>COUNTA(F2:F167)</f>
         <v>25</v>
       </c>
-      <c r="G165" s="2">
-        <f>COUNTA(G2:G164)</f>
-        <v>31</v>
-      </c>
-      <c r="H165" s="2">
-        <f>COUNTA(H2:H164)</f>
-        <v>22</v>
-      </c>
-      <c r="I165" s="2"/>
-      <c r="J165" s="2"/>
-    </row>
-    <row r="166" spans="1:10">
-      <c r="A166" s="14" t="s">
+      <c r="G168" s="2">
+        <f>COUNTA(G2:G167)</f>
+        <v>32</v>
+      </c>
+      <c r="H168" s="2">
+        <f>COUNTA(H2:H167)</f>
+        <v>24</v>
+      </c>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B166" s="2"/>
-      <c r="C166" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="D166" s="2">
-        <f>SUMIF(D2:D164,"=O",$J$2:$J$164)</f>
+      <c r="B169" s="2"/>
+      <c r="C169" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D169" s="2">
+        <f>SUMIF(D2:D167,"=O",$J$2:$J$167)</f>
         <v>29</v>
       </c>
-      <c r="E166" s="2">
-        <f>SUMIF(E2:E164,"=O",$J$2:$J$164)</f>
+      <c r="E169" s="2">
+        <f>SUMIF(E2:E167,"=O",$J$2:$J$167)</f>
         <v>19</v>
       </c>
-      <c r="F166" s="2">
-        <f>SUMIF(F2:F164,"=O",$J$2:$J$164)</f>
+      <c r="F169" s="2">
+        <f>SUMIF(F2:F167,"=O",$J$2:$J$167)</f>
         <v>21</v>
       </c>
-      <c r="G166" s="2">
-        <f>SUMIF(G2:G164,"=O",$J$2:$J$164)</f>
+      <c r="G169" s="2">
+        <f>SUMIF(G2:G167,"=O",$J$2:$J$167)</f>
         <v>10</v>
       </c>
-      <c r="H166" s="2">
-        <f>SUMIF(H2:H164,"=O",$J$2:$J$164)</f>
+      <c r="H169" s="2">
+        <f>SUMIF(H2:H167,"=O",$J$2:$J$167)</f>
         <v>10</v>
       </c>
-      <c r="J166" s="2"/>
-    </row>
-    <row r="167" spans="1:10">
-      <c r="A167" s="15" t="s">
+      <c r="J169" s="2"/>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B167" s="15" t="s">
+      <c r="B170" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C170" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
-      <c r="J167" s="2"/>
-    </row>
-    <row r="168" spans="1:10" ht="55.2">
-      <c r="A168" s="15">
-        <v>1</v>
-      </c>
-      <c r="B168" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C168" s="3">
-        <v>1</v>
-      </c>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
-      <c r="J168" s="2"/>
-    </row>
-    <row r="169" spans="1:10" ht="27.6">
-      <c r="A169" s="17">
-        <v>2</v>
-      </c>
-      <c r="B169" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C169" s="17">
-        <v>2</v>
-      </c>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
-      <c r="J169" s="2"/>
-    </row>
-    <row r="170" spans="1:10" ht="27.6">
-      <c r="A170" s="17">
-        <v>3</v>
-      </c>
-      <c r="B170" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C170" s="17">
-        <v>3</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -4038,15 +4112,15 @@
       <c r="H170" s="2"/>
       <c r="J170" s="2"/>
     </row>
-    <row r="171" spans="1:10" ht="27.6">
-      <c r="A171" s="17">
-        <v>4</v>
+    <row r="171" spans="1:10" ht="60">
+      <c r="A171" s="15">
+        <v>1</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C171" s="17">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -4055,15 +4129,15 @@
       <c r="H171" s="2"/>
       <c r="J171" s="2"/>
     </row>
-    <row r="172" spans="1:10" ht="27.6">
+    <row r="172" spans="1:10" ht="30">
       <c r="A172" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C172" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -4072,7 +4146,16 @@
       <c r="H172" s="2"/>
       <c r="J172" s="2"/>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" ht="30">
+      <c r="A173" s="17">
+        <v>3</v>
+      </c>
+      <c r="B173" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C173" s="17">
+        <v>3</v>
+      </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
@@ -4080,7 +4163,16 @@
       <c r="H173" s="2"/>
       <c r="J173" s="2"/>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" ht="30">
+      <c r="A174" s="17">
+        <v>4</v>
+      </c>
+      <c r="B174" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C174" s="17">
+        <v>4</v>
+      </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -4088,7 +4180,16 @@
       <c r="H174" s="2"/>
       <c r="J174" s="2"/>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" ht="30">
+      <c r="A175" s="17">
+        <v>5</v>
+      </c>
+      <c r="B175" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C175" s="17">
+        <v>5</v>
+      </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
@@ -4192,23 +4293,47 @@
       <c r="H187" s="2"/>
       <c r="J187" s="2"/>
     </row>
+    <row r="188" spans="4:10">
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="J188" s="2"/>
+    </row>
+    <row r="189" spans="4:10">
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="J189" s="2"/>
+    </row>
+    <row r="190" spans="4:10">
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="J190" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="B98:B161"/>
-    <mergeCell ref="A98:A161"/>
-    <mergeCell ref="B46:B97"/>
-    <mergeCell ref="A46:A97"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B45"/>
     <mergeCell ref="A11:A45"/>
     <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="B101:B164"/>
+    <mergeCell ref="A101:A164"/>
+    <mergeCell ref="B46:B100"/>
+    <mergeCell ref="A46:A100"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D167:H185 D2:H164">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D170:H188 D2:H167">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -4224,7 +4349,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4236,7 +4361,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/Reports/TasksheetFinal.xlsx
+++ b/Document/Reports/TasksheetFinal.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="183">
   <si>
     <t>No.</t>
   </si>
@@ -670,6 +670,9 @@
   </si>
   <si>
     <t>Active User</t>
+  </si>
+  <si>
+    <t>Login</t>
   </si>
 </sst>
 </file>
@@ -887,22 +890,22 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1278,10 +1281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J190"/>
+  <dimension ref="A1:J191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="G119" sqref="G119"/>
+    <sheetView tabSelected="1" topLeftCell="B158" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1327,10 +1330,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75">
-      <c r="A2" s="28">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -1347,8 +1350,8 @@
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
@@ -1363,8 +1366,8 @@
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="15.75">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
@@ -1379,8 +1382,8 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1395,8 +1398,8 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="15.75">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="3" t="s">
         <v>51</v>
       </c>
@@ -1411,10 +1414,10 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="15.75">
-      <c r="A7" s="25">
+      <c r="A7" s="24">
         <v>2</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1431,8 +1434,8 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="15.75">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1447,8 +1450,8 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="15.75">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1463,8 +1466,8 @@
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="15.75">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1479,10 +1482,10 @@
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="15.75">
-      <c r="A11" s="25">
+      <c r="A11" s="24">
         <v>3</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1499,8 +1502,8 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="15.75">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1513,8 +1516,8 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="15.75">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="18" t="s">
         <v>15</v>
       </c>
@@ -1529,8 +1532,8 @@
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" ht="15.75">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="19" t="s">
         <v>16</v>
       </c>
@@ -1543,8 +1546,8 @@
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" ht="15.75">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="19" t="s">
         <v>53</v>
       </c>
@@ -1557,8 +1560,8 @@
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" ht="15.75">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="20" t="s">
         <v>54</v>
       </c>
@@ -1573,8 +1576,8 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="15.75">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="20" t="s">
         <v>55</v>
       </c>
@@ -1589,8 +1592,8 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" ht="15.75">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="20" t="s">
         <v>56</v>
       </c>
@@ -1605,8 +1608,8 @@
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" ht="15.75">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="20" t="s">
         <v>57</v>
       </c>
@@ -1621,8 +1624,8 @@
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" ht="15.75">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="20" t="s">
         <v>58</v>
       </c>
@@ -1637,8 +1640,8 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" ht="15.75">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="20" t="s">
         <v>59</v>
       </c>
@@ -1653,8 +1656,8 @@
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" ht="15.75">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="20" t="s">
         <v>60</v>
       </c>
@@ -1669,8 +1672,8 @@
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" ht="15.75">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="20" t="s">
         <v>61</v>
       </c>
@@ -1685,72 +1688,72 @@
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" ht="15.75">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="19" t="s">
-        <v>62</v>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="20" t="s">
+        <v>182</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" ht="15.75">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="20" t="s">
-        <v>63</v>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" ht="15.75">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" ht="15.75">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" ht="15.75">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
@@ -1763,10 +1766,10 @@
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" ht="15.75">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
@@ -1779,58 +1782,58 @@
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" ht="15.75">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H30" s="1"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" ht="15.75">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" ht="15.75">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
     </row>
     <row r="33" spans="1:10" ht="15.75">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>8</v>
@@ -1843,15 +1846,15 @@
       <c r="J33" s="9"/>
     </row>
     <row r="34" spans="1:10" ht="15.75">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1859,120 +1862,120 @@
       <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:10" ht="15.75">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="20" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H35" s="1"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10" ht="15.75">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:10" ht="15.75">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
     </row>
     <row r="38" spans="1:10" ht="15.75">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H38" s="1"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" ht="15.75">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="20" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
     </row>
     <row r="40" spans="1:10" ht="15.75">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="19" t="s">
-        <v>17</v>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
     </row>
     <row r="41" spans="1:10" ht="15.75">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="20" t="s">
-        <v>18</v>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H41" s="1"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10" ht="15.75">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1985,10 +1988,10 @@
       <c r="J42" s="9"/>
     </row>
     <row r="43" spans="1:10" ht="15.75">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="20" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2001,10 +2004,10 @@
       <c r="J43" s="9"/>
     </row>
     <row r="44" spans="1:10" ht="15.75">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2017,35 +2020,31 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="1:10" ht="15.75">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="3" t="s">
-        <v>20</v>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
     </row>
     <row r="46" spans="1:10" ht="15.75">
-      <c r="A46" s="26">
-        <v>4</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>6</v>
-      </c>
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -2053,12 +2052,18 @@
       <c r="J46" s="9"/>
     </row>
     <row r="47" spans="1:10" ht="15.75">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
+      <c r="A47" s="27">
+        <v>4</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="C47" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2067,12 +2072,14 @@
       <c r="J47" s="9"/>
     </row>
     <row r="48" spans="1:10" ht="15.75">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="1"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -2081,44 +2088,42 @@
       <c r="J48" s="9"/>
     </row>
     <row r="49" spans="1:10" ht="15.75">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="6" t="s">
-        <v>77</v>
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H49" s="1"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
     </row>
     <row r="50" spans="1:10" ht="15.75">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="H50" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
     </row>
     <row r="51" spans="1:10" ht="15.75">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
       <c r="C51" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2127,26 +2132,26 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="1:10" ht="15.75">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D52" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H52" s="1"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
     </row>
     <row r="53" spans="1:10" ht="15.75">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
       <c r="C53" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2159,120 +2164,122 @@
       <c r="J53" s="9"/>
     </row>
     <row r="54" spans="1:10" ht="15.75">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
     </row>
     <row r="55" spans="1:10" ht="15.75">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D55" s="1"/>
-      <c r="E55" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H55" s="1"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
     </row>
     <row r="56" spans="1:10" ht="15.75">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
       <c r="C56" s="6" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
     </row>
     <row r="57" spans="1:10" ht="15.75">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
       <c r="C57" s="6" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="D57" s="1"/>
-      <c r="E57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
     </row>
     <row r="58" spans="1:10" ht="15.75">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
       <c r="C58" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
     </row>
     <row r="59" spans="1:10" ht="15.75">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
       <c r="C59" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
     </row>
     <row r="60" spans="1:10" ht="15.75">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="4" t="s">
-        <v>87</v>
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H60" s="1"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
     </row>
     <row r="61" spans="1:10" ht="15.75">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="21" t="s">
-        <v>101</v>
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2283,42 +2290,40 @@
       <c r="J61" s="9"/>
     </row>
     <row r="62" spans="1:10" ht="15.75">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="6" t="s">
-        <v>93</v>
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
     </row>
     <row r="63" spans="1:10" ht="15.75">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H63" s="1"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
     </row>
     <row r="64" spans="1:10" ht="15.75">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
       <c r="C64" s="6" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>8</v>
@@ -2331,58 +2336,58 @@
       <c r="J64" s="9"/>
     </row>
     <row r="65" spans="1:10" ht="15.75">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
       <c r="C65" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D65" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
     </row>
     <row r="66" spans="1:10" ht="15.75">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
       <c r="C66" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1"/>
-      <c r="E66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
     </row>
     <row r="67" spans="1:10" ht="15.75">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
       <c r="C67" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+      <c r="E67" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F67" s="1"/>
-      <c r="G67" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
     </row>
     <row r="68" spans="1:10" ht="15.75">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="28"/>
       <c r="C68" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2395,42 +2400,42 @@
       <c r="J68" s="9"/>
     </row>
     <row r="69" spans="1:10" ht="15.75">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
       <c r="C69" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H69" s="1"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
     </row>
     <row r="70" spans="1:10" ht="15.75">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
       <c r="C70" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
     </row>
     <row r="71" spans="1:10" ht="15.75">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
       <c r="C71" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2443,61 +2448,61 @@
       <c r="J71" s="9"/>
     </row>
     <row r="72" spans="1:10" ht="15.75">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="5" t="s">
-        <v>62</v>
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H72" s="1"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
     </row>
     <row r="73" spans="1:10" ht="15.75">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="6" t="s">
-        <v>88</v>
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
     </row>
     <row r="74" spans="1:10" ht="15.75">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
       <c r="C74" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D74" s="1"/>
-      <c r="E74" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H74" s="1"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
     </row>
     <row r="75" spans="1:10" ht="15.75">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
       <c r="C75" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -2505,15 +2510,15 @@
       <c r="J75" s="9"/>
     </row>
     <row r="76" spans="1:10" ht="15.75">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
       <c r="C76" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -2521,15 +2526,15 @@
       <c r="J76" s="9"/>
     </row>
     <row r="77" spans="1:10" ht="15.75">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
       <c r="C77" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -2537,12 +2542,14 @@
       <c r="J77" s="9"/>
     </row>
     <row r="78" spans="1:10" ht="15.75">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
       <c r="C78" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D78" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -2551,14 +2558,12 @@
       <c r="J78" s="9"/>
     </row>
     <row r="79" spans="1:10" ht="15.75">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
       <c r="C79" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -2567,15 +2572,15 @@
       <c r="J79" s="9"/>
     </row>
     <row r="80" spans="1:10" ht="15.75">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
       <c r="C80" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -2583,26 +2588,26 @@
       <c r="J80" s="9"/>
     </row>
     <row r="81" spans="1:10" ht="15.75">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
       <c r="C81" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F81" s="1"/>
-      <c r="G81" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
     </row>
     <row r="82" spans="1:10" ht="15.75">
-      <c r="A82" s="27"/>
-      <c r="B82" s="27"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
       <c r="C82" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -2615,10 +2620,10 @@
       <c r="J82" s="9"/>
     </row>
     <row r="83" spans="1:10" ht="15.75">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
       <c r="C83" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -2631,26 +2636,26 @@
       <c r="J83" s="9"/>
     </row>
     <row r="84" spans="1:10" ht="15.75">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
+      <c r="A84" s="28"/>
+      <c r="B84" s="28"/>
       <c r="C84" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H84" s="1"/>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
     </row>
     <row r="85" spans="1:10" ht="15.75">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
+      <c r="A85" s="28"/>
+      <c r="B85" s="28"/>
       <c r="C85" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -2663,171 +2668,171 @@
       <c r="J85" s="9"/>
     </row>
     <row r="86" spans="1:10" ht="15.75">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="7" t="s">
-        <v>22</v>
+      <c r="A86" s="28"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
+      <c r="F86" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
     </row>
     <row r="87" spans="1:10" ht="15.75">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="6" t="s">
-        <v>105</v>
+      <c r="A87" s="28"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
     </row>
     <row r="88" spans="1:10" ht="15.75">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
+      <c r="A88" s="28"/>
+      <c r="B88" s="28"/>
       <c r="C88" s="6" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="D88" s="1"/>
-      <c r="E88" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
+      <c r="G88" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H88" s="1"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
     </row>
     <row r="89" spans="1:10" ht="15.75">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
+      <c r="A89" s="28"/>
+      <c r="B89" s="28"/>
       <c r="C89" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
     </row>
     <row r="90" spans="1:10" ht="15.75">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="28"/>
       <c r="C90" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
     </row>
     <row r="91" spans="1:10" ht="15.75">
-      <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="28"/>
       <c r="C91" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
+      <c r="G91" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H91" s="1"/>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
     </row>
     <row r="92" spans="1:10" ht="15.75">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="28"/>
       <c r="C92" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D92" s="1"/>
+        <v>178</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H92" s="1"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
     </row>
     <row r="93" spans="1:10" ht="15.75">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="28"/>
       <c r="C93" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
     </row>
     <row r="94" spans="1:10" ht="15.75">
-      <c r="A94" s="27"/>
-      <c r="B94" s="27"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="28"/>
       <c r="C94" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="1"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
     </row>
     <row r="95" spans="1:10" ht="15.75">
-      <c r="A95" s="27"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="7" t="s">
-        <v>107</v>
+      <c r="A95" s="28"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
+      <c r="H95" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
     </row>
     <row r="96" spans="1:10" ht="15.75">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="6" t="s">
-        <v>108</v>
+      <c r="A96" s="28"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="D96" s="1"/>
-      <c r="E96" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -2835,15 +2840,15 @@
       <c r="J96" s="9"/>
     </row>
     <row r="97" spans="1:10" ht="15.75">
-      <c r="A97" s="27"/>
-      <c r="B97" s="27"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="28"/>
       <c r="C97" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -2851,12 +2856,14 @@
       <c r="J97" s="9"/>
     </row>
     <row r="98" spans="1:10" ht="15.75">
-      <c r="A98" s="27"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D98" s="1"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -2865,15 +2872,13 @@
       <c r="J98" s="9"/>
     </row>
     <row r="99" spans="1:10" ht="15.75">
-      <c r="A99" s="27"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="6" t="s">
-        <v>110</v>
+      <c r="A99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="D99" s="1"/>
-      <c r="E99" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -2884,71 +2889,73 @@
       <c r="A100" s="28"/>
       <c r="B100" s="28"/>
       <c r="C100" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
+      <c r="E100" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F100" s="1"/>
-      <c r="G100" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
     </row>
     <row r="101" spans="1:10" ht="15.75">
-      <c r="A101" s="23">
-        <v>5</v>
-      </c>
-      <c r="B101" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>25</v>
+      <c r="A101" s="23"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
+      <c r="G101" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H101" s="1"/>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
     </row>
     <row r="102" spans="1:10" ht="15.75">
-      <c r="A102" s="24"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="3" t="s">
-        <v>114</v>
+      <c r="A102" s="25">
+        <v>5</v>
+      </c>
+      <c r="B102" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
     </row>
     <row r="103" spans="1:10" ht="15.75">
-      <c r="A103" s="24"/>
-      <c r="B103" s="25"/>
+      <c r="A103" s="26"/>
+      <c r="B103" s="24"/>
       <c r="C103" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
+      <c r="G103" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H103" s="1"/>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
     </row>
     <row r="104" spans="1:10" ht="15.75">
-      <c r="A104" s="24"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="21" t="s">
-        <v>141</v>
+      <c r="A104" s="26"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -2959,10 +2966,10 @@
       <c r="J104" s="9"/>
     </row>
     <row r="105" spans="1:10" ht="15.75">
-      <c r="A105" s="24"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="19" t="s">
-        <v>121</v>
+      <c r="A105" s="26"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="21" t="s">
+        <v>141</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -2973,28 +2980,24 @@
       <c r="J105" s="9"/>
     </row>
     <row r="106" spans="1:10" ht="15.75">
-      <c r="A106" s="24"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A106" s="26"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="9"/>
-      <c r="J106" s="9">
-        <v>2</v>
-      </c>
+      <c r="J106" s="9"/>
     </row>
     <row r="107" spans="1:10" ht="15.75">
-      <c r="A107" s="24"/>
-      <c r="B107" s="25"/>
+      <c r="A107" s="26"/>
+      <c r="B107" s="24"/>
       <c r="C107" s="20" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>8</v>
@@ -3005,14 +3008,14 @@
       <c r="H107" s="1"/>
       <c r="I107" s="9"/>
       <c r="J107" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="15.75">
-      <c r="A108" s="24"/>
-      <c r="B108" s="25"/>
+      <c r="A108" s="26"/>
+      <c r="B108" s="24"/>
       <c r="C108" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>8</v>
@@ -3027,10 +3030,10 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="15.75">
-      <c r="A109" s="24"/>
-      <c r="B109" s="25"/>
+      <c r="A109" s="26"/>
+      <c r="B109" s="24"/>
       <c r="C109" s="20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>8</v>
@@ -3041,46 +3044,46 @@
       <c r="H109" s="1"/>
       <c r="I109" s="9"/>
       <c r="J109" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="15.75">
-      <c r="A110" s="24"/>
-      <c r="B110" s="25"/>
-      <c r="C110" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D110" s="1"/>
+      <c r="A110" s="26"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="9"/>
-      <c r="J110" s="9"/>
+      <c r="J110" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="111" spans="1:10" ht="15.75">
-      <c r="A111" s="24"/>
-      <c r="B111" s="25"/>
-      <c r="C111" s="20" t="s">
-        <v>165</v>
+      <c r="A111" s="26"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="9"/>
-      <c r="J111" s="9">
-        <v>2</v>
-      </c>
+      <c r="J111" s="9"/>
     </row>
     <row r="112" spans="1:10" ht="15.75">
-      <c r="A112" s="24"/>
-      <c r="B112" s="25"/>
+      <c r="A112" s="26"/>
+      <c r="B112" s="24"/>
       <c r="C112" s="20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -3091,14 +3094,14 @@
       <c r="H112" s="1"/>
       <c r="I112" s="9"/>
       <c r="J112" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="15.75">
-      <c r="A113" s="24"/>
-      <c r="B113" s="25"/>
+      <c r="A113" s="26"/>
+      <c r="B113" s="24"/>
       <c r="C113" s="20" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -3109,46 +3112,46 @@
       <c r="H113" s="1"/>
       <c r="I113" s="9"/>
       <c r="J113" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="15.75">
-      <c r="A114" s="24"/>
-      <c r="B114" s="25"/>
-      <c r="C114" s="19" t="s">
-        <v>126</v>
+      <c r="A114" s="26"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
+      <c r="F114" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
+      <c r="J114" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="115" spans="1:10" ht="15.75">
-      <c r="A115" s="24"/>
-      <c r="B115" s="25"/>
-      <c r="C115" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A115" s="26"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="9"/>
-      <c r="J115" s="9">
-        <v>3</v>
-      </c>
+      <c r="J115" s="9"/>
     </row>
     <row r="116" spans="1:10" ht="15.75">
-      <c r="A116" s="24"/>
-      <c r="B116" s="25"/>
+      <c r="A116" s="26"/>
+      <c r="B116" s="24"/>
       <c r="C116" s="20" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>8</v>
@@ -3159,14 +3162,14 @@
       <c r="H116" s="1"/>
       <c r="I116" s="9"/>
       <c r="J116" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="15.75">
-      <c r="A117" s="24"/>
-      <c r="B117" s="25"/>
+      <c r="A117" s="26"/>
+      <c r="B117" s="24"/>
       <c r="C117" s="20" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>8</v>
@@ -3177,46 +3180,46 @@
       <c r="H117" s="1"/>
       <c r="I117" s="9"/>
       <c r="J117" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="15.75">
-      <c r="A118" s="24"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D118" s="1"/>
+      <c r="A118" s="26"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="9"/>
-      <c r="J118" s="9"/>
+      <c r="J118" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="119" spans="1:10" ht="15.75">
-      <c r="A119" s="24"/>
-      <c r="B119" s="25"/>
-      <c r="C119" s="20" t="s">
-        <v>130</v>
+      <c r="A119" s="26"/>
+      <c r="B119" s="24"/>
+      <c r="C119" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
-      <c r="G119" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="9"/>
-      <c r="J119" s="9">
-        <v>3</v>
-      </c>
+      <c r="J119" s="9"/>
     </row>
     <row r="120" spans="1:10" ht="15.75">
-      <c r="A120" s="24"/>
-      <c r="B120" s="25"/>
+      <c r="A120" s="26"/>
+      <c r="B120" s="24"/>
       <c r="C120" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -3227,46 +3230,46 @@
       <c r="H120" s="1"/>
       <c r="I120" s="9"/>
       <c r="J120" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="15.75">
-      <c r="A121" s="24"/>
-      <c r="B121" s="25"/>
-      <c r="C121" s="19" t="s">
-        <v>132</v>
+      <c r="A121" s="26"/>
+      <c r="B121" s="24"/>
+      <c r="C121" s="20" t="s">
+        <v>131</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
+      <c r="G121" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H121" s="1"/>
       <c r="I121" s="9"/>
-      <c r="J121" s="9"/>
+      <c r="J121" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="122" spans="1:10" ht="15.75">
-      <c r="A122" s="24"/>
-      <c r="B122" s="25"/>
-      <c r="C122" s="20" t="s">
-        <v>133</v>
+      <c r="A122" s="26"/>
+      <c r="B122" s="24"/>
+      <c r="C122" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="9"/>
-      <c r="J122" s="9">
-        <v>3</v>
-      </c>
+      <c r="J122" s="9"/>
     </row>
     <row r="123" spans="1:10" ht="15.75">
-      <c r="A123" s="24"/>
-      <c r="B123" s="25"/>
+      <c r="A123" s="26"/>
+      <c r="B123" s="24"/>
       <c r="C123" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -3277,46 +3280,46 @@
       <c r="H123" s="1"/>
       <c r="I123" s="9"/>
       <c r="J123" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="15.75">
-      <c r="A124" s="24"/>
-      <c r="B124" s="25"/>
-      <c r="C124" s="19" t="s">
-        <v>135</v>
+      <c r="A124" s="26"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
+      <c r="F124" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
+      <c r="J124" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="125" spans="1:10" ht="15.75">
-      <c r="A125" s="24"/>
-      <c r="B125" s="25"/>
-      <c r="C125" s="20" t="s">
-        <v>173</v>
+      <c r="A125" s="26"/>
+      <c r="B125" s="24"/>
+      <c r="C125" s="19" t="s">
+        <v>135</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
-      <c r="G125" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="9"/>
-      <c r="J125" s="9">
-        <v>1</v>
-      </c>
+      <c r="J125" s="9"/>
     </row>
     <row r="126" spans="1:10" ht="15.75">
-      <c r="A126" s="24"/>
-      <c r="B126" s="25"/>
+      <c r="A126" s="26"/>
+      <c r="B126" s="24"/>
       <c r="C126" s="20" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -3331,42 +3334,42 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="15.75">
-      <c r="A127" s="24"/>
-      <c r="B127" s="25"/>
-      <c r="C127" s="19" t="s">
-        <v>137</v>
+      <c r="A127" s="26"/>
+      <c r="B127" s="24"/>
+      <c r="C127" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
+      <c r="G127" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H127" s="1"/>
       <c r="I127" s="9"/>
-      <c r="J127" s="9"/>
+      <c r="J127" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" spans="1:10" ht="15.75">
-      <c r="A128" s="24"/>
-      <c r="B128" s="25"/>
-      <c r="C128" s="20" t="s">
-        <v>174</v>
+      <c r="A128" s="26"/>
+      <c r="B128" s="24"/>
+      <c r="C128" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="9"/>
-      <c r="J128" s="9">
-        <v>1</v>
-      </c>
+      <c r="J128" s="9"/>
     </row>
     <row r="129" spans="1:10" ht="15.75">
-      <c r="A129" s="24"/>
-      <c r="B129" s="25"/>
+      <c r="A129" s="26"/>
+      <c r="B129" s="24"/>
       <c r="C129" s="20" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -3377,14 +3380,14 @@
       <c r="H129" s="1"/>
       <c r="I129" s="9"/>
       <c r="J129" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="15.75">
-      <c r="A130" s="24"/>
-      <c r="B130" s="25"/>
+      <c r="A130" s="26"/>
+      <c r="B130" s="24"/>
       <c r="C130" s="20" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -3395,78 +3398,78 @@
       <c r="H130" s="1"/>
       <c r="I130" s="9"/>
       <c r="J130" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="15.75">
-      <c r="A131" s="24"/>
-      <c r="B131" s="25"/>
-      <c r="C131" s="19" t="s">
-        <v>139</v>
+      <c r="A131" s="26"/>
+      <c r="B131" s="24"/>
+      <c r="C131" s="20" t="s">
+        <v>167</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
+      <c r="F131" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="9"/>
+      <c r="J131" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="132" spans="1:10" ht="15.75">
-      <c r="A132" s="24"/>
-      <c r="B132" s="25"/>
-      <c r="C132" s="20" t="s">
-        <v>140</v>
+      <c r="A132" s="26"/>
+      <c r="B132" s="24"/>
+      <c r="C132" s="19" t="s">
+        <v>139</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-      <c r="G132" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="9"/>
-      <c r="J132" s="9">
-        <v>3</v>
-      </c>
+      <c r="J132" s="9"/>
     </row>
     <row r="133" spans="1:10" ht="15.75">
-      <c r="A133" s="24"/>
-      <c r="B133" s="25"/>
-      <c r="C133" s="21" t="s">
-        <v>142</v>
+      <c r="A133" s="26"/>
+      <c r="B133" s="24"/>
+      <c r="C133" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
+      <c r="G133" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H133" s="1"/>
       <c r="I133" s="9"/>
-      <c r="J133" s="9"/>
+      <c r="J133" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="134" spans="1:10" ht="15.75">
-      <c r="A134" s="24"/>
-      <c r="B134" s="25"/>
-      <c r="C134" s="20" t="s">
-        <v>143</v>
+      <c r="A134" s="26"/>
+      <c r="B134" s="24"/>
+      <c r="C134" s="21" t="s">
+        <v>142</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
-      <c r="H134" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H134" s="1"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="9">
-        <v>1</v>
-      </c>
+      <c r="J134" s="9"/>
     </row>
     <row r="135" spans="1:10" ht="15.75">
-      <c r="A135" s="24"/>
-      <c r="B135" s="25"/>
+      <c r="A135" s="26"/>
+      <c r="B135" s="24"/>
       <c r="C135" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -3481,28 +3484,28 @@
       </c>
     </row>
     <row r="136" spans="1:10" ht="15.75">
-      <c r="A136" s="24"/>
-      <c r="B136" s="25"/>
+      <c r="A136" s="26"/>
+      <c r="B136" s="24"/>
       <c r="C136" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F136" s="1"/>
       <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
+      <c r="H136" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="15.75">
-      <c r="A137" s="24"/>
-      <c r="B137" s="25"/>
+      <c r="A137" s="26"/>
+      <c r="B137" s="24"/>
       <c r="C137" s="20" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -3513,32 +3516,32 @@
       <c r="H137" s="1"/>
       <c r="I137" s="9"/>
       <c r="J137" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="15.75">
-      <c r="A138" s="24"/>
-      <c r="B138" s="25"/>
+      <c r="A138" s="26"/>
+      <c r="B138" s="24"/>
       <c r="C138" s="20" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="D138" s="1"/>
-      <c r="E138" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="9"/>
       <c r="J138" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="16.899999999999999" customHeight="1">
-      <c r="A139" s="24"/>
-      <c r="B139" s="25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="15.75">
+      <c r="A139" s="26"/>
+      <c r="B139" s="24"/>
       <c r="C139" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1" t="s">
@@ -3549,50 +3552,50 @@
       <c r="H139" s="1"/>
       <c r="I139" s="9"/>
       <c r="J139" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="16.899999999999999" customHeight="1">
-      <c r="A140" s="24"/>
-      <c r="B140" s="25"/>
+      <c r="A140" s="26"/>
+      <c r="B140" s="24"/>
       <c r="C140" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E140" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="9"/>
       <c r="J140" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="15.75">
-      <c r="A141" s="24"/>
-      <c r="B141" s="25"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="16.899999999999999" customHeight="1">
+      <c r="A141" s="26"/>
+      <c r="B141" s="24"/>
       <c r="C141" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="9"/>
       <c r="J141" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="15.75">
-      <c r="A142" s="24"/>
-      <c r="B142" s="25"/>
+      <c r="A142" s="26"/>
+      <c r="B142" s="24"/>
       <c r="C142" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
@@ -3607,10 +3610,10 @@
       </c>
     </row>
     <row r="143" spans="1:10" ht="15.75">
-      <c r="A143" s="24"/>
-      <c r="B143" s="25"/>
+      <c r="A143" s="26"/>
+      <c r="B143" s="24"/>
       <c r="C143" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
@@ -3621,50 +3624,50 @@
       <c r="H143" s="1"/>
       <c r="I143" s="9"/>
       <c r="J143" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="15.75">
-      <c r="A144" s="24"/>
-      <c r="B144" s="25"/>
+      <c r="A144" s="26"/>
+      <c r="B144" s="24"/>
       <c r="C144" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
+      <c r="E144" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
-      <c r="H144" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H144" s="1"/>
       <c r="I144" s="9"/>
       <c r="J144" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="15.75">
-      <c r="A145" s="24"/>
-      <c r="B145" s="25"/>
+      <c r="A145" s="26"/>
+      <c r="B145" s="24"/>
       <c r="C145" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D145" s="1"/>
-      <c r="E145" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
+      <c r="H145" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="15.75">
-      <c r="A146" s="24"/>
-      <c r="B146" s="25"/>
+      <c r="A146" s="26"/>
+      <c r="B146" s="24"/>
       <c r="C146" s="20" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="s">
@@ -3675,32 +3678,32 @@
       <c r="H146" s="1"/>
       <c r="I146" s="9"/>
       <c r="J146" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="15.75">
-      <c r="A147" s="24"/>
-      <c r="B147" s="25"/>
+      <c r="A147" s="26"/>
+      <c r="B147" s="24"/>
       <c r="C147" s="20" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
+      <c r="E147" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
-      <c r="H147" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H147" s="1"/>
       <c r="I147" s="9"/>
       <c r="J147" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="15.75">
-      <c r="A148" s="24"/>
-      <c r="B148" s="25"/>
+      <c r="A148" s="26"/>
+      <c r="B148" s="24"/>
       <c r="C148" s="20" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -3711,32 +3714,32 @@
       </c>
       <c r="I148" s="9"/>
       <c r="J148" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="15.75">
-      <c r="A149" s="24"/>
-      <c r="B149" s="25"/>
+      <c r="A149" s="26"/>
+      <c r="B149" s="24"/>
       <c r="C149" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D149" s="1"/>
-      <c r="E149" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
+      <c r="H149" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I149" s="9"/>
       <c r="J149" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="15.75">
-      <c r="A150" s="24"/>
-      <c r="B150" s="25"/>
+      <c r="A150" s="26"/>
+      <c r="B150" s="24"/>
       <c r="C150" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="s">
@@ -3751,28 +3754,28 @@
       </c>
     </row>
     <row r="151" spans="1:10" ht="15.75">
-      <c r="A151" s="24"/>
-      <c r="B151" s="25"/>
+      <c r="A151" s="26"/>
+      <c r="B151" s="24"/>
       <c r="C151" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E151" s="1"/>
+        <v>155</v>
+      </c>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="9"/>
       <c r="J151" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="15.75">
-      <c r="A152" s="24"/>
-      <c r="B152" s="25"/>
+      <c r="A152" s="26"/>
+      <c r="B152" s="24"/>
       <c r="C152" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>8</v>
@@ -3783,14 +3786,14 @@
       <c r="H152" s="1"/>
       <c r="I152" s="9"/>
       <c r="J152" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="15.75">
-      <c r="A153" s="24"/>
-      <c r="B153" s="25"/>
+      <c r="A153" s="26"/>
+      <c r="B153" s="24"/>
       <c r="C153" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>8</v>
@@ -3805,10 +3808,10 @@
       </c>
     </row>
     <row r="154" spans="1:10" ht="15.75">
-      <c r="A154" s="24"/>
-      <c r="B154" s="25"/>
+      <c r="A154" s="26"/>
+      <c r="B154" s="24"/>
       <c r="C154" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>8</v>
@@ -3819,32 +3822,32 @@
       <c r="H154" s="1"/>
       <c r="I154" s="9"/>
       <c r="J154" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="15.75">
-      <c r="A155" s="24"/>
-      <c r="B155" s="25"/>
+      <c r="A155" s="26"/>
+      <c r="B155" s="24"/>
       <c r="C155" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D155" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
-      <c r="H155" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H155" s="1"/>
       <c r="I155" s="9"/>
       <c r="J155" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="15.75">
-      <c r="A156" s="24"/>
-      <c r="B156" s="25"/>
+      <c r="A156" s="26"/>
+      <c r="B156" s="24"/>
       <c r="C156" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -3859,10 +3862,10 @@
       </c>
     </row>
     <row r="157" spans="1:10" ht="15.75">
-      <c r="A157" s="24"/>
-      <c r="B157" s="25"/>
+      <c r="A157" s="26"/>
+      <c r="B157" s="24"/>
       <c r="C157" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -3877,29 +3880,33 @@
       </c>
     </row>
     <row r="158" spans="1:10" ht="15.75">
-      <c r="A158" s="24"/>
-      <c r="B158" s="25"/>
-      <c r="C158" s="3" t="s">
-        <v>35</v>
+      <c r="A158" s="26"/>
+      <c r="B158" s="24"/>
+      <c r="C158" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="D158" s="1"/>
-      <c r="E158" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
+      <c r="H158" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I158" s="9"/>
-      <c r="J158" s="9"/>
+      <c r="J158" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" spans="1:10" ht="15.75">
-      <c r="A159" s="24"/>
-      <c r="B159" s="25"/>
-      <c r="C159" s="7" t="s">
-        <v>23</v>
+      <c r="A159" s="26"/>
+      <c r="B159" s="24"/>
+      <c r="C159" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
+      <c r="E159" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
@@ -3907,108 +3914,106 @@
       <c r="J159" s="9"/>
     </row>
     <row r="160" spans="1:10" ht="15.75">
-      <c r="A160" s="24"/>
-      <c r="B160" s="25"/>
-      <c r="C160" s="6" t="s">
-        <v>112</v>
+      <c r="A160" s="26"/>
+      <c r="B160" s="24"/>
+      <c r="C160" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
-      <c r="G160" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
     </row>
     <row r="161" spans="1:10" ht="15.75">
-      <c r="A161" s="24"/>
-      <c r="B161" s="25"/>
+      <c r="A161" s="26"/>
+      <c r="B161" s="24"/>
       <c r="C161" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H161" s="1"/>
       <c r="I161" s="9"/>
       <c r="J161" s="9"/>
     </row>
     <row r="162" spans="1:10" ht="15.75">
-      <c r="A162" s="24"/>
-      <c r="B162" s="25"/>
-      <c r="C162" s="7" t="s">
-        <v>24</v>
+      <c r="A162" s="26"/>
+      <c r="B162" s="24"/>
+      <c r="C162" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
+      <c r="H162" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I162" s="9"/>
       <c r="J162" s="9"/>
     </row>
     <row r="163" spans="1:10" ht="15.75">
-      <c r="A163" s="24"/>
-      <c r="B163" s="25"/>
-      <c r="C163" s="6" t="s">
-        <v>112</v>
+      <c r="A163" s="26"/>
+      <c r="B163" s="24"/>
+      <c r="C163" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
-      <c r="G163" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="9"/>
       <c r="J163" s="9"/>
     </row>
     <row r="164" spans="1:10" ht="15.75">
-      <c r="A164" s="24"/>
-      <c r="B164" s="25"/>
+      <c r="A164" s="26"/>
+      <c r="B164" s="24"/>
       <c r="C164" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G164" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H164" s="1"/>
       <c r="I164" s="9"/>
       <c r="J164" s="9"/>
     </row>
-    <row r="165" spans="1:10" ht="15.6" customHeight="1">
-      <c r="A165" s="23">
-        <v>6</v>
-      </c>
-      <c r="B165" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>26</v>
+    <row r="165" spans="1:10" ht="15.75">
+      <c r="A165" s="26"/>
+      <c r="B165" s="24"/>
+      <c r="C165" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
-      <c r="G165" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I165" s="9"/>
       <c r="J165" s="9"/>
     </row>
-    <row r="166" spans="1:10" ht="15.75">
-      <c r="A166" s="24"/>
-      <c r="B166" s="25"/>
+    <row r="166" spans="1:10" ht="15.6" customHeight="1">
+      <c r="A166" s="25">
+        <v>6</v>
+      </c>
+      <c r="B166" s="24" t="s">
+        <v>7</v>
+      </c>
       <c r="C166" s="7" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -4021,10 +4026,10 @@
       <c r="J166" s="9"/>
     </row>
     <row r="167" spans="1:10" ht="15.75">
-      <c r="A167" s="24"/>
-      <c r="B167" s="25"/>
+      <c r="A167" s="26"/>
+      <c r="B167" s="24"/>
       <c r="C167" s="7" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -4036,91 +4041,90 @@
       <c r="I167" s="9"/>
       <c r="J167" s="9"/>
     </row>
-    <row r="168" spans="1:10">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D168" s="2">
-        <f>COUNTA(D2:D167)</f>
-        <v>29</v>
-      </c>
-      <c r="E168" s="2">
-        <f>COUNTA(E2:E167)</f>
+    <row r="168" spans="1:10" ht="15.75">
+      <c r="A168" s="26"/>
+      <c r="B168" s="24"/>
+      <c r="C168" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F168" s="2">
-        <f>COUNTA(F2:F167)</f>
-        <v>25</v>
-      </c>
-      <c r="G168" s="2">
-        <f>COUNTA(G2:G167)</f>
-        <v>32</v>
-      </c>
-      <c r="H168" s="2">
-        <f>COUNTA(H2:H167)</f>
-        <v>24</v>
-      </c>
-      <c r="I168" s="2"/>
-      <c r="J168" s="2"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H168" s="1"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="9"/>
     </row>
     <row r="169" spans="1:10">
-      <c r="A169" s="14" t="s">
-        <v>38</v>
-      </c>
+      <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D169" s="2">
+        <f>COUNTA(D2:D168)</f>
+        <v>30</v>
+      </c>
+      <c r="E169" s="2">
+        <f>COUNTA(E2:E168)</f>
+        <v>27</v>
+      </c>
+      <c r="F169" s="2">
+        <f>COUNTA(F2:F168)</f>
+        <v>26</v>
+      </c>
+      <c r="G169" s="2">
+        <f>COUNTA(G2:G168)</f>
+        <v>32</v>
+      </c>
+      <c r="H169" s="2">
+        <f>COUNTA(H2:H168)</f>
+        <v>24</v>
+      </c>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B170" s="2"/>
+      <c r="C170" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D169" s="2">
-        <f>SUMIF(D2:D167,"=O",$J$2:$J$167)</f>
+      <c r="D170" s="2">
+        <f>SUMIF(D2:D168,"=O",$J$2:$J$168)</f>
         <v>29</v>
       </c>
-      <c r="E169" s="2">
-        <f>SUMIF(E2:E167,"=O",$J$2:$J$167)</f>
+      <c r="E170" s="2">
+        <f>SUMIF(E2:E168,"=O",$J$2:$J$168)</f>
         <v>19</v>
       </c>
-      <c r="F169" s="2">
-        <f>SUMIF(F2:F167,"=O",$J$2:$J$167)</f>
+      <c r="F170" s="2">
+        <f>SUMIF(F2:F168,"=O",$J$2:$J$168)</f>
         <v>21</v>
       </c>
-      <c r="G169" s="2">
-        <f>SUMIF(G2:G167,"=O",$J$2:$J$167)</f>
+      <c r="G170" s="2">
+        <f>SUMIF(G2:G168,"=O",$J$2:$J$168)</f>
         <v>10</v>
       </c>
-      <c r="H169" s="2">
-        <f>SUMIF(H2:H167,"=O",$J$2:$J$167)</f>
+      <c r="H170" s="2">
+        <f>SUMIF(H2:H168,"=O",$J$2:$J$168)</f>
         <v>10</v>
       </c>
-      <c r="J169" s="2"/>
-    </row>
-    <row r="170" spans="1:10">
-      <c r="A170" s="15" t="s">
+      <c r="J170" s="2"/>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B170" s="15" t="s">
+      <c r="B171" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C171" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
-      <c r="J170" s="2"/>
-    </row>
-    <row r="171" spans="1:10" ht="60">
-      <c r="A171" s="15">
-        <v>1</v>
-      </c>
-      <c r="B171" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C171" s="3">
-        <v>1</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -4129,15 +4133,15 @@
       <c r="H171" s="2"/>
       <c r="J171" s="2"/>
     </row>
-    <row r="172" spans="1:10" ht="30">
-      <c r="A172" s="17">
-        <v>2</v>
+    <row r="172" spans="1:10" ht="60">
+      <c r="A172" s="15">
+        <v>1</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C172" s="17">
-        <v>2</v>
+        <v>43</v>
+      </c>
+      <c r="C172" s="3">
+        <v>1</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -4148,13 +4152,13 @@
     </row>
     <row r="173" spans="1:10" ht="30">
       <c r="A173" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C173" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -4165,13 +4169,13 @@
     </row>
     <row r="174" spans="1:10" ht="30">
       <c r="A174" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B174" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C174" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -4182,13 +4186,13 @@
     </row>
     <row r="175" spans="1:10" ht="30">
       <c r="A175" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C175" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -4197,7 +4201,16 @@
       <c r="H175" s="2"/>
       <c r="J175" s="2"/>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" ht="30">
+      <c r="A176" s="17">
+        <v>5</v>
+      </c>
+      <c r="B176" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C176" s="17">
+        <v>5</v>
+      </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
@@ -4317,23 +4330,31 @@
       <c r="H190" s="2"/>
       <c r="J190" s="2"/>
     </row>
+    <row r="191" spans="4:10">
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="J191" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="B166:B168"/>
+    <mergeCell ref="B102:B165"/>
+    <mergeCell ref="A102:A165"/>
+    <mergeCell ref="B47:B101"/>
+    <mergeCell ref="A47:A101"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B45"/>
-    <mergeCell ref="A11:A45"/>
+    <mergeCell ref="B11:B46"/>
+    <mergeCell ref="A11:A46"/>
     <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A165:A167"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="B101:B164"/>
-    <mergeCell ref="A101:A164"/>
-    <mergeCell ref="B46:B100"/>
-    <mergeCell ref="A46:A100"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D170:H188 D2:H167">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D171:H189 D2:H168">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>

--- a/Document/Reports/TasksheetFinal.xlsx
+++ b/Document/Reports/TasksheetFinal.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="36" windowWidth="20112" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -890,22 +890,22 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -915,74 +915,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -999,7 +931,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="464646"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1283,21 +1215,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B158" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="B125" workbookViewId="0">
+      <selection activeCell="H148" sqref="H148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="52.5">
+    <row r="1" spans="1:10" ht="51.6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1329,11 +1261,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75">
-      <c r="A2" s="23">
+    <row r="2" spans="1:10" ht="15.6">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -1349,9 +1281,9 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
+    <row r="3" spans="1:10" ht="15.6">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
@@ -1365,9 +1297,9 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
+    <row r="4" spans="1:10" ht="15.6">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
@@ -1381,9 +1313,9 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
+    <row r="5" spans="1:10" ht="15.6">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1397,9 +1329,9 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
+    <row r="6" spans="1:10" ht="15.6">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="3" t="s">
         <v>51</v>
       </c>
@@ -1413,11 +1345,11 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75">
-      <c r="A7" s="24">
+    <row r="7" spans="1:10" ht="15.6">
+      <c r="A7" s="25">
         <v>2</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1433,9 +1365,9 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
+    <row r="8" spans="1:10" ht="15.6">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1449,9 +1381,9 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
+    <row r="9" spans="1:10" ht="15.6">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1465,9 +1397,9 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
+    <row r="10" spans="1:10" ht="15.6">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1481,11 +1413,11 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75">
-      <c r="A11" s="24">
+    <row r="11" spans="1:10" ht="15.6">
+      <c r="A11" s="25">
         <v>3</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1501,9 +1433,9 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
+    <row r="12" spans="1:10" ht="15.6">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1515,9 +1447,9 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
+    <row r="13" spans="1:10" ht="15.6">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="18" t="s">
         <v>15</v>
       </c>
@@ -1531,9 +1463,9 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
+    <row r="14" spans="1:10" ht="15.6">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="19" t="s">
         <v>16</v>
       </c>
@@ -1545,9 +1477,9 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
+    <row r="15" spans="1:10" ht="15.6">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="19" t="s">
         <v>53</v>
       </c>
@@ -1559,9 +1491,9 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+    <row r="16" spans="1:10" ht="15.6">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
         <v>54</v>
       </c>
@@ -1575,9 +1507,9 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
+    <row r="17" spans="1:10" ht="15.6">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="20" t="s">
         <v>55</v>
       </c>
@@ -1591,9 +1523,9 @@
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
+    <row r="18" spans="1:10" ht="15.6">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="20" t="s">
         <v>56</v>
       </c>
@@ -1607,9 +1539,9 @@
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
+    <row r="19" spans="1:10" ht="15.6">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="20" t="s">
         <v>57</v>
       </c>
@@ -1623,9 +1555,9 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
+    <row r="20" spans="1:10" ht="15.6">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="20" t="s">
         <v>58</v>
       </c>
@@ -1639,9 +1571,9 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
+    <row r="21" spans="1:10" ht="15.6">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="20" t="s">
         <v>59</v>
       </c>
@@ -1655,9 +1587,9 @@
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
+    <row r="22" spans="1:10" ht="15.6">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="20" t="s">
         <v>60</v>
       </c>
@@ -1671,9 +1603,9 @@
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
+    <row r="23" spans="1:10" ht="15.6">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="20" t="s">
         <v>61</v>
       </c>
@@ -1687,9 +1619,9 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
+    <row r="24" spans="1:10" ht="15.6">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="20" t="s">
         <v>182</v>
       </c>
@@ -1703,9 +1635,9 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
+    <row r="25" spans="1:10" ht="15.6">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="19" t="s">
         <v>62</v>
       </c>
@@ -1717,9 +1649,9 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
+    <row r="26" spans="1:10" ht="15.6">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="20" t="s">
         <v>63</v>
       </c>
@@ -1733,9 +1665,9 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
+    <row r="27" spans="1:10" ht="15.6">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="20" t="s">
         <v>64</v>
       </c>
@@ -1749,9 +1681,9 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
+    <row r="28" spans="1:10" ht="15.6">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
         <v>65</v>
       </c>
@@ -1765,9 +1697,9 @@
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
+    <row r="29" spans="1:10" ht="15.6">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="20" t="s">
         <v>66</v>
       </c>
@@ -1781,9 +1713,9 @@
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
+    <row r="30" spans="1:10" ht="15.6">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="20" t="s">
         <v>67</v>
       </c>
@@ -1797,9 +1729,9 @@
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
+    <row r="31" spans="1:10" ht="15.6">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="20" t="s">
         <v>68</v>
       </c>
@@ -1813,9 +1745,9 @@
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
+    <row r="32" spans="1:10" ht="15.6">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="20" t="s">
         <v>69</v>
       </c>
@@ -1829,9 +1761,9 @@
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
+    <row r="33" spans="1:10" ht="15.6">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="20" t="s">
         <v>70</v>
       </c>
@@ -1845,9 +1777,9 @@
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
+    <row r="34" spans="1:10" ht="15.6">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="20" t="s">
         <v>71</v>
       </c>
@@ -1861,9 +1793,9 @@
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
+    <row r="35" spans="1:10" ht="15.6">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="20" t="s">
         <v>52</v>
       </c>
@@ -1877,9 +1809,9 @@
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
+    <row r="36" spans="1:10" ht="15.6">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="20" t="s">
         <v>72</v>
       </c>
@@ -1893,9 +1825,9 @@
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="1:10" ht="15.75">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
+    <row r="37" spans="1:10" ht="15.6">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="20" t="s">
         <v>73</v>
       </c>
@@ -1909,9 +1841,9 @@
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
+    <row r="38" spans="1:10" ht="15.6">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="20" t="s">
         <v>116</v>
       </c>
@@ -1925,9 +1857,9 @@
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="1:10" ht="15.75">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
+    <row r="39" spans="1:10" ht="15.6">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="20" t="s">
         <v>58</v>
       </c>
@@ -1941,9 +1873,9 @@
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
+    <row r="40" spans="1:10" ht="15.6">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="20" t="s">
         <v>74</v>
       </c>
@@ -1957,9 +1889,9 @@
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
+    <row r="41" spans="1:10" ht="15.6">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="19" t="s">
         <v>17</v>
       </c>
@@ -1971,9 +1903,9 @@
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:10" ht="15.75">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
+    <row r="42" spans="1:10" ht="15.6">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="20" t="s">
         <v>18</v>
       </c>
@@ -1987,9 +1919,9 @@
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
+    <row r="43" spans="1:10" ht="15.6">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="20" t="s">
         <v>19</v>
       </c>
@@ -2003,9 +1935,9 @@
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
+    <row r="44" spans="1:10" ht="15.6">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="20" t="s">
         <v>75</v>
       </c>
@@ -2019,9 +1951,9 @@
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
+    <row r="45" spans="1:10" ht="15.6">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="20" t="s">
         <v>76</v>
       </c>
@@ -2035,9 +1967,9 @@
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
     </row>
-    <row r="46" spans="1:10" ht="15.75">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
+    <row r="46" spans="1:10" ht="15.6">
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="3" t="s">
         <v>20</v>
       </c>
@@ -2051,11 +1983,11 @@
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
     </row>
-    <row r="47" spans="1:10" ht="15.75">
-      <c r="A47" s="27">
+    <row r="47" spans="1:10" ht="15.6">
+      <c r="A47" s="26">
         <v>4</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -2071,9 +2003,9 @@
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="1:10" ht="15.75">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
+    <row r="48" spans="1:10" ht="15.6">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
       <c r="C48" s="3" t="s">
         <v>32</v>
       </c>
@@ -2087,9 +2019,9 @@
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="1:10" ht="15.75">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
+    <row r="49" spans="1:10" ht="15.6">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
       <c r="C49" s="5" t="s">
         <v>33</v>
       </c>
@@ -2101,9 +2033,9 @@
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
     </row>
-    <row r="50" spans="1:10" ht="15.75">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
+    <row r="50" spans="1:10" ht="15.6">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
       <c r="C50" s="6" t="s">
         <v>77</v>
       </c>
@@ -2117,9 +2049,9 @@
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
     </row>
-    <row r="51" spans="1:10" ht="15.75">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
+    <row r="51" spans="1:10" ht="15.6">
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
       <c r="C51" s="6" t="s">
         <v>78</v>
       </c>
@@ -2131,9 +2063,9 @@
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
     </row>
-    <row r="52" spans="1:10" ht="15.75">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
+    <row r="52" spans="1:10" ht="15.6">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
       <c r="C52" s="6" t="s">
         <v>79</v>
       </c>
@@ -2147,9 +2079,9 @@
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
     </row>
-    <row r="53" spans="1:10" ht="15.75">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
+    <row r="53" spans="1:10" ht="15.6">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
       <c r="C53" s="6" t="s">
         <v>81</v>
       </c>
@@ -2163,9 +2095,9 @@
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
     </row>
-    <row r="54" spans="1:10" ht="15.75">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
+    <row r="54" spans="1:10" ht="15.6">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
       <c r="C54" s="6" t="s">
         <v>80</v>
       </c>
@@ -2179,9 +2111,9 @@
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
     </row>
-    <row r="55" spans="1:10" ht="15.75">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
+    <row r="55" spans="1:10" ht="15.6">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
       <c r="C55" s="6" t="s">
         <v>84</v>
       </c>
@@ -2195,9 +2127,9 @@
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
     </row>
-    <row r="56" spans="1:10" ht="15.75">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
+    <row r="56" spans="1:10" ht="15.6">
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
       <c r="C56" s="6" t="s">
         <v>82</v>
       </c>
@@ -2211,9 +2143,9 @@
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
     </row>
-    <row r="57" spans="1:10" ht="15.75">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
+    <row r="57" spans="1:10" ht="15.6">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
       <c r="C57" s="6" t="s">
         <v>117</v>
       </c>
@@ -2227,9 +2159,9 @@
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
     </row>
-    <row r="58" spans="1:10" ht="15.75">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
+    <row r="58" spans="1:10" ht="15.6">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
       <c r="C58" s="6" t="s">
         <v>83</v>
       </c>
@@ -2243,9 +2175,9 @@
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
     </row>
-    <row r="59" spans="1:10" ht="15.75">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
+    <row r="59" spans="1:10" ht="15.6">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
       <c r="C59" s="6" t="s">
         <v>85</v>
       </c>
@@ -2259,9 +2191,9 @@
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
     </row>
-    <row r="60" spans="1:10" ht="15.75">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
+    <row r="60" spans="1:10" ht="15.6">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
       <c r="C60" s="6" t="s">
         <v>86</v>
       </c>
@@ -2275,9 +2207,9 @@
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
     </row>
-    <row r="61" spans="1:10" ht="15.75">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
+    <row r="61" spans="1:10" ht="15.6">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
       <c r="C61" s="4" t="s">
         <v>87</v>
       </c>
@@ -2289,9 +2221,9 @@
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
     </row>
-    <row r="62" spans="1:10" ht="15.75">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
+    <row r="62" spans="1:10" ht="15.6">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
       <c r="C62" s="21" t="s">
         <v>101</v>
       </c>
@@ -2303,9 +2235,9 @@
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
     </row>
-    <row r="63" spans="1:10" ht="15.75">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
+    <row r="63" spans="1:10" ht="15.6">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
       <c r="C63" s="6" t="s">
         <v>93</v>
       </c>
@@ -2319,9 +2251,9 @@
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
     </row>
-    <row r="64" spans="1:10" ht="15.75">
-      <c r="A64" s="28"/>
-      <c r="B64" s="28"/>
+    <row r="64" spans="1:10" ht="15.6">
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
       <c r="C64" s="6" t="s">
         <v>103</v>
       </c>
@@ -2335,9 +2267,9 @@
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
     </row>
-    <row r="65" spans="1:10" ht="15.75">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
+    <row r="65" spans="1:10" ht="15.6">
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
       <c r="C65" s="6" t="s">
         <v>94</v>
       </c>
@@ -2351,9 +2283,9 @@
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
     </row>
-    <row r="66" spans="1:10" ht="15.75">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
+    <row r="66" spans="1:10" ht="15.6">
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
       <c r="C66" s="6" t="s">
         <v>91</v>
       </c>
@@ -2367,9 +2299,9 @@
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
     </row>
-    <row r="67" spans="1:10" ht="15.75">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
+    <row r="67" spans="1:10" ht="15.6">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
       <c r="C67" s="6" t="s">
         <v>96</v>
       </c>
@@ -2383,9 +2315,9 @@
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
     </row>
-    <row r="68" spans="1:10" ht="15.75">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
+    <row r="68" spans="1:10" ht="15.6">
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
       <c r="C68" s="6" t="s">
         <v>97</v>
       </c>
@@ -2399,9 +2331,9 @@
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
     </row>
-    <row r="69" spans="1:10" ht="15.75">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
+    <row r="69" spans="1:10" ht="15.6">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
       <c r="C69" s="6" t="s">
         <v>98</v>
       </c>
@@ -2415,9 +2347,9 @@
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
     </row>
-    <row r="70" spans="1:10" ht="15.75">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
+    <row r="70" spans="1:10" ht="15.6">
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
       <c r="C70" s="6" t="s">
         <v>99</v>
       </c>
@@ -2431,9 +2363,9 @@
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
     </row>
-    <row r="71" spans="1:10" ht="15.75">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28"/>
+    <row r="71" spans="1:10" ht="15.6">
+      <c r="A71" s="27"/>
+      <c r="B71" s="27"/>
       <c r="C71" s="6" t="s">
         <v>104</v>
       </c>
@@ -2447,9 +2379,9 @@
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
     </row>
-    <row r="72" spans="1:10" ht="15.75">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
+    <row r="72" spans="1:10" ht="15.6">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
       <c r="C72" s="6" t="s">
         <v>102</v>
       </c>
@@ -2463,9 +2395,9 @@
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
     </row>
-    <row r="73" spans="1:10" ht="15.75">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
+    <row r="73" spans="1:10" ht="15.6">
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
       <c r="C73" s="5" t="s">
         <v>62</v>
       </c>
@@ -2477,9 +2409,9 @@
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
     </row>
-    <row r="74" spans="1:10" ht="15.75">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
+    <row r="74" spans="1:10" ht="15.6">
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
       <c r="C74" s="6" t="s">
         <v>88</v>
       </c>
@@ -2493,9 +2425,9 @@
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
     </row>
-    <row r="75" spans="1:10" ht="15.75">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
+    <row r="75" spans="1:10" ht="15.6">
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
       <c r="C75" s="6" t="s">
         <v>89</v>
       </c>
@@ -2509,9 +2441,9 @@
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
     </row>
-    <row r="76" spans="1:10" ht="15.75">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
+    <row r="76" spans="1:10" ht="15.6">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
       <c r="C76" s="6" t="s">
         <v>90</v>
       </c>
@@ -2525,9 +2457,9 @@
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
     </row>
-    <row r="77" spans="1:10" ht="15.75">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
+    <row r="77" spans="1:10" ht="15.6">
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
       <c r="C77" s="6" t="s">
         <v>92</v>
       </c>
@@ -2541,9 +2473,9 @@
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
     </row>
-    <row r="78" spans="1:10" ht="15.75">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
+    <row r="78" spans="1:10" ht="15.6">
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
       <c r="C78" s="6" t="s">
         <v>93</v>
       </c>
@@ -2557,9 +2489,9 @@
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
     </row>
-    <row r="79" spans="1:10" ht="15.75">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28"/>
+    <row r="79" spans="1:10" ht="15.6">
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
       <c r="C79" s="6" t="s">
         <v>94</v>
       </c>
@@ -2571,9 +2503,9 @@
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
     </row>
-    <row r="80" spans="1:10" ht="15.75">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
+    <row r="80" spans="1:10" ht="15.6">
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
       <c r="C80" s="6" t="s">
         <v>95</v>
       </c>
@@ -2587,9 +2519,9 @@
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
     </row>
-    <row r="81" spans="1:10" ht="15.75">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
+    <row r="81" spans="1:10" ht="15.6">
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
       <c r="C81" s="6" t="s">
         <v>91</v>
       </c>
@@ -2603,9 +2535,9 @@
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
     </row>
-    <row r="82" spans="1:10" ht="15.75">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
+    <row r="82" spans="1:10" ht="15.6">
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
       <c r="C82" s="6" t="s">
         <v>96</v>
       </c>
@@ -2619,9 +2551,9 @@
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
     </row>
-    <row r="83" spans="1:10" ht="15.75">
-      <c r="A83" s="28"/>
-      <c r="B83" s="28"/>
+    <row r="83" spans="1:10" ht="15.6">
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
       <c r="C83" s="6" t="s">
         <v>97</v>
       </c>
@@ -2635,9 +2567,9 @@
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
     </row>
-    <row r="84" spans="1:10" ht="15.75">
-      <c r="A84" s="28"/>
-      <c r="B84" s="28"/>
+    <row r="84" spans="1:10" ht="15.6">
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
       <c r="C84" s="6" t="s">
         <v>98</v>
       </c>
@@ -2651,9 +2583,9 @@
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
     </row>
-    <row r="85" spans="1:10" ht="15.75">
-      <c r="A85" s="28"/>
-      <c r="B85" s="28"/>
+    <row r="85" spans="1:10" ht="15.6">
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
       <c r="C85" s="6" t="s">
         <v>99</v>
       </c>
@@ -2667,9 +2599,9 @@
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
     </row>
-    <row r="86" spans="1:10" ht="15.75">
-      <c r="A86" s="28"/>
-      <c r="B86" s="28"/>
+    <row r="86" spans="1:10" ht="15.6">
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
       <c r="C86" s="6" t="s">
         <v>100</v>
       </c>
@@ -2683,9 +2615,9 @@
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
     </row>
-    <row r="87" spans="1:10" ht="15.75">
-      <c r="A87" s="28"/>
-      <c r="B87" s="28"/>
+    <row r="87" spans="1:10" ht="15.6">
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
       <c r="C87" s="7" t="s">
         <v>22</v>
       </c>
@@ -2697,9 +2629,9 @@
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
     </row>
-    <row r="88" spans="1:10" ht="15.75">
-      <c r="A88" s="28"/>
-      <c r="B88" s="28"/>
+    <row r="88" spans="1:10" ht="15.6">
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
       <c r="C88" s="6" t="s">
         <v>105</v>
       </c>
@@ -2713,9 +2645,9 @@
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
     </row>
-    <row r="89" spans="1:10" ht="15.75">
-      <c r="A89" s="28"/>
-      <c r="B89" s="28"/>
+    <row r="89" spans="1:10" ht="15.6">
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
       <c r="C89" s="6" t="s">
         <v>175</v>
       </c>
@@ -2729,9 +2661,9 @@
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
     </row>
-    <row r="90" spans="1:10" ht="15.75">
-      <c r="A90" s="28"/>
-      <c r="B90" s="28"/>
+    <row r="90" spans="1:10" ht="15.6">
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
       <c r="C90" s="6" t="s">
         <v>176</v>
       </c>
@@ -2745,9 +2677,9 @@
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
     </row>
-    <row r="91" spans="1:10" ht="15.75">
-      <c r="A91" s="28"/>
-      <c r="B91" s="28"/>
+    <row r="91" spans="1:10" ht="15.6">
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
       <c r="C91" s="6" t="s">
         <v>177</v>
       </c>
@@ -2761,9 +2693,9 @@
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
     </row>
-    <row r="92" spans="1:10" ht="15.75">
-      <c r="A92" s="28"/>
-      <c r="B92" s="28"/>
+    <row r="92" spans="1:10" ht="15.6">
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
       <c r="C92" s="6" t="s">
         <v>178</v>
       </c>
@@ -2777,9 +2709,9 @@
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
     </row>
-    <row r="93" spans="1:10" ht="15.75">
-      <c r="A93" s="28"/>
-      <c r="B93" s="28"/>
+    <row r="93" spans="1:10" ht="15.6">
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
       <c r="C93" s="6" t="s">
         <v>179</v>
       </c>
@@ -2793,9 +2725,9 @@
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
     </row>
-    <row r="94" spans="1:10" ht="15.75">
-      <c r="A94" s="28"/>
-      <c r="B94" s="28"/>
+    <row r="94" spans="1:10" ht="15.6">
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
       <c r="C94" s="6" t="s">
         <v>180</v>
       </c>
@@ -2809,9 +2741,9 @@
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
     </row>
-    <row r="95" spans="1:10" ht="15.75">
-      <c r="A95" s="28"/>
-      <c r="B95" s="28"/>
+    <row r="95" spans="1:10" ht="15.6">
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
       <c r="C95" s="6" t="s">
         <v>181</v>
       </c>
@@ -2825,9 +2757,9 @@
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
     </row>
-    <row r="96" spans="1:10" ht="15.75">
-      <c r="A96" s="28"/>
-      <c r="B96" s="28"/>
+    <row r="96" spans="1:10" ht="15.6">
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
       <c r="C96" s="7" t="s">
         <v>107</v>
       </c>
@@ -2839,9 +2771,9 @@
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
     </row>
-    <row r="97" spans="1:10" ht="15.75">
-      <c r="A97" s="28"/>
-      <c r="B97" s="28"/>
+    <row r="97" spans="1:10" ht="15.6">
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
       <c r="C97" s="6" t="s">
         <v>108</v>
       </c>
@@ -2855,9 +2787,9 @@
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
     </row>
-    <row r="98" spans="1:10" ht="15.75">
-      <c r="A98" s="28"/>
-      <c r="B98" s="28"/>
+    <row r="98" spans="1:10" ht="15.6">
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
       <c r="C98" s="6" t="s">
         <v>109</v>
       </c>
@@ -2871,9 +2803,9 @@
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
     </row>
-    <row r="99" spans="1:10" ht="15.75">
-      <c r="A99" s="28"/>
-      <c r="B99" s="28"/>
+    <row r="99" spans="1:10" ht="15.6">
+      <c r="A99" s="27"/>
+      <c r="B99" s="27"/>
       <c r="C99" s="7" t="s">
         <v>106</v>
       </c>
@@ -2885,9 +2817,9 @@
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
     </row>
-    <row r="100" spans="1:10" ht="15.75">
-      <c r="A100" s="28"/>
-      <c r="B100" s="28"/>
+    <row r="100" spans="1:10" ht="15.6">
+      <c r="A100" s="27"/>
+      <c r="B100" s="27"/>
       <c r="C100" s="6" t="s">
         <v>110</v>
       </c>
@@ -2901,9 +2833,9 @@
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
     </row>
-    <row r="101" spans="1:10" ht="15.75">
-      <c r="A101" s="23"/>
-      <c r="B101" s="23"/>
+    <row r="101" spans="1:10" ht="15.6">
+      <c r="A101" s="28"/>
+      <c r="B101" s="28"/>
       <c r="C101" s="6" t="s">
         <v>111</v>
       </c>
@@ -2917,11 +2849,11 @@
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
     </row>
-    <row r="102" spans="1:10" ht="15.75">
-      <c r="A102" s="25">
+    <row r="102" spans="1:10" ht="15.6">
+      <c r="A102" s="23">
         <v>5</v>
       </c>
-      <c r="B102" s="24" t="s">
+      <c r="B102" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -2935,9 +2867,9 @@
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
     </row>
-    <row r="103" spans="1:10" ht="15.75">
-      <c r="A103" s="26"/>
-      <c r="B103" s="24"/>
+    <row r="103" spans="1:10" ht="15.6">
+      <c r="A103" s="24"/>
+      <c r="B103" s="25"/>
       <c r="C103" s="3" t="s">
         <v>114</v>
       </c>
@@ -2951,9 +2883,9 @@
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
     </row>
-    <row r="104" spans="1:10" ht="15.75">
-      <c r="A104" s="26"/>
-      <c r="B104" s="24"/>
+    <row r="104" spans="1:10" ht="15.6">
+      <c r="A104" s="24"/>
+      <c r="B104" s="25"/>
       <c r="C104" s="3" t="s">
         <v>118</v>
       </c>
@@ -2965,9 +2897,9 @@
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
     </row>
-    <row r="105" spans="1:10" ht="15.75">
-      <c r="A105" s="26"/>
-      <c r="B105" s="24"/>
+    <row r="105" spans="1:10" ht="15.6">
+      <c r="A105" s="24"/>
+      <c r="B105" s="25"/>
       <c r="C105" s="21" t="s">
         <v>141</v>
       </c>
@@ -2979,9 +2911,9 @@
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
     </row>
-    <row r="106" spans="1:10" ht="15.75">
-      <c r="A106" s="26"/>
-      <c r="B106" s="24"/>
+    <row r="106" spans="1:10" ht="15.6">
+      <c r="A106" s="24"/>
+      <c r="B106" s="25"/>
       <c r="C106" s="19" t="s">
         <v>121</v>
       </c>
@@ -2993,9 +2925,9 @@
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
     </row>
-    <row r="107" spans="1:10" ht="15.75">
-      <c r="A107" s="26"/>
-      <c r="B107" s="24"/>
+    <row r="107" spans="1:10" ht="15.6">
+      <c r="A107" s="24"/>
+      <c r="B107" s="25"/>
       <c r="C107" s="20" t="s">
         <v>123</v>
       </c>
@@ -3011,9 +2943,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="15.75">
-      <c r="A108" s="26"/>
-      <c r="B108" s="24"/>
+    <row r="108" spans="1:10" ht="15.6">
+      <c r="A108" s="24"/>
+      <c r="B108" s="25"/>
       <c r="C108" s="20" t="s">
         <v>119</v>
       </c>
@@ -3029,9 +2961,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="15.75">
-      <c r="A109" s="26"/>
-      <c r="B109" s="24"/>
+    <row r="109" spans="1:10" ht="15.6">
+      <c r="A109" s="24"/>
+      <c r="B109" s="25"/>
       <c r="C109" s="20" t="s">
         <v>120</v>
       </c>
@@ -3047,9 +2979,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="15.75">
-      <c r="A110" s="26"/>
-      <c r="B110" s="24"/>
+    <row r="110" spans="1:10" ht="15.6">
+      <c r="A110" s="24"/>
+      <c r="B110" s="25"/>
       <c r="C110" s="20" t="s">
         <v>124</v>
       </c>
@@ -3065,9 +2997,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="15.75">
-      <c r="A111" s="26"/>
-      <c r="B111" s="24"/>
+    <row r="111" spans="1:10" ht="15.6">
+      <c r="A111" s="24"/>
+      <c r="B111" s="25"/>
       <c r="C111" s="19" t="s">
         <v>122</v>
       </c>
@@ -3079,9 +3011,9 @@
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
     </row>
-    <row r="112" spans="1:10" ht="15.75">
-      <c r="A112" s="26"/>
-      <c r="B112" s="24"/>
+    <row r="112" spans="1:10" ht="15.6">
+      <c r="A112" s="24"/>
+      <c r="B112" s="25"/>
       <c r="C112" s="20" t="s">
         <v>165</v>
       </c>
@@ -3097,9 +3029,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15.75">
-      <c r="A113" s="26"/>
-      <c r="B113" s="24"/>
+    <row r="113" spans="1:10" ht="15.6">
+      <c r="A113" s="24"/>
+      <c r="B113" s="25"/>
       <c r="C113" s="20" t="s">
         <v>164</v>
       </c>
@@ -3115,9 +3047,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15.75">
-      <c r="A114" s="26"/>
-      <c r="B114" s="24"/>
+    <row r="114" spans="1:10" ht="15.6">
+      <c r="A114" s="24"/>
+      <c r="B114" s="25"/>
       <c r="C114" s="20" t="s">
         <v>125</v>
       </c>
@@ -3133,9 +3065,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15.75">
-      <c r="A115" s="26"/>
-      <c r="B115" s="24"/>
+    <row r="115" spans="1:10" ht="15.6">
+      <c r="A115" s="24"/>
+      <c r="B115" s="25"/>
       <c r="C115" s="19" t="s">
         <v>126</v>
       </c>
@@ -3147,9 +3079,9 @@
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
     </row>
-    <row r="116" spans="1:10" ht="15.75">
-      <c r="A116" s="26"/>
-      <c r="B116" s="24"/>
+    <row r="116" spans="1:10" ht="15.6">
+      <c r="A116" s="24"/>
+      <c r="B116" s="25"/>
       <c r="C116" s="20" t="s">
         <v>127</v>
       </c>
@@ -3165,9 +3097,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="15.75">
-      <c r="A117" s="26"/>
-      <c r="B117" s="24"/>
+    <row r="117" spans="1:10" ht="15.6">
+      <c r="A117" s="24"/>
+      <c r="B117" s="25"/>
       <c r="C117" s="20" t="s">
         <v>166</v>
       </c>
@@ -3183,9 +3115,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="15.75">
-      <c r="A118" s="26"/>
-      <c r="B118" s="24"/>
+    <row r="118" spans="1:10" ht="15.6">
+      <c r="A118" s="24"/>
+      <c r="B118" s="25"/>
       <c r="C118" s="20" t="s">
         <v>128</v>
       </c>
@@ -3201,9 +3133,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15.75">
-      <c r="A119" s="26"/>
-      <c r="B119" s="24"/>
+    <row r="119" spans="1:10" ht="15.6">
+      <c r="A119" s="24"/>
+      <c r="B119" s="25"/>
       <c r="C119" s="19" t="s">
         <v>129</v>
       </c>
@@ -3215,9 +3147,9 @@
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
     </row>
-    <row r="120" spans="1:10" ht="15.75">
-      <c r="A120" s="26"/>
-      <c r="B120" s="24"/>
+    <row r="120" spans="1:10" ht="15.6">
+      <c r="A120" s="24"/>
+      <c r="B120" s="25"/>
       <c r="C120" s="20" t="s">
         <v>130</v>
       </c>
@@ -3233,9 +3165,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15.75">
-      <c r="A121" s="26"/>
-      <c r="B121" s="24"/>
+    <row r="121" spans="1:10" ht="15.6">
+      <c r="A121" s="24"/>
+      <c r="B121" s="25"/>
       <c r="C121" s="20" t="s">
         <v>131</v>
       </c>
@@ -3251,9 +3183,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15.75">
-      <c r="A122" s="26"/>
-      <c r="B122" s="24"/>
+    <row r="122" spans="1:10" ht="15.6">
+      <c r="A122" s="24"/>
+      <c r="B122" s="25"/>
       <c r="C122" s="19" t="s">
         <v>132</v>
       </c>
@@ -3265,17 +3197,17 @@
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
     </row>
-    <row r="123" spans="1:10" ht="15.75">
-      <c r="A123" s="26"/>
-      <c r="B123" s="24"/>
+    <row r="123" spans="1:10" ht="15.6">
+      <c r="A123" s="24"/>
+      <c r="B123" s="25"/>
       <c r="C123" s="20" t="s">
         <v>133</v>
       </c>
       <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="9"/>
@@ -3283,17 +3215,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="15.75">
-      <c r="A124" s="26"/>
-      <c r="B124" s="24"/>
+    <row r="124" spans="1:10" ht="15.6">
+      <c r="A124" s="24"/>
+      <c r="B124" s="25"/>
       <c r="C124" s="20" t="s">
         <v>134</v>
       </c>
       <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="9"/>
@@ -3301,9 +3233,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15.75">
-      <c r="A125" s="26"/>
-      <c r="B125" s="24"/>
+    <row r="125" spans="1:10" ht="15.6">
+      <c r="A125" s="24"/>
+      <c r="B125" s="25"/>
       <c r="C125" s="19" t="s">
         <v>135</v>
       </c>
@@ -3315,9 +3247,9 @@
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
     </row>
-    <row r="126" spans="1:10" ht="15.75">
-      <c r="A126" s="26"/>
-      <c r="B126" s="24"/>
+    <row r="126" spans="1:10" ht="15.6">
+      <c r="A126" s="24"/>
+      <c r="B126" s="25"/>
       <c r="C126" s="20" t="s">
         <v>173</v>
       </c>
@@ -3333,9 +3265,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="15.75">
-      <c r="A127" s="26"/>
-      <c r="B127" s="24"/>
+    <row r="127" spans="1:10" ht="15.6">
+      <c r="A127" s="24"/>
+      <c r="B127" s="25"/>
       <c r="C127" s="20" t="s">
         <v>136</v>
       </c>
@@ -3351,9 +3283,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="15.75">
-      <c r="A128" s="26"/>
-      <c r="B128" s="24"/>
+    <row r="128" spans="1:10" ht="15.6">
+      <c r="A128" s="24"/>
+      <c r="B128" s="25"/>
       <c r="C128" s="19" t="s">
         <v>137</v>
       </c>
@@ -3365,9 +3297,9 @@
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
     </row>
-    <row r="129" spans="1:10" ht="15.75">
-      <c r="A129" s="26"/>
-      <c r="B129" s="24"/>
+    <row r="129" spans="1:10" ht="15.6">
+      <c r="A129" s="24"/>
+      <c r="B129" s="25"/>
       <c r="C129" s="20" t="s">
         <v>174</v>
       </c>
@@ -3383,9 +3315,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15.75">
-      <c r="A130" s="26"/>
-      <c r="B130" s="24"/>
+    <row r="130" spans="1:10" ht="15.6">
+      <c r="A130" s="24"/>
+      <c r="B130" s="25"/>
       <c r="C130" s="20" t="s">
         <v>138</v>
       </c>
@@ -3401,9 +3333,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15.75">
-      <c r="A131" s="26"/>
-      <c r="B131" s="24"/>
+    <row r="131" spans="1:10" ht="15.6">
+      <c r="A131" s="24"/>
+      <c r="B131" s="25"/>
       <c r="C131" s="20" t="s">
         <v>167</v>
       </c>
@@ -3419,9 +3351,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15.75">
-      <c r="A132" s="26"/>
-      <c r="B132" s="24"/>
+    <row r="132" spans="1:10" ht="15.6">
+      <c r="A132" s="24"/>
+      <c r="B132" s="25"/>
       <c r="C132" s="19" t="s">
         <v>139</v>
       </c>
@@ -3433,9 +3365,9 @@
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
     </row>
-    <row r="133" spans="1:10" ht="15.75">
-      <c r="A133" s="26"/>
-      <c r="B133" s="24"/>
+    <row r="133" spans="1:10" ht="15.6">
+      <c r="A133" s="24"/>
+      <c r="B133" s="25"/>
       <c r="C133" s="20" t="s">
         <v>140</v>
       </c>
@@ -3451,9 +3383,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15.75">
-      <c r="A134" s="26"/>
-      <c r="B134" s="24"/>
+    <row r="134" spans="1:10" ht="15.6">
+      <c r="A134" s="24"/>
+      <c r="B134" s="25"/>
       <c r="C134" s="21" t="s">
         <v>142</v>
       </c>
@@ -3465,9 +3397,9 @@
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
     </row>
-    <row r="135" spans="1:10" ht="15.75">
-      <c r="A135" s="26"/>
-      <c r="B135" s="24"/>
+    <row r="135" spans="1:10" ht="15.6">
+      <c r="A135" s="24"/>
+      <c r="B135" s="25"/>
       <c r="C135" s="20" t="s">
         <v>143</v>
       </c>
@@ -3483,9 +3415,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15.75">
-      <c r="A136" s="26"/>
-      <c r="B136" s="24"/>
+    <row r="136" spans="1:10" ht="15.6">
+      <c r="A136" s="24"/>
+      <c r="B136" s="25"/>
       <c r="C136" s="20" t="s">
         <v>144</v>
       </c>
@@ -3501,9 +3433,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15.75">
-      <c r="A137" s="26"/>
-      <c r="B137" s="24"/>
+    <row r="137" spans="1:10" ht="15.6">
+      <c r="A137" s="24"/>
+      <c r="B137" s="25"/>
       <c r="C137" s="20" t="s">
         <v>145</v>
       </c>
@@ -3519,9 +3451,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15.75">
-      <c r="A138" s="26"/>
-      <c r="B138" s="24"/>
+    <row r="138" spans="1:10" ht="15.6">
+      <c r="A138" s="24"/>
+      <c r="B138" s="25"/>
       <c r="C138" s="20" t="s">
         <v>172</v>
       </c>
@@ -3537,9 +3469,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="15.75">
-      <c r="A139" s="26"/>
-      <c r="B139" s="24"/>
+    <row r="139" spans="1:10" ht="15.6">
+      <c r="A139" s="24"/>
+      <c r="B139" s="25"/>
       <c r="C139" s="20" t="s">
         <v>146</v>
       </c>
@@ -3555,9 +3487,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="16.899999999999999" customHeight="1">
-      <c r="A140" s="26"/>
-      <c r="B140" s="24"/>
+    <row r="140" spans="1:10" ht="16.95" customHeight="1">
+      <c r="A140" s="24"/>
+      <c r="B140" s="25"/>
       <c r="C140" s="20" t="s">
         <v>147</v>
       </c>
@@ -3573,9 +3505,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="16.899999999999999" customHeight="1">
-      <c r="A141" s="26"/>
-      <c r="B141" s="24"/>
+    <row r="141" spans="1:10" ht="16.95" customHeight="1">
+      <c r="A141" s="24"/>
+      <c r="B141" s="25"/>
       <c r="C141" s="20" t="s">
         <v>171</v>
       </c>
@@ -3591,9 +3523,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="15.75">
-      <c r="A142" s="26"/>
-      <c r="B142" s="24"/>
+    <row r="142" spans="1:10" ht="15.6">
+      <c r="A142" s="24"/>
+      <c r="B142" s="25"/>
       <c r="C142" s="20" t="s">
         <v>148</v>
       </c>
@@ -3609,9 +3541,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15.75">
-      <c r="A143" s="26"/>
-      <c r="B143" s="24"/>
+    <row r="143" spans="1:10" ht="15.6">
+      <c r="A143" s="24"/>
+      <c r="B143" s="25"/>
       <c r="C143" s="20" t="s">
         <v>149</v>
       </c>
@@ -3627,9 +3559,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15.75">
-      <c r="A144" s="26"/>
-      <c r="B144" s="24"/>
+    <row r="144" spans="1:10" ht="15.6">
+      <c r="A144" s="24"/>
+      <c r="B144" s="25"/>
       <c r="C144" s="20" t="s">
         <v>150</v>
       </c>
@@ -3645,9 +3577,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="15.75">
-      <c r="A145" s="26"/>
-      <c r="B145" s="24"/>
+    <row r="145" spans="1:10" ht="15.6">
+      <c r="A145" s="24"/>
+      <c r="B145" s="25"/>
       <c r="C145" s="20" t="s">
         <v>151</v>
       </c>
@@ -3663,17 +3595,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="15.75">
-      <c r="A146" s="26"/>
-      <c r="B146" s="24"/>
+    <row r="146" spans="1:10" ht="15.6">
+      <c r="A146" s="24"/>
+      <c r="B146" s="25"/>
       <c r="C146" s="20" t="s">
         <v>152</v>
       </c>
       <c r="D146" s="1"/>
-      <c r="E146" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="9"/>
@@ -3681,17 +3613,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="15.75">
-      <c r="A147" s="26"/>
-      <c r="B147" s="24"/>
+    <row r="147" spans="1:10" ht="15.6">
+      <c r="A147" s="24"/>
+      <c r="B147" s="25"/>
       <c r="C147" s="20" t="s">
         <v>168</v>
       </c>
       <c r="D147" s="1"/>
-      <c r="E147" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="9"/>
@@ -3699,9 +3631,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="15.75">
-      <c r="A148" s="26"/>
-      <c r="B148" s="24"/>
+    <row r="148" spans="1:10" ht="15.6">
+      <c r="A148" s="24"/>
+      <c r="B148" s="25"/>
       <c r="C148" s="20" t="s">
         <v>162</v>
       </c>
@@ -3717,9 +3649,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="15.75">
-      <c r="A149" s="26"/>
-      <c r="B149" s="24"/>
+    <row r="149" spans="1:10" ht="15.6">
+      <c r="A149" s="24"/>
+      <c r="B149" s="25"/>
       <c r="C149" s="20" t="s">
         <v>153</v>
       </c>
@@ -3735,9 +3667,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="15.75">
-      <c r="A150" s="26"/>
-      <c r="B150" s="24"/>
+    <row r="150" spans="1:10" ht="15.6">
+      <c r="A150" s="24"/>
+      <c r="B150" s="25"/>
       <c r="C150" s="20" t="s">
         <v>154</v>
       </c>
@@ -3753,9 +3685,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="15.75">
-      <c r="A151" s="26"/>
-      <c r="B151" s="24"/>
+    <row r="151" spans="1:10" ht="15.6">
+      <c r="A151" s="24"/>
+      <c r="B151" s="25"/>
       <c r="C151" s="20" t="s">
         <v>155</v>
       </c>
@@ -3771,9 +3703,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="15.75">
-      <c r="A152" s="26"/>
-      <c r="B152" s="24"/>
+    <row r="152" spans="1:10" ht="15.6">
+      <c r="A152" s="24"/>
+      <c r="B152" s="25"/>
       <c r="C152" s="20" t="s">
         <v>156</v>
       </c>
@@ -3789,9 +3721,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="15.75">
-      <c r="A153" s="26"/>
-      <c r="B153" s="24"/>
+    <row r="153" spans="1:10" ht="15.6">
+      <c r="A153" s="24"/>
+      <c r="B153" s="25"/>
       <c r="C153" s="20" t="s">
         <v>157</v>
       </c>
@@ -3807,9 +3739,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="15.75">
-      <c r="A154" s="26"/>
-      <c r="B154" s="24"/>
+    <row r="154" spans="1:10" ht="15.6">
+      <c r="A154" s="24"/>
+      <c r="B154" s="25"/>
       <c r="C154" s="20" t="s">
         <v>158</v>
       </c>
@@ -3825,9 +3757,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="15.75">
-      <c r="A155" s="26"/>
-      <c r="B155" s="24"/>
+    <row r="155" spans="1:10" ht="15.6">
+      <c r="A155" s="24"/>
+      <c r="B155" s="25"/>
       <c r="C155" s="20" t="s">
         <v>159</v>
       </c>
@@ -3843,9 +3775,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="15.75">
-      <c r="A156" s="26"/>
-      <c r="B156" s="24"/>
+    <row r="156" spans="1:10" ht="15.6">
+      <c r="A156" s="24"/>
+      <c r="B156" s="25"/>
       <c r="C156" s="20" t="s">
         <v>160</v>
       </c>
@@ -3861,9 +3793,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="15.75">
-      <c r="A157" s="26"/>
-      <c r="B157" s="24"/>
+    <row r="157" spans="1:10" ht="15.6">
+      <c r="A157" s="24"/>
+      <c r="B157" s="25"/>
       <c r="C157" s="20" t="s">
         <v>161</v>
       </c>
@@ -3879,9 +3811,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="15.75">
-      <c r="A158" s="26"/>
-      <c r="B158" s="24"/>
+    <row r="158" spans="1:10" ht="15.6">
+      <c r="A158" s="24"/>
+      <c r="B158" s="25"/>
       <c r="C158" s="20" t="s">
         <v>163</v>
       </c>
@@ -3897,9 +3829,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="15.75">
-      <c r="A159" s="26"/>
-      <c r="B159" s="24"/>
+    <row r="159" spans="1:10" ht="15.6">
+      <c r="A159" s="24"/>
+      <c r="B159" s="25"/>
       <c r="C159" s="3" t="s">
         <v>35</v>
       </c>
@@ -3913,9 +3845,9 @@
       <c r="I159" s="9"/>
       <c r="J159" s="9"/>
     </row>
-    <row r="160" spans="1:10" ht="15.75">
-      <c r="A160" s="26"/>
-      <c r="B160" s="24"/>
+    <row r="160" spans="1:10" ht="15.6">
+      <c r="A160" s="24"/>
+      <c r="B160" s="25"/>
       <c r="C160" s="7" t="s">
         <v>23</v>
       </c>
@@ -3927,9 +3859,9 @@
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
     </row>
-    <row r="161" spans="1:10" ht="15.75">
-      <c r="A161" s="26"/>
-      <c r="B161" s="24"/>
+    <row r="161" spans="1:10" ht="15.6">
+      <c r="A161" s="24"/>
+      <c r="B161" s="25"/>
       <c r="C161" s="6" t="s">
         <v>112</v>
       </c>
@@ -3943,9 +3875,9 @@
       <c r="I161" s="9"/>
       <c r="J161" s="9"/>
     </row>
-    <row r="162" spans="1:10" ht="15.75">
-      <c r="A162" s="26"/>
-      <c r="B162" s="24"/>
+    <row r="162" spans="1:10" ht="15.6">
+      <c r="A162" s="24"/>
+      <c r="B162" s="25"/>
       <c r="C162" s="6" t="s">
         <v>113</v>
       </c>
@@ -3959,9 +3891,9 @@
       <c r="I162" s="9"/>
       <c r="J162" s="9"/>
     </row>
-    <row r="163" spans="1:10" ht="15.75">
-      <c r="A163" s="26"/>
-      <c r="B163" s="24"/>
+    <row r="163" spans="1:10" ht="15.6">
+      <c r="A163" s="24"/>
+      <c r="B163" s="25"/>
       <c r="C163" s="7" t="s">
         <v>24</v>
       </c>
@@ -3973,9 +3905,9 @@
       <c r="I163" s="9"/>
       <c r="J163" s="9"/>
     </row>
-    <row r="164" spans="1:10" ht="15.75">
-      <c r="A164" s="26"/>
-      <c r="B164" s="24"/>
+    <row r="164" spans="1:10" ht="15.6">
+      <c r="A164" s="24"/>
+      <c r="B164" s="25"/>
       <c r="C164" s="6" t="s">
         <v>112</v>
       </c>
@@ -3989,9 +3921,9 @@
       <c r="I164" s="9"/>
       <c r="J164" s="9"/>
     </row>
-    <row r="165" spans="1:10" ht="15.75">
-      <c r="A165" s="26"/>
-      <c r="B165" s="24"/>
+    <row r="165" spans="1:10" ht="15.6">
+      <c r="A165" s="24"/>
+      <c r="B165" s="25"/>
       <c r="C165" s="6" t="s">
         <v>113</v>
       </c>
@@ -4006,10 +3938,10 @@
       <c r="J165" s="9"/>
     </row>
     <row r="166" spans="1:10" ht="15.6" customHeight="1">
-      <c r="A166" s="25">
+      <c r="A166" s="23">
         <v>6</v>
       </c>
-      <c r="B166" s="24" t="s">
+      <c r="B166" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C166" s="7" t="s">
@@ -4025,9 +3957,9 @@
       <c r="I166" s="9"/>
       <c r="J166" s="9"/>
     </row>
-    <row r="167" spans="1:10" ht="15.75">
-      <c r="A167" s="26"/>
-      <c r="B167" s="24"/>
+    <row r="167" spans="1:10" ht="15.6">
+      <c r="A167" s="24"/>
+      <c r="B167" s="25"/>
       <c r="C167" s="7" t="s">
         <v>115</v>
       </c>
@@ -4041,9 +3973,9 @@
       <c r="I167" s="9"/>
       <c r="J167" s="9"/>
     </row>
-    <row r="168" spans="1:10" ht="15.75">
-      <c r="A168" s="26"/>
-      <c r="B168" s="24"/>
+    <row r="168" spans="1:10" ht="15.6">
+      <c r="A168" s="24"/>
+      <c r="B168" s="25"/>
       <c r="C168" s="7" t="s">
         <v>27</v>
       </c>
@@ -4100,11 +4032,11 @@
       </c>
       <c r="E170" s="2">
         <f>SUMIF(E2:E168,"=O",$J$2:$J$168)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F170" s="2">
         <f>SUMIF(F2:F168,"=O",$J$2:$J$168)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G170" s="2">
         <f>SUMIF(G2:G168,"=O",$J$2:$J$168)</f>
@@ -4133,7 +4065,7 @@
       <c r="H171" s="2"/>
       <c r="J171" s="2"/>
     </row>
-    <row r="172" spans="1:10" ht="60">
+    <row r="172" spans="1:10" ht="55.2">
       <c r="A172" s="15">
         <v>1</v>
       </c>
@@ -4150,7 +4082,7 @@
       <c r="H172" s="2"/>
       <c r="J172" s="2"/>
     </row>
-    <row r="173" spans="1:10" ht="30">
+    <row r="173" spans="1:10" ht="27.6">
       <c r="A173" s="17">
         <v>2</v>
       </c>
@@ -4167,7 +4099,7 @@
       <c r="H173" s="2"/>
       <c r="J173" s="2"/>
     </row>
-    <row r="174" spans="1:10" ht="30">
+    <row r="174" spans="1:10" ht="27.6">
       <c r="A174" s="17">
         <v>3</v>
       </c>
@@ -4184,7 +4116,7 @@
       <c r="H174" s="2"/>
       <c r="J174" s="2"/>
     </row>
-    <row r="175" spans="1:10" ht="30">
+    <row r="175" spans="1:10" ht="27.6">
       <c r="A175" s="17">
         <v>4</v>
       </c>
@@ -4201,7 +4133,7 @@
       <c r="H175" s="2"/>
       <c r="J175" s="2"/>
     </row>
-    <row r="176" spans="1:10" ht="30">
+    <row r="176" spans="1:10" ht="27.6">
       <c r="A176" s="17">
         <v>5</v>
       </c>
@@ -4340,18 +4272,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B46"/>
+    <mergeCell ref="A11:A46"/>
+    <mergeCell ref="A7:A10"/>
     <mergeCell ref="A166:A168"/>
     <mergeCell ref="B166:B168"/>
     <mergeCell ref="B102:B165"/>
     <mergeCell ref="A102:A165"/>
     <mergeCell ref="B47:B101"/>
     <mergeCell ref="A47:A101"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B46"/>
-    <mergeCell ref="A11:A46"/>
-    <mergeCell ref="A7:A10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D171:H189 D2:H168">
@@ -4370,7 +4302,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4382,7 +4314,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
